--- a/gd/数值规划/成长数值相关/产出整合.xlsx
+++ b/gd/数值规划/成长数值相关/产出整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="-75" windowWidth="28830" windowHeight="12720" tabRatio="681" activeTab="7"/>
+    <workbookView xWindow="135" yWindow="525" windowWidth="26910" windowHeight="10920" tabRatio="681" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -18,19 +18,22 @@
     <sheet name="公会_贡献值内部算法" sheetId="15" r:id="rId9"/>
     <sheet name="公会商店" sheetId="16" r:id="rId10"/>
     <sheet name="公会科技" sheetId="18" r:id="rId11"/>
-    <sheet name="公会任务" sheetId="17" r:id="rId12"/>
-    <sheet name="草稿" sheetId="19" r:id="rId13"/>
+    <sheet name="草稿" sheetId="19" r:id="rId12"/>
+    <sheet name="公会任务" sheetId="17" r:id="rId13"/>
+    <sheet name="商店列表" sheetId="20" r:id="rId14"/>
+    <sheet name="宠物进阶石通用价格对应" sheetId="21" r:id="rId15"/>
+    <sheet name="大冒险reward  reseach" sheetId="22" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="793">
   <si>
     <t>签到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2482,6 +2485,358 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(蓝5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配比系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数*数量级*等级系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉率数量级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率与完成基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备升阶卷轴碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化石权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备升级卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个宠物最大提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升最大幅度(M*可派出人数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补正修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料包数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2498,15 +2853,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人贡献</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宝箱</t>
+    <t>金钱50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物I*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物P*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(物)护身符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(物)戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(魔)戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(魔)护身符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(坦克)戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(坦克)护身符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(辅助)戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机装备(辅助)护身符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2514,19 +2981,266 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机装备(蓝5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间效率</t>
+    <t>金钱价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他商店币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X5叠卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联rewardgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">期望次数 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶材料包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量2</t>
+  </si>
+  <si>
+    <t>期望2</t>
+  </si>
+  <si>
+    <t>数量3</t>
+  </si>
+  <si>
+    <t>期望3</t>
+  </si>
+  <si>
+    <t>数量4</t>
+  </si>
+  <si>
+    <t>期望3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由刷新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御防守型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧生命上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先攻控制型(减速)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速加防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血加防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初心冒险宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长冒险宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者冒险宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家冒险宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_7000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2534,315 +3248,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人贡献</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配比系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数*数量级*等级系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡献</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉率数量级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功率与完成基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪不动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS-20%成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备升阶卷轴碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功率修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25 BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25 小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25 采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45 采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45 小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45 BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化石权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高阶装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备升级卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个宠物最大提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升最大幅度(M*可派出人数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补正修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开孔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡献20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡献30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡献40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料40</t>
+    <t>5*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3432,7 +3854,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3907,6 +4329,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4023,6 +4448,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4208,11 +4636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73028736"/>
-        <c:axId val="73030272"/>
+        <c:axId val="420960896"/>
+        <c:axId val="423727488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73028736"/>
+        <c:axId val="420960896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73030272"/>
+        <c:crossAx val="423727488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4229,7 +4657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73030272"/>
+        <c:axId val="423727488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73028736"/>
+        <c:crossAx val="420960896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12312,9 +12740,9 @@
       <sheetName val="宠物经验(副本关联表)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="18">
           <cell r="A18">
@@ -14140,8 +14568,12 @@
           <cell r="J8">
             <v>2</v>
           </cell>
-          <cell r="K8"/>
-          <cell r="L8"/>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
           <cell r="M8">
             <v>100</v>
           </cell>
@@ -14324,8 +14756,12 @@
           <cell r="J9">
             <v>2</v>
           </cell>
-          <cell r="K9"/>
-          <cell r="L9"/>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
           <cell r="M9">
             <v>150</v>
           </cell>
@@ -14517,8 +14953,12 @@
           <cell r="J10">
             <v>2</v>
           </cell>
-          <cell r="K10"/>
-          <cell r="L10"/>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>0</v>
+          </cell>
           <cell r="M10">
             <v>200</v>
           </cell>
@@ -14710,8 +15150,12 @@
           <cell r="J11">
             <v>2</v>
           </cell>
-          <cell r="K11"/>
-          <cell r="L11"/>
+          <cell r="K11">
+            <v>0</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
           <cell r="M11">
             <v>250</v>
           </cell>
@@ -14903,8 +15347,12 @@
           <cell r="J12">
             <v>2</v>
           </cell>
-          <cell r="K12"/>
-          <cell r="L12"/>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
           <cell r="M12">
             <v>300</v>
           </cell>
@@ -15096,8 +15544,12 @@
           <cell r="J13">
             <v>2</v>
           </cell>
-          <cell r="K13"/>
-          <cell r="L13"/>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
           <cell r="M13">
             <v>350</v>
           </cell>
@@ -15289,8 +15741,12 @@
           <cell r="J14">
             <v>2</v>
           </cell>
-          <cell r="K14"/>
-          <cell r="L14"/>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>0</v>
+          </cell>
           <cell r="M14">
             <v>400</v>
           </cell>
@@ -15482,8 +15938,12 @@
           <cell r="J15">
             <v>2</v>
           </cell>
-          <cell r="K15"/>
-          <cell r="L15"/>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
           <cell r="M15">
             <v>450</v>
           </cell>
@@ -15675,8 +16135,12 @@
           <cell r="J16">
             <v>2</v>
           </cell>
-          <cell r="K16"/>
-          <cell r="L16"/>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
           <cell r="M16">
             <v>500</v>
           </cell>
@@ -15847,16 +16311,36 @@
           <cell r="B17">
             <v>10</v>
           </cell>
-          <cell r="C17"/>
-          <cell r="D17"/>
-          <cell r="E17"/>
-          <cell r="F17"/>
-          <cell r="G17"/>
-          <cell r="H17"/>
-          <cell r="I17"/>
-          <cell r="J17"/>
-          <cell r="K17"/>
-          <cell r="L17"/>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
           <cell r="Q17">
             <v>9</v>
           </cell>
@@ -16015,7 +16499,9 @@
           <cell r="B18">
             <v>11</v>
           </cell>
-          <cell r="C18"/>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
           <cell r="D18">
             <v>5</v>
           </cell>
@@ -16037,8 +16523,12 @@
           <cell r="J18">
             <v>3</v>
           </cell>
-          <cell r="K18"/>
-          <cell r="L18"/>
+          <cell r="K18">
+            <v>0</v>
+          </cell>
+          <cell r="L18">
+            <v>0</v>
+          </cell>
           <cell r="M18">
             <v>1000</v>
           </cell>
@@ -16206,7 +16696,9 @@
           <cell r="B19">
             <v>12</v>
           </cell>
-          <cell r="C19"/>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
           <cell r="D19">
             <v>10</v>
           </cell>
@@ -16228,8 +16720,12 @@
           <cell r="J19">
             <v>4</v>
           </cell>
-          <cell r="K19"/>
-          <cell r="L19"/>
+          <cell r="K19">
+            <v>0</v>
+          </cell>
+          <cell r="L19">
+            <v>0</v>
+          </cell>
           <cell r="M19">
             <v>1100</v>
           </cell>
@@ -16397,7 +16893,9 @@
           <cell r="B20">
             <v>13</v>
           </cell>
-          <cell r="C20"/>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
           <cell r="D20">
             <v>10</v>
           </cell>
@@ -16419,8 +16917,12 @@
           <cell r="J20">
             <v>4</v>
           </cell>
-          <cell r="K20"/>
-          <cell r="L20"/>
+          <cell r="K20">
+            <v>0</v>
+          </cell>
+          <cell r="L20">
+            <v>0</v>
+          </cell>
           <cell r="M20">
             <v>1200</v>
           </cell>
@@ -16588,7 +17090,9 @@
           <cell r="B21">
             <v>14</v>
           </cell>
-          <cell r="C21"/>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
           <cell r="D21">
             <v>15</v>
           </cell>
@@ -16610,8 +17114,12 @@
           <cell r="J21">
             <v>4</v>
           </cell>
-          <cell r="K21"/>
-          <cell r="L21"/>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>0</v>
+          </cell>
           <cell r="M21">
             <v>1300</v>
           </cell>
@@ -16779,7 +17287,9 @@
           <cell r="B22">
             <v>15</v>
           </cell>
-          <cell r="C22"/>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
           <cell r="D22">
             <v>15</v>
           </cell>
@@ -16804,7 +17314,9 @@
           <cell r="K22" t="str">
             <v>中级</v>
           </cell>
-          <cell r="L22"/>
+          <cell r="L22">
+            <v>0</v>
+          </cell>
           <cell r="M22">
             <v>1400</v>
           </cell>
@@ -16972,7 +17484,9 @@
           <cell r="B23">
             <v>16</v>
           </cell>
-          <cell r="C23"/>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
           <cell r="D23">
             <v>15</v>
           </cell>
@@ -16994,8 +17508,12 @@
           <cell r="J23">
             <v>5</v>
           </cell>
-          <cell r="K23"/>
-          <cell r="L23"/>
+          <cell r="K23">
+            <v>0</v>
+          </cell>
+          <cell r="L23">
+            <v>0</v>
+          </cell>
           <cell r="M23">
             <v>1500</v>
           </cell>
@@ -17163,7 +17681,9 @@
           <cell r="B24">
             <v>17</v>
           </cell>
-          <cell r="C24"/>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
           <cell r="D24">
             <v>20</v>
           </cell>
@@ -17185,8 +17705,12 @@
           <cell r="J24">
             <v>5</v>
           </cell>
-          <cell r="K24"/>
-          <cell r="L24"/>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
+          <cell r="L24">
+            <v>0</v>
+          </cell>
           <cell r="M24">
             <v>1600</v>
           </cell>
@@ -17354,7 +17878,9 @@
           <cell r="B25">
             <v>18</v>
           </cell>
-          <cell r="C25"/>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
           <cell r="D25">
             <v>20</v>
           </cell>
@@ -17376,8 +17902,12 @@
           <cell r="J25">
             <v>5</v>
           </cell>
-          <cell r="K25"/>
-          <cell r="L25"/>
+          <cell r="K25">
+            <v>0</v>
+          </cell>
+          <cell r="L25">
+            <v>0</v>
+          </cell>
           <cell r="M25">
             <v>1700</v>
           </cell>
@@ -17545,7 +18075,9 @@
           <cell r="B26">
             <v>19</v>
           </cell>
-          <cell r="C26"/>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
           <cell r="D26">
             <v>25</v>
           </cell>
@@ -17567,8 +18099,12 @@
           <cell r="J26">
             <v>5</v>
           </cell>
-          <cell r="K26"/>
-          <cell r="L26"/>
+          <cell r="K26">
+            <v>0</v>
+          </cell>
+          <cell r="L26">
+            <v>0</v>
+          </cell>
           <cell r="M26">
             <v>1800</v>
           </cell>
@@ -17739,17 +18275,39 @@
           <cell r="B27">
             <v>20</v>
           </cell>
-          <cell r="C27"/>
-          <cell r="D27"/>
-          <cell r="E27"/>
-          <cell r="F27"/>
-          <cell r="G27"/>
-          <cell r="H27"/>
-          <cell r="I27"/>
-          <cell r="J27"/>
-          <cell r="K27"/>
-          <cell r="L27"/>
-          <cell r="M27"/>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27">
+            <v>0</v>
+          </cell>
+          <cell r="H27">
+            <v>0</v>
+          </cell>
+          <cell r="I27">
+            <v>0</v>
+          </cell>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
+          <cell r="K27">
+            <v>0</v>
+          </cell>
+          <cell r="L27">
+            <v>0</v>
+          </cell>
+          <cell r="M27">
+            <v>0</v>
+          </cell>
           <cell r="N27">
             <v>12600</v>
           </cell>
@@ -17905,13 +18463,18 @@
           </cell>
           <cell r="BU27">
             <v>8820</v>
+          </cell>
+          <cell r="BV27">
+            <v>164</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
             <v>21</v>
           </cell>
-          <cell r="C28"/>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
           <cell r="D28">
             <v>20</v>
           </cell>
@@ -17936,7 +18499,9 @@
           <cell r="K28" t="str">
             <v>1中级</v>
           </cell>
-          <cell r="L28"/>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
           <cell r="M28">
             <v>3000</v>
           </cell>
@@ -18104,7 +18669,9 @@
           <cell r="B29">
             <v>22</v>
           </cell>
-          <cell r="C29"/>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
           <cell r="D29">
             <v>25</v>
           </cell>
@@ -18129,7 +18696,9 @@
           <cell r="K29" t="str">
             <v>1中级</v>
           </cell>
-          <cell r="L29"/>
+          <cell r="L29">
+            <v>0</v>
+          </cell>
           <cell r="M29">
             <v>3200</v>
           </cell>
@@ -18297,7 +18866,9 @@
           <cell r="B30">
             <v>23</v>
           </cell>
-          <cell r="C30"/>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
           <cell r="D30">
             <v>25</v>
           </cell>
@@ -18322,7 +18893,9 @@
           <cell r="K30" t="str">
             <v>1中级</v>
           </cell>
-          <cell r="L30"/>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
           <cell r="M30">
             <v>3400</v>
           </cell>
@@ -18490,7 +19063,9 @@
           <cell r="B31">
             <v>24</v>
           </cell>
-          <cell r="C31"/>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
           <cell r="D31">
             <v>30</v>
           </cell>
@@ -18515,7 +19090,9 @@
           <cell r="K31" t="str">
             <v>2中级</v>
           </cell>
-          <cell r="L31"/>
+          <cell r="L31">
+            <v>0</v>
+          </cell>
           <cell r="M31">
             <v>3600</v>
           </cell>
@@ -18683,7 +19260,9 @@
           <cell r="B32">
             <v>25</v>
           </cell>
-          <cell r="C32"/>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
           <cell r="D32">
             <v>30</v>
           </cell>
@@ -18705,8 +19284,12 @@
           <cell r="J32">
             <v>10</v>
           </cell>
-          <cell r="K32"/>
-          <cell r="L32"/>
+          <cell r="K32">
+            <v>0</v>
+          </cell>
+          <cell r="L32">
+            <v>0</v>
+          </cell>
           <cell r="M32">
             <v>3800</v>
           </cell>
@@ -18874,7 +19457,9 @@
           <cell r="B33">
             <v>26</v>
           </cell>
-          <cell r="C33"/>
+          <cell r="C33">
+            <v>0</v>
+          </cell>
           <cell r="D33">
             <v>35</v>
           </cell>
@@ -18896,8 +19481,12 @@
           <cell r="J33">
             <v>10</v>
           </cell>
-          <cell r="K33"/>
-          <cell r="L33"/>
+          <cell r="K33">
+            <v>0</v>
+          </cell>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
           <cell r="M33">
             <v>4000</v>
           </cell>
@@ -19065,7 +19654,9 @@
           <cell r="B34">
             <v>27</v>
           </cell>
-          <cell r="C34"/>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
           <cell r="D34">
             <v>50</v>
           </cell>
@@ -19087,8 +19678,12 @@
           <cell r="J34">
             <v>15</v>
           </cell>
-          <cell r="K34"/>
-          <cell r="L34"/>
+          <cell r="K34">
+            <v>0</v>
+          </cell>
+          <cell r="L34">
+            <v>0</v>
+          </cell>
           <cell r="M34">
             <v>4200</v>
           </cell>
@@ -19256,7 +19851,9 @@
           <cell r="B35">
             <v>28</v>
           </cell>
-          <cell r="C35"/>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
           <cell r="D35">
             <v>75</v>
           </cell>
@@ -19278,8 +19875,12 @@
           <cell r="J35">
             <v>15</v>
           </cell>
-          <cell r="K35"/>
-          <cell r="L35"/>
+          <cell r="K35">
+            <v>0</v>
+          </cell>
+          <cell r="L35">
+            <v>0</v>
+          </cell>
           <cell r="M35">
             <v>4400</v>
           </cell>
@@ -19447,7 +20048,9 @@
           <cell r="B36">
             <v>29</v>
           </cell>
-          <cell r="C36"/>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
           <cell r="D36">
             <v>75</v>
           </cell>
@@ -19469,8 +20072,12 @@
           <cell r="J36">
             <v>15</v>
           </cell>
-          <cell r="K36"/>
-          <cell r="L36"/>
+          <cell r="K36">
+            <v>0</v>
+          </cell>
+          <cell r="L36">
+            <v>0</v>
+          </cell>
           <cell r="M36">
             <v>4600</v>
           </cell>
@@ -19641,21 +20248,39 @@
           <cell r="B37">
             <v>30</v>
           </cell>
-          <cell r="C37"/>
-          <cell r="D37"/>
-          <cell r="E37"/>
-          <cell r="F37"/>
-          <cell r="G37"/>
-          <cell r="H37"/>
+          <cell r="C37">
+            <v>0</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+          <cell r="E37">
+            <v>0</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+          <cell r="G37">
+            <v>0</v>
+          </cell>
+          <cell r="H37">
+            <v>0</v>
+          </cell>
           <cell r="I37">
             <v>3</v>
           </cell>
           <cell r="J37">
             <v>15</v>
           </cell>
-          <cell r="K37"/>
-          <cell r="L37"/>
-          <cell r="M37"/>
+          <cell r="K37">
+            <v>0</v>
+          </cell>
+          <cell r="L37">
+            <v>0</v>
+          </cell>
+          <cell r="M37">
+            <v>0</v>
+          </cell>
           <cell r="N37">
             <v>36800</v>
           </cell>
@@ -19811,27 +20436,48 @@
           </cell>
           <cell r="BU37">
             <v>25760</v>
+          </cell>
+          <cell r="BV37">
+            <v>529</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
             <v>31</v>
           </cell>
-          <cell r="C38"/>
-          <cell r="D38"/>
-          <cell r="E38"/>
-          <cell r="F38"/>
-          <cell r="G38"/>
-          <cell r="H38"/>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
+          <cell r="D38">
+            <v>0</v>
+          </cell>
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+          <cell r="G38">
+            <v>0</v>
+          </cell>
+          <cell r="H38">
+            <v>0</v>
+          </cell>
           <cell r="I38">
             <v>3</v>
           </cell>
           <cell r="J38">
             <v>15</v>
           </cell>
-          <cell r="K38"/>
-          <cell r="L38"/>
-          <cell r="M38"/>
+          <cell r="K38">
+            <v>0</v>
+          </cell>
+          <cell r="L38">
+            <v>0</v>
+          </cell>
+          <cell r="M38">
+            <v>0</v>
+          </cell>
           <cell r="Q38">
             <v>30</v>
           </cell>
@@ -19987,21 +20633,39 @@
           <cell r="B39">
             <v>32</v>
           </cell>
-          <cell r="C39"/>
-          <cell r="D39"/>
-          <cell r="E39"/>
-          <cell r="F39"/>
-          <cell r="G39"/>
-          <cell r="H39"/>
+          <cell r="C39">
+            <v>0</v>
+          </cell>
+          <cell r="D39">
+            <v>0</v>
+          </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+          <cell r="F39">
+            <v>0</v>
+          </cell>
+          <cell r="G39">
+            <v>0</v>
+          </cell>
+          <cell r="H39">
+            <v>0</v>
+          </cell>
           <cell r="I39">
             <v>3</v>
           </cell>
           <cell r="J39">
             <v>15</v>
           </cell>
-          <cell r="K39"/>
-          <cell r="L39"/>
-          <cell r="M39"/>
+          <cell r="K39">
+            <v>0</v>
+          </cell>
+          <cell r="L39">
+            <v>0</v>
+          </cell>
+          <cell r="M39">
+            <v>0</v>
+          </cell>
           <cell r="Q39">
             <v>31</v>
           </cell>
@@ -20157,7 +20821,9 @@
           <cell r="B40">
             <v>33</v>
           </cell>
-          <cell r="C40"/>
+          <cell r="C40">
+            <v>0</v>
+          </cell>
           <cell r="D40">
             <v>100</v>
           </cell>
@@ -20179,8 +20845,12 @@
           <cell r="J40">
             <v>25</v>
           </cell>
-          <cell r="K40"/>
-          <cell r="L40"/>
+          <cell r="K40">
+            <v>0</v>
+          </cell>
+          <cell r="L40">
+            <v>0</v>
+          </cell>
           <cell r="M40">
             <v>6000</v>
           </cell>
@@ -20348,7 +21018,9 @@
           <cell r="B41">
             <v>34</v>
           </cell>
-          <cell r="C41"/>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
           <cell r="D41">
             <v>100</v>
           </cell>
@@ -20370,8 +21042,12 @@
           <cell r="J41">
             <v>25</v>
           </cell>
-          <cell r="K41"/>
-          <cell r="L41"/>
+          <cell r="K41">
+            <v>0</v>
+          </cell>
+          <cell r="L41">
+            <v>0</v>
+          </cell>
           <cell r="M41">
             <v>6300</v>
           </cell>
@@ -20539,7 +21215,9 @@
           <cell r="B42">
             <v>35</v>
           </cell>
-          <cell r="C42"/>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
           <cell r="D42">
             <v>150</v>
           </cell>
@@ -20564,7 +21242,9 @@
           <cell r="K42" t="str">
             <v>高级</v>
           </cell>
-          <cell r="L42"/>
+          <cell r="L42">
+            <v>0</v>
+          </cell>
           <cell r="M42">
             <v>6600</v>
           </cell>
@@ -20732,7 +21412,9 @@
           <cell r="B43">
             <v>36</v>
           </cell>
-          <cell r="C43"/>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
           <cell r="D43">
             <v>150</v>
           </cell>
@@ -20757,7 +21439,9 @@
           <cell r="K43" t="str">
             <v>高级</v>
           </cell>
-          <cell r="L43"/>
+          <cell r="L43">
+            <v>0</v>
+          </cell>
           <cell r="M43">
             <v>6900</v>
           </cell>
@@ -20925,7 +21609,9 @@
           <cell r="B44">
             <v>37</v>
           </cell>
-          <cell r="C44"/>
+          <cell r="C44">
+            <v>0</v>
+          </cell>
           <cell r="D44">
             <v>175</v>
           </cell>
@@ -20950,7 +21636,9 @@
           <cell r="K44" t="str">
             <v>高级</v>
           </cell>
-          <cell r="L44"/>
+          <cell r="L44">
+            <v>0</v>
+          </cell>
           <cell r="M44">
             <v>7200</v>
           </cell>
@@ -21118,7 +21806,9 @@
           <cell r="B45">
             <v>38</v>
           </cell>
-          <cell r="C45"/>
+          <cell r="C45">
+            <v>0</v>
+          </cell>
           <cell r="D45">
             <v>175</v>
           </cell>
@@ -21140,8 +21830,12 @@
           <cell r="J45">
             <v>25</v>
           </cell>
-          <cell r="K45"/>
-          <cell r="L45"/>
+          <cell r="K45">
+            <v>0</v>
+          </cell>
+          <cell r="L45">
+            <v>0</v>
+          </cell>
           <cell r="M45">
             <v>7500</v>
           </cell>
@@ -21309,7 +22003,9 @@
           <cell r="B46">
             <v>39</v>
           </cell>
-          <cell r="C46"/>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
           <cell r="D46">
             <v>200</v>
           </cell>
@@ -21331,16 +22027,24 @@
           <cell r="J46">
             <v>25</v>
           </cell>
-          <cell r="K46"/>
-          <cell r="L46"/>
+          <cell r="K46">
+            <v>0</v>
+          </cell>
+          <cell r="L46">
+            <v>0</v>
+          </cell>
           <cell r="M46">
             <v>7800</v>
           </cell>
           <cell r="N46">
             <v>54600</v>
           </cell>
-          <cell r="O46"/>
-          <cell r="P46"/>
+          <cell r="O46">
+            <v>0</v>
+          </cell>
+          <cell r="P46">
+            <v>0</v>
+          </cell>
           <cell r="Q46">
             <v>38</v>
           </cell>
@@ -21502,7 +22206,9 @@
           <cell r="B47">
             <v>40</v>
           </cell>
-          <cell r="C47"/>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
           <cell r="D47">
             <v>225</v>
           </cell>
@@ -21524,16 +22230,24 @@
           <cell r="J47">
             <v>25</v>
           </cell>
-          <cell r="K47"/>
-          <cell r="L47"/>
+          <cell r="K47">
+            <v>0</v>
+          </cell>
+          <cell r="L47">
+            <v>0</v>
+          </cell>
           <cell r="M47">
             <v>8100</v>
           </cell>
           <cell r="N47">
             <v>64800</v>
           </cell>
-          <cell r="O47"/>
-          <cell r="P47"/>
+          <cell r="O47">
+            <v>0</v>
+          </cell>
+          <cell r="P47">
+            <v>0</v>
+          </cell>
           <cell r="BU47">
             <v>45360</v>
           </cell>
@@ -21545,7 +22259,9 @@
           <cell r="B48">
             <v>41</v>
           </cell>
-          <cell r="C48"/>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
           <cell r="D48">
             <v>225</v>
           </cell>
@@ -21567,16 +22283,24 @@
           <cell r="J48">
             <v>25</v>
           </cell>
-          <cell r="K48"/>
-          <cell r="L48"/>
+          <cell r="K48">
+            <v>0</v>
+          </cell>
+          <cell r="L48">
+            <v>0</v>
+          </cell>
           <cell r="M48">
             <v>8400</v>
           </cell>
           <cell r="N48">
             <v>75600</v>
           </cell>
-          <cell r="O48"/>
-          <cell r="P48"/>
+          <cell r="O48">
+            <v>0</v>
+          </cell>
+          <cell r="P48">
+            <v>0</v>
+          </cell>
           <cell r="BT48">
             <v>7500</v>
           </cell>
@@ -21591,7 +22315,9 @@
           <cell r="B49">
             <v>42</v>
           </cell>
-          <cell r="C49"/>
+          <cell r="C49">
+            <v>0</v>
+          </cell>
           <cell r="D49">
             <v>100</v>
           </cell>
@@ -21616,15 +22342,21 @@
           <cell r="K49" t="str">
             <v>高级</v>
           </cell>
-          <cell r="L49"/>
+          <cell r="L49">
+            <v>0</v>
+          </cell>
           <cell r="M49">
             <v>15000</v>
           </cell>
           <cell r="N49">
             <v>52500</v>
           </cell>
-          <cell r="O49"/>
-          <cell r="P49"/>
+          <cell r="O49">
+            <v>0</v>
+          </cell>
+          <cell r="P49">
+            <v>0</v>
+          </cell>
           <cell r="BU49">
             <v>36750</v>
           </cell>
@@ -21636,7 +22368,9 @@
           <cell r="B50">
             <v>43</v>
           </cell>
-          <cell r="C50"/>
+          <cell r="C50">
+            <v>0</v>
+          </cell>
           <cell r="D50">
             <v>125</v>
           </cell>
@@ -21658,16 +22392,24 @@
           <cell r="J50">
             <v>50</v>
           </cell>
-          <cell r="K50"/>
-          <cell r="L50"/>
+          <cell r="K50">
+            <v>0</v>
+          </cell>
+          <cell r="L50">
+            <v>0</v>
+          </cell>
           <cell r="M50">
             <v>16000</v>
           </cell>
           <cell r="N50">
             <v>72000</v>
           </cell>
-          <cell r="O50"/>
-          <cell r="P50"/>
+          <cell r="O50">
+            <v>0</v>
+          </cell>
+          <cell r="P50">
+            <v>0</v>
+          </cell>
           <cell r="BU50">
             <v>50400</v>
           </cell>
@@ -21679,7 +22421,9 @@
           <cell r="B51">
             <v>44</v>
           </cell>
-          <cell r="C51"/>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
           <cell r="D51">
             <v>150</v>
           </cell>
@@ -21701,16 +22445,24 @@
           <cell r="J51">
             <v>50</v>
           </cell>
-          <cell r="K51"/>
-          <cell r="L51"/>
+          <cell r="K51">
+            <v>0</v>
+          </cell>
+          <cell r="L51">
+            <v>0</v>
+          </cell>
           <cell r="M51">
             <v>17000</v>
           </cell>
           <cell r="N51">
             <v>93500</v>
           </cell>
-          <cell r="O51"/>
-          <cell r="P51"/>
+          <cell r="O51">
+            <v>0</v>
+          </cell>
+          <cell r="P51">
+            <v>0</v>
+          </cell>
           <cell r="BU51">
             <v>65449.999999999993</v>
           </cell>
@@ -21722,7 +22474,9 @@
           <cell r="B52">
             <v>45</v>
           </cell>
-          <cell r="C52"/>
+          <cell r="C52">
+            <v>0</v>
+          </cell>
           <cell r="D52">
             <v>175</v>
           </cell>
@@ -21744,16 +22498,24 @@
           <cell r="J52">
             <v>50</v>
           </cell>
-          <cell r="K52"/>
-          <cell r="L52"/>
+          <cell r="K52">
+            <v>0</v>
+          </cell>
+          <cell r="L52">
+            <v>0</v>
+          </cell>
           <cell r="M52">
             <v>18000</v>
           </cell>
           <cell r="N52">
             <v>117000</v>
           </cell>
-          <cell r="O52"/>
-          <cell r="P52"/>
+          <cell r="O52">
+            <v>0</v>
+          </cell>
+          <cell r="P52">
+            <v>0</v>
+          </cell>
           <cell r="BU52">
             <v>81900</v>
           </cell>
@@ -21765,7 +22527,9 @@
           <cell r="B53">
             <v>46</v>
           </cell>
-          <cell r="C53"/>
+          <cell r="C53">
+            <v>0</v>
+          </cell>
           <cell r="D53">
             <v>200</v>
           </cell>
@@ -21787,16 +22551,24 @@
           <cell r="J53">
             <v>50</v>
           </cell>
-          <cell r="K53"/>
-          <cell r="L53"/>
+          <cell r="K53">
+            <v>0</v>
+          </cell>
+          <cell r="L53">
+            <v>0</v>
+          </cell>
           <cell r="M53">
             <v>19000</v>
           </cell>
           <cell r="N53">
             <v>133000</v>
           </cell>
-          <cell r="O53"/>
-          <cell r="P53"/>
+          <cell r="O53">
+            <v>0</v>
+          </cell>
+          <cell r="P53">
+            <v>0</v>
+          </cell>
           <cell r="BU53">
             <v>93100</v>
           </cell>
@@ -21808,7 +22580,9 @@
           <cell r="B54">
             <v>47</v>
           </cell>
-          <cell r="C54"/>
+          <cell r="C54">
+            <v>0</v>
+          </cell>
           <cell r="D54">
             <v>225</v>
           </cell>
@@ -21830,8 +22604,12 @@
           <cell r="J54">
             <v>50</v>
           </cell>
-          <cell r="K54"/>
-          <cell r="L54"/>
+          <cell r="K54">
+            <v>0</v>
+          </cell>
+          <cell r="L54">
+            <v>0</v>
+          </cell>
           <cell r="M54">
             <v>20000</v>
           </cell>
@@ -21849,7 +22627,9 @@
           <cell r="B55">
             <v>48</v>
           </cell>
-          <cell r="C55"/>
+          <cell r="C55">
+            <v>0</v>
+          </cell>
           <cell r="D55">
             <v>250</v>
           </cell>
@@ -21871,8 +22651,12 @@
           <cell r="J55">
             <v>50</v>
           </cell>
-          <cell r="K55"/>
-          <cell r="L55"/>
+          <cell r="K55">
+            <v>0</v>
+          </cell>
+          <cell r="L55">
+            <v>0</v>
+          </cell>
           <cell r="M55">
             <v>21000</v>
           </cell>
@@ -21890,7 +22674,9 @@
           <cell r="B56">
             <v>49</v>
           </cell>
-          <cell r="C56"/>
+          <cell r="C56">
+            <v>0</v>
+          </cell>
           <cell r="D56">
             <v>275</v>
           </cell>
@@ -21912,8 +22698,12 @@
           <cell r="J56">
             <v>50</v>
           </cell>
-          <cell r="K56"/>
-          <cell r="L56"/>
+          <cell r="K56">
+            <v>0</v>
+          </cell>
+          <cell r="L56">
+            <v>0</v>
+          </cell>
           <cell r="M56">
             <v>22000</v>
           </cell>
@@ -21931,7 +22721,9 @@
           <cell r="B57">
             <v>50</v>
           </cell>
-          <cell r="C57"/>
+          <cell r="C57">
+            <v>0</v>
+          </cell>
           <cell r="D57">
             <v>300</v>
           </cell>
@@ -21953,8 +22745,12 @@
           <cell r="J57">
             <v>50</v>
           </cell>
-          <cell r="K57"/>
-          <cell r="L57"/>
+          <cell r="K57">
+            <v>0</v>
+          </cell>
+          <cell r="L57">
+            <v>0</v>
+          </cell>
           <cell r="M57">
             <v>23000</v>
           </cell>
@@ -22885,7 +23681,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22899,7 +23695,7 @@
         <v>560</v>
       </c>
       <c r="H2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
@@ -23047,7 +23843,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F19">
         <v>1300</v>
@@ -23152,7 +23948,7 @@
   <dimension ref="E1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23165,13 +23961,13 @@
         <v>527</v>
       </c>
       <c r="P1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="R1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="5:19" x14ac:dyDescent="0.15">
@@ -23195,7 +23991,7 @@
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="5:19" x14ac:dyDescent="0.15">
@@ -23219,7 +24015,7 @@
         <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="5:19" x14ac:dyDescent="0.15">
@@ -23244,7 +24040,7 @@
         <v>300</v>
       </c>
       <c r="S4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="5:19" x14ac:dyDescent="0.15">
@@ -23269,7 +24065,7 @@
         <v>600</v>
       </c>
       <c r="S5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="5:19" x14ac:dyDescent="0.15">
@@ -23294,7 +24090,7 @@
         <v>1200</v>
       </c>
       <c r="S6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="5:19" x14ac:dyDescent="0.15">
@@ -23319,7 +24115,7 @@
         <v>3600</v>
       </c>
       <c r="S7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="5:19" x14ac:dyDescent="0.15">
@@ -23344,7 +24140,7 @@
         <v>5400</v>
       </c>
       <c r="S8" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="5:19" x14ac:dyDescent="0.15">
@@ -23369,7 +24165,7 @@
         <v>9000</v>
       </c>
       <c r="S9" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="5:19" x14ac:dyDescent="0.15">
@@ -23394,7 +24190,7 @@
         <v>16200</v>
       </c>
       <c r="S10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="5:19" x14ac:dyDescent="0.15">
@@ -23419,7 +24215,7 @@
         <v>21600</v>
       </c>
       <c r="S11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="5:19" x14ac:dyDescent="0.15">
@@ -23509,289 +24305,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="8" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="L1" t="s">
-        <v>614</v>
-      </c>
-      <c r="M1" t="s">
-        <v>617</v>
-      </c>
-      <c r="N1" t="s">
-        <v>618</v>
-      </c>
-      <c r="P1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="M2" s="141">
-        <v>3000</v>
-      </c>
-      <c r="N2" s="141">
-        <v>80</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="O3">
-        <v>30</v>
-      </c>
-      <c r="P3">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="O4">
-        <v>40</v>
-      </c>
-      <c r="P4">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="O5">
-        <v>50</v>
-      </c>
-      <c r="P5">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>595</v>
-      </c>
-      <c r="D13" t="s">
-        <v>613</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="I13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B14" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" t="s">
-        <v>596</v>
-      </c>
-      <c r="D14" t="s">
-        <v>597</v>
-      </c>
-      <c r="E14" t="s">
-        <v>598</v>
-      </c>
-      <c r="F14" t="s">
-        <v>599</v>
-      </c>
-      <c r="H14">
-        <v>30</v>
-      </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>611</v>
-      </c>
-      <c r="C15" t="s">
-        <v>600</v>
-      </c>
-      <c r="D15" t="s">
-        <v>601</v>
-      </c>
-      <c r="E15" t="s">
-        <v>602</v>
-      </c>
-      <c r="F15" t="s">
-        <v>605</v>
-      </c>
-      <c r="H15">
-        <v>40</v>
-      </c>
-      <c r="I15">
-        <v>0.8</v>
-      </c>
-      <c r="L15" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>609</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2.5</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>610</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>612</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L19" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>615</v>
-      </c>
-      <c r="B20" t="s">
-        <v>616</v>
-      </c>
-      <c r="L20" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L21" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L22" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L23" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>609</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2.5</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>610</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>671</v>
-      </c>
-      <c r="L26" t="s">
-        <v>686</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I13"/>
   <sheetViews>
@@ -23803,10 +24316,2134 @@
   <sheetData>
     <row r="13" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I13" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M1" t="s">
+        <v>612</v>
+      </c>
+      <c r="N1" t="s">
+        <v>613</v>
+      </c>
+      <c r="P1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M2" s="141">
+        <v>3000</v>
+      </c>
+      <c r="N2" s="141">
+        <v>80</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="141">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3" s="141">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O4">
+        <v>40</v>
+      </c>
+      <c r="P4" s="141">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O5">
+        <v>50</v>
+      </c>
+      <c r="P5" s="141">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D13" t="s">
+        <v>608</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>592</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>678</v>
+      </c>
+      <c r="N14" t="s">
+        <v>679</v>
+      </c>
+      <c r="O14" t="s">
+        <v>680</v>
+      </c>
+      <c r="P14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F15" t="s">
+        <v>601</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>0.8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>666</v>
+      </c>
+      <c r="M15">
+        <f>C16*$M$2*$P$2</f>
+        <v>20250</v>
+      </c>
+      <c r="N15">
+        <f>D16*$N$2*$P$2</f>
+        <v>216</v>
+      </c>
+      <c r="O15">
+        <f>E16*$P$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="P15">
+        <f>F16*$P$2</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>684</v>
+      </c>
+      <c r="B16" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16">
+        <f>C17+C20</f>
+        <v>2.5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>667</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M18" si="0">C17*$M$2*$P$2</f>
+        <v>8100.0000000000009</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N18" si="1">D17*$N$2*$P$2</f>
+        <v>432</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:O17" si="2">E17*$P$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P18" si="3">F17*$P$2</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>685</v>
+      </c>
+      <c r="B17" t="s">
+        <v>605</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>1+D20</f>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>0.8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>668</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>8100.0000000000009</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>0.81000000000000016</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>686</v>
+      </c>
+      <c r="B18" t="s">
+        <v>682</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>E17+E20</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>669</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>8100.0000000000009</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="O18">
+        <f>E19*$P$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>4.1850000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>687</v>
+      </c>
+      <c r="B19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19">
+        <f>F17+F20</f>
+        <v>1.55</v>
+      </c>
+      <c r="L19" t="s">
+        <v>670</v>
+      </c>
+      <c r="M19">
+        <f>C16*$M$2*$P$3</f>
+        <v>25500</v>
+      </c>
+      <c r="N19">
+        <f>D16*$N$2*$P$3</f>
+        <v>272</v>
+      </c>
+      <c r="O19">
+        <f>E16*$P$3</f>
+        <v>0.34</v>
+      </c>
+      <c r="P19">
+        <f>F16*$P$3</f>
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>607</v>
+      </c>
+      <c r="C20" s="141">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="141">
+        <v>1</v>
+      </c>
+      <c r="E20" s="141">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="141">
+        <v>0.75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>671</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M22" si="4">C17*$M$2*$P$3</f>
+        <v>10200</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N22" si="5">D17*$N$2*$P$3</f>
+        <v>544</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:P20" si="6">E17*$P$3</f>
+        <v>0.34</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L21" t="s">
+        <v>672</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>10200</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>272</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:P21" si="7">E18*$P$3</f>
+        <v>1.02</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L22" t="s">
+        <v>673</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>10200</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>272</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:P22" si="8">E19*$P$3</f>
+        <v>0.34</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L23" t="s">
+        <v>674</v>
+      </c>
+      <c r="M23">
+        <f>C16*$M$2*$P$4</f>
+        <v>35250</v>
+      </c>
+      <c r="N23">
+        <f>D16*$N$2*$P$4</f>
+        <v>376</v>
+      </c>
+      <c r="O23">
+        <f>E16*$P$4</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="P23">
+        <f>F16*$P$4</f>
+        <v>3.7600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L24" t="s">
+        <v>675</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M26" si="9">C17*$M$2*$P$4</f>
+        <v>14100</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N26" si="10">D17*$N$2*$P$4</f>
+        <v>752</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:P24" si="11">E17*$P$4</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="11"/>
+        <v>3.7600000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L25" t="s">
+        <v>676</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="9"/>
+        <v>14100</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>376</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:P25" si="12">E18*$P$4</f>
+        <v>1.4100000000000004</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="12"/>
+        <v>3.7600000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L26" t="s">
+        <v>677</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="9"/>
+        <v>14100</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>376</v>
+      </c>
+      <c r="O26">
+        <f>E19*$P$4</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26" si="13">F19*$P$4</f>
+        <v>7.2850000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L27" t="s">
+        <v>688</v>
+      </c>
+      <c r="M27">
+        <f>C16*$M$2*$P$5</f>
+        <v>45750</v>
+      </c>
+      <c r="N27">
+        <f>D16*$N$2*$P$5</f>
+        <v>488</v>
+      </c>
+      <c r="O27">
+        <f>E16*$P$5</f>
+        <v>0.61</v>
+      </c>
+      <c r="P27">
+        <f>F16*$P$5</f>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L28" t="s">
+        <v>689</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M30" si="14">C17*$M$2*$P$5</f>
+        <v>18300</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N30" si="15">D17*$N$2*$P$5</f>
+        <v>976</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O30" si="16">E17*$P$5</f>
+        <v>0.61</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:P30" si="17">F17*$P$5</f>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B29" t="s">
+        <v>611</v>
+      </c>
+      <c r="L29" t="s">
+        <v>690</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="14"/>
+        <v>18300</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="15"/>
+        <v>488</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="16"/>
+        <v>1.83</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="17"/>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>691</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="14"/>
+        <v>18300</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="15"/>
+        <v>488</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="16"/>
+        <v>0.61</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="17"/>
+        <v>9.4550000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>738</v>
+      </c>
+      <c r="C37" t="s">
+        <v>743</v>
+      </c>
+      <c r="D37" t="s">
+        <v>744</v>
+      </c>
+      <c r="E37" t="s">
+        <v>745</v>
+      </c>
+      <c r="F37" t="s">
+        <v>746</v>
+      </c>
+      <c r="G37" t="s">
+        <v>747</v>
+      </c>
+      <c r="H37" t="s">
+        <v>748</v>
+      </c>
+      <c r="I37" t="s">
+        <v>749</v>
+      </c>
+      <c r="J37" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>739</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>300</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>500</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>200</v>
+      </c>
+      <c r="M38">
+        <f>D38/1000*C38+E38*F38/1000+G38*J38/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>740</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>850</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>150</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:M40" si="18">D39/1000*C39+E39*F39/1000+G39*J39/1000</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>741</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>600</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>300</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>742</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>700</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>300</v>
+      </c>
+      <c r="M41">
+        <f>D41/1000*C41+E41*F41/1000+G41*J41/1000</f>
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="13" max="13" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>752</v>
+      </c>
+      <c r="J2" t="s">
+        <v>753</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>565</v>
+      </c>
+      <c r="S2" t="s">
+        <v>568</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E3" s="198">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J3" t="s">
+        <v>754</v>
+      </c>
+      <c r="L3" s="198">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G4" t="s">
+        <v>787</v>
+      </c>
+      <c r="I4" t="s">
+        <v>755</v>
+      </c>
+      <c r="J4" t="s">
+        <v>570</v>
+      </c>
+      <c r="K4" t="s">
+        <v>779</v>
+      </c>
+      <c r="L4" t="s">
+        <v>571</v>
+      </c>
+      <c r="M4" t="s">
+        <v>777</v>
+      </c>
+      <c r="N4" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>565</v>
+      </c>
+      <c r="R4" t="s">
+        <v>572</v>
+      </c>
+      <c r="S4" t="s">
+        <v>570</v>
+      </c>
+      <c r="T4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>693</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>750</v>
+      </c>
+      <c r="M5" t="s">
+        <v>756</v>
+      </c>
+      <c r="N5" t="s">
+        <v>757</v>
+      </c>
+      <c r="O5">
+        <v>300</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>573</v>
+      </c>
+      <c r="T5">
+        <v>500</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>694</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>750</v>
+      </c>
+      <c r="M6" t="s">
+        <v>758</v>
+      </c>
+      <c r="N6" t="s">
+        <v>757</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>574</v>
+      </c>
+      <c r="T6">
+        <v>500</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>767</v>
+      </c>
+      <c r="N7" t="s">
+        <v>757</v>
+      </c>
+      <c r="O7">
+        <v>70</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>575</v>
+      </c>
+      <c r="T7">
+        <v>500</v>
+      </c>
+      <c r="U7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>759</v>
+      </c>
+      <c r="N8" t="s">
+        <v>762</v>
+      </c>
+      <c r="O8">
+        <v>300</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>589</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>750</v>
+      </c>
+      <c r="M9" t="s">
+        <v>760</v>
+      </c>
+      <c r="N9" t="s">
+        <v>762</v>
+      </c>
+      <c r="O9">
+        <v>500</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>590</v>
+      </c>
+      <c r="T9">
+        <v>300</v>
+      </c>
+      <c r="U9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>699</v>
+      </c>
+      <c r="E10">
+        <v>20000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>707</v>
+      </c>
+      <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>761</v>
+      </c>
+      <c r="N10" t="s">
+        <v>762</v>
+      </c>
+      <c r="O10">
+        <v>250</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>581</v>
+      </c>
+      <c r="T10">
+        <v>50</v>
+      </c>
+      <c r="U10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>698</v>
+      </c>
+      <c r="E11">
+        <v>23000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>707</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>750</v>
+      </c>
+      <c r="M11" t="s">
+        <v>765</v>
+      </c>
+      <c r="N11" t="s">
+        <v>764</v>
+      </c>
+      <c r="O11">
+        <v>300</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>582</v>
+      </c>
+      <c r="T11">
+        <v>250</v>
+      </c>
+      <c r="U11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>700</v>
+      </c>
+      <c r="E12">
+        <v>20000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>707</v>
+      </c>
+      <c r="G12">
+        <v>800</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>750</v>
+      </c>
+      <c r="M12" t="s">
+        <v>766</v>
+      </c>
+      <c r="N12" t="s">
+        <v>763</v>
+      </c>
+      <c r="O12">
+        <v>300</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>576</v>
+      </c>
+      <c r="T12">
+        <v>500</v>
+      </c>
+      <c r="U12" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>701</v>
+      </c>
+      <c r="E13">
+        <v>23000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>707</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>768</v>
+      </c>
+      <c r="N13" t="s">
+        <v>763</v>
+      </c>
+      <c r="O13">
+        <v>70</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>577</v>
+      </c>
+      <c r="T13">
+        <v>2600</v>
+      </c>
+      <c r="U13" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E14">
+        <v>20000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>707</v>
+      </c>
+      <c r="G14">
+        <v>800</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>750</v>
+      </c>
+      <c r="M14" t="s">
+        <v>769</v>
+      </c>
+      <c r="N14" t="s">
+        <v>772</v>
+      </c>
+      <c r="O14">
+        <v>300</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14" t="s">
+        <v>576</v>
+      </c>
+      <c r="T14">
+        <v>500</v>
+      </c>
+      <c r="U14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>703</v>
+      </c>
+      <c r="E15">
+        <v>23000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>707</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>750</v>
+      </c>
+      <c r="M15" t="s">
+        <v>770</v>
+      </c>
+      <c r="N15" t="s">
+        <v>772</v>
+      </c>
+      <c r="O15">
+        <v>300</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15" t="s">
+        <v>577</v>
+      </c>
+      <c r="T15">
+        <v>2600</v>
+      </c>
+      <c r="U15" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>704</v>
+      </c>
+      <c r="E16">
+        <v>20000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>707</v>
+      </c>
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>1250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>771</v>
+      </c>
+      <c r="N16" t="s">
+        <v>772</v>
+      </c>
+      <c r="O16">
+        <v>70</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16" t="s">
+        <v>578</v>
+      </c>
+      <c r="T16">
+        <v>300</v>
+      </c>
+      <c r="U16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>705</v>
+      </c>
+      <c r="E17">
+        <v>23000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>707</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>750</v>
+      </c>
+      <c r="M17" t="s">
+        <v>774</v>
+      </c>
+      <c r="N17" t="s">
+        <v>773</v>
+      </c>
+      <c r="O17">
+        <v>300</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17" t="s">
+        <v>583</v>
+      </c>
+      <c r="T17">
+        <v>500</v>
+      </c>
+      <c r="U17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>706</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>708</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>750</v>
+      </c>
+      <c r="M18" t="s">
+        <v>775</v>
+      </c>
+      <c r="N18" t="s">
+        <v>773</v>
+      </c>
+      <c r="O18">
+        <v>300</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+      <c r="S18" t="s">
+        <v>585</v>
+      </c>
+      <c r="T18">
+        <v>150</v>
+      </c>
+      <c r="U18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>586</v>
+      </c>
+      <c r="E19">
+        <v>85000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>707</v>
+      </c>
+      <c r="G19">
+        <v>1500</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>1250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>776</v>
+      </c>
+      <c r="N19" t="s">
+        <v>773</v>
+      </c>
+      <c r="O19">
+        <v>70</v>
+      </c>
+      <c r="R19">
+        <v>8</v>
+      </c>
+      <c r="S19" t="s">
+        <v>586</v>
+      </c>
+      <c r="T19">
+        <v>100</v>
+      </c>
+      <c r="U19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>587</v>
+      </c>
+      <c r="E20">
+        <v>130000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>707</v>
+      </c>
+      <c r="G20">
+        <v>1500</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>700</v>
+      </c>
+      <c r="M20" t="s">
+        <v>780</v>
+      </c>
+      <c r="O20">
+        <v>300</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="S20" t="s">
+        <v>587</v>
+      </c>
+      <c r="T20">
+        <v>200</v>
+      </c>
+      <c r="U20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <v>1400</v>
+      </c>
+      <c r="M21" t="s">
+        <v>780</v>
+      </c>
+      <c r="O21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>2800</v>
+      </c>
+      <c r="M22" t="s">
+        <v>780</v>
+      </c>
+      <c r="O22">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K2" t="s">
+        <v>720</v>
+      </c>
+      <c r="M2">
+        <v>21500</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G3" t="s">
+        <v>715</v>
+      </c>
+      <c r="K3" t="s">
+        <v>721</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>722</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0.08</v>
+      </c>
+      <c r="K5" t="s">
+        <v>727</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C6">
+        <f>C4/C5</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="0">D4/D5</f>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f>F6/10</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="H8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9">
+        <f>500*H9</f>
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <f>D7*$C$9</f>
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:G9" si="1">E7*$C$9</f>
+        <v>4000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10">
+        <f>M4/M2*C9*H10</f>
+        <v>1.0232558139534886</v>
+      </c>
+      <c r="D10">
+        <f>$C$10*D7</f>
+        <v>2.0465116279069773</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:G10" si="2">$C$10*E7</f>
+        <v>8.1860465116279091</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>27.286821705426366</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>102.32558139534886</v>
+      </c>
+      <c r="H10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>731</v>
+      </c>
+      <c r="D11">
+        <f>D10*5</f>
+        <v>10.232558139534886</v>
+      </c>
+      <c r="E11">
+        <f>E10*5</f>
+        <v>40.930232558139544</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:G11" si="3">F10*5</f>
+        <v>136.43410852713183</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>511.62790697674433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>730</v>
+      </c>
+      <c r="C12" t="s">
+        <v>732</v>
+      </c>
+      <c r="D12" t="s">
+        <v>732</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>140</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>728</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>732</v>
+      </c>
+      <c r="F13" t="s">
+        <v>732</v>
+      </c>
+      <c r="G13" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>718</v>
+      </c>
+      <c r="C16">
+        <f>M5/M4*C10*H16</f>
+        <v>18.418604651162795</v>
+      </c>
+      <c r="D16">
+        <f>$C$16*D7</f>
+        <v>36.83720930232559</v>
+      </c>
+      <c r="E16">
+        <f>$C$16*E7</f>
+        <v>147.34883720930236</v>
+      </c>
+      <c r="F16">
+        <f>$C$16*F7</f>
+        <v>491.16279069767455</v>
+      </c>
+      <c r="G16">
+        <f>$C$16*G7</f>
+        <v>1841.8604651162796</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C17">
+        <f>C16</f>
+        <v>18.418604651162795</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:G17" si="4">D16</f>
+        <v>36.83720930232559</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>147.34883720930236</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>491.16279069767455</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>1841.8604651162796</v>
+      </c>
+      <c r="N17" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>734</v>
+      </c>
+      <c r="K18">
+        <f>INT(困难本!C$21*N18)</f>
+        <v>11</v>
+      </c>
+      <c r="L18" s="158">
+        <f>INT(宠物进阶石通用价格对应!N18*困难本!E22)</f>
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>733</v>
+      </c>
+      <c r="C19" t="s">
+        <v>729</v>
+      </c>
+      <c r="D19" t="s">
+        <v>732</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="158">
+        <f>INT(困难本!G$21*N19)</f>
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <f>INT(困难本!I22*N19)</f>
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>728</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>300</v>
+      </c>
+      <c r="E20" t="s">
+        <v>729</v>
+      </c>
+      <c r="F20" t="s">
+        <v>729</v>
+      </c>
+      <c r="G20" t="s">
+        <v>729</v>
+      </c>
+      <c r="K20">
+        <f>INT(困难本!K$21*N20)</f>
+        <v>55</v>
+      </c>
+      <c r="L20" s="158">
+        <f>INT(困难本!M22*N20)</f>
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>68</v>
+      </c>
+      <c r="O20" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K21" s="158">
+        <f>INT(困难本!O$21*N21)</f>
+        <v>55</v>
+      </c>
+      <c r="L21">
+        <f>INT(困难本!$Q$22*N21)</f>
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K22" s="158">
+        <f>INT(困难本!O21*N22)</f>
+        <v>150</v>
+      </c>
+      <c r="L22">
+        <f>INT(困难本!$Q$22*N22)</f>
+        <v>83</v>
+      </c>
+      <c r="N22">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K23" s="140">
+        <f>INT(困难本!O$21*N23)</f>
+        <v>163</v>
+      </c>
+      <c r="L23" s="158">
+        <f>INT(困难本!$Q$22*N23)</f>
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K24" s="140">
+        <f>INT(困难本!O$21*N24)</f>
+        <v>170</v>
+      </c>
+      <c r="L24" s="158">
+        <f>INT(困难本!$Q$22*N24)</f>
+        <v>94</v>
+      </c>
+      <c r="N24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K25" s="140">
+        <f>INT(困难本!S$21*N25)</f>
+        <v>350</v>
+      </c>
+      <c r="L25" s="158">
+        <f>INT(困难本!$U$22*N25)</f>
+        <v>131</v>
+      </c>
+      <c r="N25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K26" s="140">
+        <f>INT(困难本!S$21*N26)</f>
+        <v>600</v>
+      </c>
+      <c r="L26" s="158">
+        <f>INT(困难本!$U$22*N26)</f>
+        <v>224</v>
+      </c>
+      <c r="N26">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K27" s="140">
+        <f>INT(困难本!S$21*N27)</f>
+        <v>205</v>
+      </c>
+      <c r="L27" s="158">
+        <f>INT(困难本!$U$22*N27)</f>
+        <v>76</v>
+      </c>
+      <c r="N27">
+        <v>192</v>
+      </c>
+      <c r="O27" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K28" s="140">
+        <f>INT(困难本!S$21*N28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="158">
+        <f>INT(困难本!$U$22*N28)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23965,92 +26602,92 @@
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="158" t="s">
+      <c r="G2" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="161"/>
     </row>
     <row r="3" spans="1:32" ht="21" x14ac:dyDescent="0.15">
       <c r="G3" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="173" t="s">
+      <c r="I3" s="174" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="173" t="s">
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="162" t="s">
+      <c r="N3" s="175"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164" t="s">
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="170" t="s">
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="171" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="160"/>
+      <c r="AD3" s="161"/>
     </row>
     <row r="4" spans="1:32" s="125" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="176" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="168"/>
+      <c r="H4" s="169"/>
       <c r="I4" s="6" t="s">
         <v>140</v>
       </c>
@@ -24075,22 +26712,22 @@
       <c r="R4" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="182" t="s">
+      <c r="S4" s="183" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="182"/>
+      <c r="T4" s="183"/>
       <c r="U4" s="124"/>
-      <c r="V4" s="188" t="s">
+      <c r="V4" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="182"/>
+      <c r="W4" s="183"/>
       <c r="X4" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="182" t="s">
+      <c r="Y4" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="182"/>
+      <c r="Z4" s="183"/>
       <c r="AA4" s="120" t="s">
         <v>15</v>
       </c>
@@ -24102,9 +26739,9 @@
       <c r="AE4" s="119"/>
     </row>
     <row r="5" spans="1:32" s="109" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="184"/>
-      <c r="B5" s="187"/>
-      <c r="C5" s="169"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="170"/>
       <c r="D5" s="109" t="s">
         <v>43</v>
       </c>
@@ -24114,8 +26751,8 @@
       <c r="F5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="169"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="170"/>
       <c r="I5" s="110" t="s">
         <v>57</v>
       </c>
@@ -24191,22 +26828,22 @@
       <c r="B6" s="35">
         <v>0</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="192" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="178" t="s">
+      <c r="D6" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="180" t="s">
+      <c r="F6" s="181" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="190" t="s">
         <v>117</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -24245,14 +26882,14 @@
       <c r="B7" s="43">
         <v>0</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="181"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="182"/>
       <c r="G7" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="190"/>
+      <c r="H7" s="191"/>
       <c r="I7" s="34" t="s">
         <v>23</v>
       </c>
@@ -24282,14 +26919,14 @@
       <c r="B8" s="43">
         <v>0</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="181"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="182"/>
       <c r="G8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="190"/>
+      <c r="H8" s="191"/>
       <c r="I8" s="34" t="s">
         <v>23</v>
       </c>
@@ -24324,14 +26961,14 @@
       <c r="B9" s="43">
         <v>0</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="181"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="182"/>
       <c r="G9" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="190"/>
+      <c r="H9" s="191"/>
       <c r="I9" s="34" t="s">
         <v>23</v>
       </c>
@@ -24567,19 +27204,19 @@
       <c r="C15" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="185" t="s">
+      <c r="D15" s="186" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="185" t="s">
+      <c r="E15" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="181" t="s">
+      <c r="F15" s="182" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="186" t="s">
+      <c r="H15" s="187" t="s">
         <v>254</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -24612,13 +27249,13 @@
       <c r="C16" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="181"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="182"/>
       <c r="G16" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="186"/>
+      <c r="H16" s="187"/>
       <c r="I16" s="34" t="s">
         <v>23</v>
       </c>
@@ -24659,13 +27296,13 @@
       <c r="C17" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="181"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="186"/>
+      <c r="H17" s="187"/>
       <c r="I17" s="34" t="s">
         <v>23</v>
       </c>
@@ -24756,13 +27393,13 @@
       <c r="C19" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="171" t="s">
+      <c r="D19" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="172" t="s">
+      <c r="F19" s="173" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -24807,9 +27444,9 @@
       <c r="C20" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
       <c r="G20" s="36" t="s">
         <v>132</v>
       </c>
@@ -29039,10 +31676,10 @@
   <dimension ref="A1:AG104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29054,107 +31691,107 @@
       <c r="A1" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194" t="s">
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194" t="s">
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194" t="s">
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194" t="s">
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194" t="s">
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195" t="s">
         <v>393</v>
       </c>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194" t="s">
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194" t="s">
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="195" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="195"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="135" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="197" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196" t="s">
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197" t="s">
         <v>384</v>
       </c>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197" t="s">
         <v>385</v>
       </c>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197" t="s">
         <v>385</v>
       </c>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="131" t="s">
@@ -29836,15 +32473,24 @@
         <v>374</v>
       </c>
       <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="C16" s="131">
+        <v>3</v>
+      </c>
       <c r="D16" s="131"/>
       <c r="E16" s="131">
-        <v>10</v>
-      </c>
-      <c r="F16" s="131"/>
-      <c r="H16" s="131"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="131">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="131">
+        <v>3</v>
+      </c>
       <c r="I16" s="131">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J16" s="131"/>
       <c r="K16" s="131"/>
@@ -29898,16 +32544,25 @@
         <v>373</v>
       </c>
       <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
+      <c r="C17" s="131">
+        <v>3</v>
+      </c>
       <c r="D17" s="131"/>
       <c r="E17" s="131">
-        <v>5</v>
-      </c>
-      <c r="F17" s="131"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="131">
+        <v>3</v>
+      </c>
       <c r="G17" s="131">
-        <v>10</v>
-      </c>
-      <c r="H17" s="131"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="131">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
       <c r="J17" s="131"/>
       <c r="K17" s="131"/>
       <c r="L17" s="131"/>
@@ -29961,22 +32616,26 @@
       </c>
       <c r="B18" s="131"/>
       <c r="C18" s="131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
+      <c r="E18" s="131">
+        <v>3</v>
+      </c>
+      <c r="F18" s="131">
+        <v>3</v>
+      </c>
       <c r="G18" s="131">
-        <v>10</v>
-      </c>
-      <c r="H18" s="131"/>
+        <v>3</v>
+      </c>
+      <c r="H18" s="131">
+        <v>3</v>
+      </c>
       <c r="I18" s="131">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J18" s="131"/>
-      <c r="K18" s="131">
-        <v>5</v>
-      </c>
+      <c r="K18" s="131"/>
       <c r="L18" s="131"/>
       <c r="M18" s="131"/>
       <c r="N18" s="131"/>
@@ -30026,20 +32685,26 @@
       </c>
       <c r="B19" s="131"/>
       <c r="C19" s="131">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
+      <c r="E19" s="131">
+        <v>3</v>
+      </c>
+      <c r="F19" s="131">
+        <v>3</v>
+      </c>
+      <c r="G19" s="131">
+        <v>3</v>
+      </c>
+      <c r="H19" s="131">
+        <v>3</v>
+      </c>
       <c r="I19" s="131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="131"/>
-      <c r="K19" s="131">
-        <v>10</v>
-      </c>
+      <c r="K19" s="131"/>
       <c r="L19" s="131"/>
       <c r="M19" s="131"/>
       <c r="N19" s="131">
@@ -30398,7 +33063,7 @@
         <v>6</v>
       </c>
       <c r="H25" s="131">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I25" s="131">
         <v>9</v>
@@ -30534,7 +33199,9 @@
       <c r="H27" s="131">
         <v>8</v>
       </c>
-      <c r="I27" s="131"/>
+      <c r="I27" s="131">
+        <v>5</v>
+      </c>
       <c r="J27" s="131">
         <v>1</v>
       </c>
@@ -30584,31 +33251,31 @@
         <v>70</v>
       </c>
       <c r="C28" s="131">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D28" s="131">
         <v>69</v>
       </c>
       <c r="E28" s="131">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F28" s="131">
         <v>70</v>
       </c>
       <c r="G28" s="131">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H28" s="131">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I28" s="131">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J28" s="131">
         <v>60</v>
       </c>
       <c r="K28" s="131">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L28" s="131">
         <v>57</v>
@@ -30687,7 +33354,7 @@
       </c>
       <c r="C29" s="132">
         <f t="shared" ref="C29:H29" si="0">SUM(C4:C28)</f>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D29" s="132">
         <f t="shared" si="0"/>
@@ -30695,23 +33362,23 @@
       </c>
       <c r="E29" s="132">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F29" s="132">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G29" s="132">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H29" s="132">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I29" s="132">
         <f t="shared" ref="I29:AG29" si="1">SUM(I4:I28)</f>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J29" s="132">
         <f t="shared" si="1"/>
@@ -31157,54 +33824,59 @@
       <c r="A35" t="s">
         <v>346</v>
       </c>
-      <c r="B35" s="195" t="s">
+      <c r="B35" s="196" t="s">
         <v>365</v>
       </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195" t="s">
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196" t="s">
         <v>366</v>
       </c>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="195" t="s">
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196" t="s">
         <v>367</v>
       </c>
-      <c r="K35" s="195"/>
-      <c r="L35" s="195"/>
-      <c r="M35" s="195"/>
-      <c r="N35" s="195" t="s">
+      <c r="K35" s="196"/>
+      <c r="L35" s="196"/>
+      <c r="M35" s="196"/>
+      <c r="N35" s="196" t="s">
         <v>368</v>
       </c>
-      <c r="O35" s="195"/>
-      <c r="P35" s="195"/>
-      <c r="Q35" s="195"/>
-      <c r="R35" s="195" t="s">
+      <c r="O35" s="196"/>
+      <c r="P35" s="196"/>
+      <c r="Q35" s="196"/>
+      <c r="R35" s="196" t="s">
         <v>369</v>
       </c>
-      <c r="S35" s="195"/>
-      <c r="T35" s="195"/>
-      <c r="U35" s="195"/>
-      <c r="V35" s="195" t="s">
+      <c r="S35" s="196"/>
+      <c r="T35" s="196"/>
+      <c r="U35" s="196"/>
+      <c r="V35" s="196" t="s">
         <v>370</v>
       </c>
-      <c r="W35" s="195"/>
-      <c r="X35" s="195"/>
-      <c r="Y35" s="195"/>
-      <c r="Z35" s="195" t="s">
+      <c r="W35" s="196"/>
+      <c r="X35" s="196"/>
+      <c r="Y35" s="196"/>
+      <c r="Z35" s="196" t="s">
         <v>371</v>
       </c>
-      <c r="AA35" s="195"/>
-      <c r="AB35" s="195"/>
-      <c r="AC35" s="195"/>
-      <c r="AD35" s="195" t="s">
+      <c r="AA35" s="196"/>
+      <c r="AB35" s="196"/>
+      <c r="AC35" s="196"/>
+      <c r="AD35" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="AE35" s="195"/>
-      <c r="AF35" s="195"/>
-      <c r="AG35" s="195"/>
+      <c r="AE35" s="196"/>
+      <c r="AF35" s="196"/>
+      <c r="AG35" s="196"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="I39" t="s">
@@ -31246,7 +33918,7 @@
         <f>E41*C41</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="H41" s="193">
+      <c r="H41" s="194">
         <v>1</v>
       </c>
       <c r="I41">
@@ -31271,7 +33943,7 @@
         <f t="shared" ref="F42:F100" si="6">E42*C42</f>
         <v>33</v>
       </c>
-      <c r="H42" s="193"/>
+      <c r="H42" s="194"/>
       <c r="I42">
         <v>2</v>
       </c>
@@ -31294,7 +33966,7 @@
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="H43" s="193"/>
+      <c r="H43" s="194"/>
       <c r="I43">
         <v>3</v>
       </c>
@@ -31317,7 +33989,7 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="H44" s="193"/>
+      <c r="H44" s="194"/>
       <c r="I44">
         <v>4</v>
       </c>
@@ -31340,7 +34012,7 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="H45" s="193"/>
+      <c r="H45" s="194"/>
       <c r="I45">
         <v>5</v>
       </c>
@@ -31363,7 +34035,7 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="H46" s="193"/>
+      <c r="H46" s="194"/>
       <c r="I46">
         <v>6</v>
       </c>
@@ -31386,7 +34058,7 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="H47" s="193"/>
+      <c r="H47" s="194"/>
       <c r="I47">
         <v>7</v>
       </c>
@@ -31409,7 +34081,7 @@
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H48" s="193"/>
+      <c r="H48" s="194"/>
       <c r="I48">
         <v>8</v>
       </c>
@@ -31432,7 +34104,7 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="H49" s="193">
+      <c r="H49" s="194">
         <v>2</v>
       </c>
       <c r="I49">
@@ -31457,7 +34129,7 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="H50" s="193"/>
+      <c r="H50" s="194"/>
       <c r="I50">
         <v>2</v>
       </c>
@@ -31480,7 +34152,7 @@
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="H51" s="193"/>
+      <c r="H51" s="194"/>
       <c r="I51">
         <v>3</v>
       </c>
@@ -31503,7 +34175,7 @@
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="H52" s="193"/>
+      <c r="H52" s="194"/>
       <c r="I52">
         <v>4</v>
       </c>
@@ -31526,7 +34198,7 @@
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="H53" s="193"/>
+      <c r="H53" s="194"/>
       <c r="I53">
         <v>5</v>
       </c>
@@ -31549,7 +34221,7 @@
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="H54" s="193"/>
+      <c r="H54" s="194"/>
       <c r="I54">
         <v>6</v>
       </c>
@@ -31572,7 +34244,7 @@
         <f t="shared" si="6"/>
         <v>123.5</v>
       </c>
-      <c r="H55" s="193"/>
+      <c r="H55" s="194"/>
       <c r="I55">
         <v>7</v>
       </c>
@@ -31595,7 +34267,7 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="H56" s="193"/>
+      <c r="H56" s="194"/>
       <c r="I56">
         <v>8</v>
       </c>
@@ -31618,7 +34290,7 @@
         <f t="shared" si="6"/>
         <v>147</v>
       </c>
-      <c r="H57" s="193">
+      <c r="H57" s="194">
         <v>3</v>
       </c>
       <c r="I57">
@@ -31643,7 +34315,7 @@
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="H58" s="193"/>
+      <c r="H58" s="194"/>
       <c r="I58">
         <v>2</v>
       </c>
@@ -31666,7 +34338,7 @@
         <f t="shared" si="6"/>
         <v>161</v>
       </c>
-      <c r="H59" s="193"/>
+      <c r="H59" s="194"/>
       <c r="I59">
         <v>3</v>
       </c>
@@ -31689,7 +34361,7 @@
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="H60" s="193"/>
+      <c r="H60" s="194"/>
       <c r="I60">
         <v>4</v>
       </c>
@@ -31712,7 +34384,7 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="H61" s="193"/>
+      <c r="H61" s="194"/>
       <c r="I61">
         <v>5</v>
       </c>
@@ -31735,7 +34407,7 @@
         <f t="shared" si="6"/>
         <v>208</v>
       </c>
-      <c r="H62" s="193"/>
+      <c r="H62" s="194"/>
       <c r="I62">
         <v>6</v>
       </c>
@@ -31758,7 +34430,7 @@
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="H63" s="193"/>
+      <c r="H63" s="194"/>
       <c r="I63">
         <v>7</v>
       </c>
@@ -31781,7 +34453,7 @@
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
-      <c r="H64" s="193"/>
+      <c r="H64" s="194"/>
       <c r="I64">
         <v>8</v>
       </c>
@@ -31804,7 +34476,7 @@
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
-      <c r="H65" s="193">
+      <c r="H65" s="194">
         <v>4</v>
       </c>
       <c r="I65">
@@ -31829,7 +34501,7 @@
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="H66" s="193"/>
+      <c r="H66" s="194"/>
       <c r="I66">
         <v>2</v>
       </c>
@@ -31852,7 +34524,7 @@
         <f t="shared" si="6"/>
         <v>248</v>
       </c>
-      <c r="H67" s="193"/>
+      <c r="H67" s="194"/>
       <c r="I67">
         <v>3</v>
       </c>
@@ -31875,7 +34547,7 @@
         <f t="shared" si="6"/>
         <v>256</v>
       </c>
-      <c r="H68" s="193"/>
+      <c r="H68" s="194"/>
       <c r="I68">
         <v>4</v>
       </c>
@@ -31898,7 +34570,7 @@
         <f t="shared" si="6"/>
         <v>264</v>
       </c>
-      <c r="H69" s="193"/>
+      <c r="H69" s="194"/>
       <c r="I69">
         <v>5</v>
       </c>
@@ -31921,7 +34593,7 @@
         <f t="shared" si="6"/>
         <v>272</v>
       </c>
-      <c r="H70" s="193"/>
+      <c r="H70" s="194"/>
       <c r="I70">
         <v>6</v>
       </c>
@@ -31944,7 +34616,7 @@
         <f t="shared" si="6"/>
         <v>315</v>
       </c>
-      <c r="H71" s="193"/>
+      <c r="H71" s="194"/>
       <c r="I71">
         <v>7</v>
       </c>
@@ -31967,7 +34639,7 @@
         <f t="shared" si="6"/>
         <v>324</v>
       </c>
-      <c r="H72" s="193"/>
+      <c r="H72" s="194"/>
       <c r="I72">
         <v>8</v>
       </c>
@@ -31990,7 +34662,7 @@
         <f t="shared" si="6"/>
         <v>333</v>
       </c>
-      <c r="H73" s="193">
+      <c r="H73" s="194">
         <v>5</v>
       </c>
       <c r="I73">
@@ -32015,7 +34687,7 @@
         <f t="shared" si="6"/>
         <v>342</v>
       </c>
-      <c r="H74" s="193"/>
+      <c r="H74" s="194"/>
       <c r="I74">
         <v>2</v>
       </c>
@@ -32038,7 +34710,7 @@
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
-      <c r="H75" s="193"/>
+      <c r="H75" s="194"/>
       <c r="I75">
         <v>3</v>
       </c>
@@ -32061,7 +34733,7 @@
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="H76" s="193"/>
+      <c r="H76" s="194"/>
       <c r="I76">
         <v>4</v>
       </c>
@@ -32084,7 +34756,7 @@
         <f t="shared" si="6"/>
         <v>369</v>
       </c>
-      <c r="H77" s="193"/>
+      <c r="H77" s="194"/>
       <c r="I77">
         <v>5</v>
       </c>
@@ -32107,7 +34779,7 @@
         <f t="shared" si="6"/>
         <v>378</v>
       </c>
-      <c r="H78" s="193"/>
+      <c r="H78" s="194"/>
       <c r="I78">
         <v>6</v>
       </c>
@@ -32130,7 +34802,7 @@
         <f t="shared" si="6"/>
         <v>387</v>
       </c>
-      <c r="H79" s="193"/>
+      <c r="H79" s="194"/>
       <c r="I79">
         <v>7</v>
       </c>
@@ -32153,7 +34825,7 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="H80" s="193"/>
+      <c r="H80" s="194"/>
       <c r="I80">
         <v>8</v>
       </c>
@@ -32176,7 +34848,7 @@
         <f t="shared" si="6"/>
         <v>472.5</v>
       </c>
-      <c r="H81" s="193">
+      <c r="H81" s="194">
         <v>6</v>
       </c>
       <c r="I81">
@@ -32201,7 +34873,7 @@
         <f t="shared" si="6"/>
         <v>483</v>
       </c>
-      <c r="H82" s="193"/>
+      <c r="H82" s="194"/>
       <c r="I82">
         <v>2</v>
       </c>
@@ -32224,7 +34896,7 @@
         <f t="shared" si="6"/>
         <v>493.5</v>
       </c>
-      <c r="H83" s="193"/>
+      <c r="H83" s="194"/>
       <c r="I83">
         <v>3</v>
       </c>
@@ -32247,7 +34919,7 @@
         <f t="shared" si="6"/>
         <v>504</v>
       </c>
-      <c r="H84" s="193"/>
+      <c r="H84" s="194"/>
       <c r="I84">
         <v>4</v>
       </c>
@@ -32270,7 +34942,7 @@
         <f t="shared" si="6"/>
         <v>514.5</v>
       </c>
-      <c r="H85" s="193"/>
+      <c r="H85" s="194"/>
       <c r="I85">
         <v>5</v>
       </c>
@@ -32293,7 +34965,7 @@
         <f t="shared" si="6"/>
         <v>525</v>
       </c>
-      <c r="H86" s="193"/>
+      <c r="H86" s="194"/>
       <c r="I86">
         <v>6</v>
       </c>
@@ -32316,7 +34988,7 @@
         <f t="shared" si="6"/>
         <v>535.5</v>
       </c>
-      <c r="H87" s="193"/>
+      <c r="H87" s="194"/>
       <c r="I87">
         <v>7</v>
       </c>
@@ -32339,7 +35011,7 @@
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
-      <c r="H88" s="193"/>
+      <c r="H88" s="194"/>
       <c r="I88">
         <v>8</v>
       </c>
@@ -32362,7 +35034,7 @@
         <f t="shared" si="6"/>
         <v>556.5</v>
       </c>
-      <c r="H89" s="193">
+      <c r="H89" s="194">
         <v>7</v>
       </c>
       <c r="I89">
@@ -32387,7 +35059,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H90" s="193"/>
+      <c r="H90" s="194"/>
       <c r="I90">
         <v>2</v>
       </c>
@@ -32410,7 +35082,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H91" s="193"/>
+      <c r="H91" s="194"/>
       <c r="I91">
         <v>3</v>
       </c>
@@ -32433,7 +35105,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H92" s="193"/>
+      <c r="H92" s="194"/>
       <c r="I92">
         <v>4</v>
       </c>
@@ -32456,7 +35128,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H93" s="193"/>
+      <c r="H93" s="194"/>
       <c r="I93">
         <v>5</v>
       </c>
@@ -32479,7 +35151,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H94" s="193"/>
+      <c r="H94" s="194"/>
       <c r="I94">
         <v>6</v>
       </c>
@@ -32502,7 +35174,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H95" s="193"/>
+      <c r="H95" s="194"/>
       <c r="I95">
         <v>7</v>
       </c>
@@ -32525,7 +35197,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H96" s="193"/>
+      <c r="H96" s="194"/>
       <c r="I96">
         <v>8</v>
       </c>
@@ -32548,7 +35220,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H97" s="193">
+      <c r="H97" s="194">
         <v>8</v>
       </c>
       <c r="I97">
@@ -32573,7 +35245,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H98" s="193"/>
+      <c r="H98" s="194"/>
       <c r="I98">
         <v>2</v>
       </c>
@@ -32596,7 +35268,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H99" s="193"/>
+      <c r="H99" s="194"/>
       <c r="I99">
         <v>3</v>
       </c>
@@ -32619,7 +35291,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H100" s="193"/>
+      <c r="H100" s="194"/>
       <c r="I100">
         <v>4</v>
       </c>
@@ -32628,7 +35300,7 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="H101" s="193"/>
+      <c r="H101" s="194"/>
       <c r="I101">
         <v>5</v>
       </c>
@@ -32637,7 +35309,7 @@
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="H102" s="193"/>
+      <c r="H102" s="194"/>
       <c r="I102">
         <v>6</v>
       </c>
@@ -32646,7 +35318,7 @@
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="H103" s="193"/>
+      <c r="H103" s="194"/>
       <c r="I103">
         <v>7</v>
       </c>
@@ -32655,7 +35327,7 @@
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="H104" s="193"/>
+      <c r="H104" s="194"/>
       <c r="I104">
         <v>8</v>
       </c>
@@ -32708,7 +35380,7 @@
   <dimension ref="A3:P109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -35592,8 +38264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35605,107 +38277,107 @@
       <c r="A1" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194" t="s">
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194" t="s">
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194" t="s">
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194" t="s">
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194" t="s">
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195" t="s">
         <v>393</v>
       </c>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194" t="s">
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194" t="s">
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="195" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="195"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="135" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="197" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196" t="s">
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197" t="s">
         <v>427</v>
       </c>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197" t="s">
         <v>385</v>
       </c>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="131" t="s">
@@ -37193,8 +39865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -37231,19 +39903,19 @@
         <v>464</v>
       </c>
       <c r="D5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F5" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B6" s="140"/>
       <c r="F6" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.15">
@@ -37253,19 +39925,19 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="K8" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="L8" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M8" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="N8" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.15">
@@ -37273,7 +39945,7 @@
         <v>459</v>
       </c>
       <c r="E9" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F9">
         <v>360</v>
@@ -37433,33 +40105,33 @@
       <c r="I16" s="149"/>
       <c r="J16" s="132"/>
       <c r="K16" s="132" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="L16" s="132" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="M16" s="132" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="N16" s="132" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="O16" s="132" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="P16" s="132" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="Q16" s="132" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="R16" s="132"/>
       <c r="S16" s="132"/>
       <c r="T16" s="132" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="U16" s="132" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="V16" s="150"/>
     </row>
@@ -37472,7 +40144,7 @@
       </c>
       <c r="I17" s="149"/>
       <c r="J17" s="132" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="K17" s="132">
         <f>E11*$K$9</f>
@@ -37494,18 +40166,18 @@
       <c r="S17" s="132"/>
       <c r="T17" s="151">
         <f>$L$9+D32</f>
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="U17" s="152">
         <f>T17+$M$9*$N$9</f>
-        <v>1.19</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="V17" s="150"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.15">
       <c r="I18" s="149"/>
       <c r="J18" s="132" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="K18" s="132"/>
       <c r="L18" s="132"/>
@@ -37538,7 +40210,7 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.15">
       <c r="I19" s="149"/>
       <c r="J19" s="132" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="K19" s="132"/>
       <c r="L19" s="132"/>
@@ -37560,11 +40232,11 @@
       <c r="S19" s="132"/>
       <c r="T19" s="151">
         <f t="shared" si="0"/>
-        <v>0.64999999999999991</v>
+        <v>0.85</v>
       </c>
       <c r="U19" s="152">
         <f t="shared" si="1"/>
-        <v>0.8899999999999999</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="V19" s="150"/>
     </row>
@@ -37574,7 +40246,7 @@
       </c>
       <c r="I20" s="149"/>
       <c r="J20" s="132" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="K20" s="132">
         <f>E11*K10</f>
@@ -37596,11 +40268,11 @@
       <c r="S20" s="132"/>
       <c r="T20" s="151">
         <f>$L$10+D32</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="U20" s="152">
         <f>T20+$M$10*$N$10</f>
-        <v>1.25</v>
+        <v>1.1500000000000001</v>
       </c>
       <c r="V20" s="150"/>
     </row>
@@ -37616,7 +40288,7 @@
       </c>
       <c r="I21" s="149"/>
       <c r="J21" s="132" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="K21" s="132"/>
       <c r="L21" s="132"/>
@@ -37648,14 +40320,14 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E22">
         <v>0.05</v>
       </c>
       <c r="I22" s="149"/>
       <c r="J22" s="132" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="K22" s="132"/>
       <c r="L22" s="132"/>
@@ -37677,24 +40349,24 @@
       <c r="S22" s="132"/>
       <c r="T22" s="151">
         <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <v>0.8</v>
       </c>
       <c r="U22" s="152">
         <f t="shared" si="3"/>
-        <v>0.95000000000000018</v>
+        <v>1.1500000000000001</v>
       </c>
       <c r="V22" s="150"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E23">
         <v>0.5</v>
       </c>
       <c r="I23" s="149"/>
       <c r="J23" s="132" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="K23" s="132">
         <f>E11*K11</f>
@@ -37716,24 +40388,24 @@
       <c r="S23" s="132"/>
       <c r="T23" s="151">
         <f>$L$11+D32</f>
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="U23" s="152">
         <f>T23+$M$11*$N$11</f>
-        <v>1.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="V23" s="150"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E24">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I24" s="149"/>
       <c r="J24" s="132" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="K24" s="132"/>
       <c r="L24" s="132"/>
@@ -37765,14 +40437,14 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="E25">
         <v>0.5</v>
       </c>
       <c r="I25" s="149"/>
       <c r="J25" s="132" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="K25" s="132"/>
       <c r="L25" s="132"/>
@@ -37794,18 +40466,18 @@
       <c r="S25" s="132"/>
       <c r="T25" s="151">
         <f t="shared" si="4"/>
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="U25" s="152">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="V25" s="150"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.15">
       <c r="I26" s="149"/>
       <c r="J26" s="132" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="K26" s="132">
         <f>E11*K12</f>
@@ -37827,18 +40499,18 @@
       <c r="S26" s="132"/>
       <c r="T26" s="151">
         <f>$L$12+D32</f>
-        <v>0.79999999999999993</v>
+        <v>0.7</v>
       </c>
       <c r="U26" s="152">
         <f>T26+$M$12*$N$12</f>
-        <v>1.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="V26" s="150"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.15">
       <c r="I27" s="149"/>
       <c r="J27" s="132" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="K27" s="132"/>
       <c r="L27" s="132"/>
@@ -37871,7 +40543,7 @@
     <row r="28" spans="2:22" x14ac:dyDescent="0.15">
       <c r="I28" s="149"/>
       <c r="J28" s="132" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="K28" s="132"/>
       <c r="L28" s="132"/>
@@ -37893,17 +40565,17 @@
       <c r="S28" s="132"/>
       <c r="T28" s="151">
         <f t="shared" si="6"/>
-        <v>0.49999999999999994</v>
+        <v>0.7</v>
       </c>
       <c r="U28" s="152">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="V28" s="150"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="I29" s="149"/>
       <c r="J29" s="132"/>
@@ -37938,10 +40610,10 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D31" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="I31" s="149"/>
       <c r="J31" s="132"/>
@@ -37959,12 +40631,10 @@
       <c r="V31" s="150"/>
     </row>
     <row r="32" spans="2:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>640</v>
-      </c>
-      <c r="D32" s="136">
-        <v>0.1</v>
-      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="136"/>
       <c r="I32" s="153"/>
       <c r="J32" s="154"/>
       <c r="K32" s="154"/>
@@ -37981,9 +40651,6 @@
       <c r="V32" s="156"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>637</v>
-      </c>
       <c r="L33" s="140"/>
       <c r="M33" s="140"/>
       <c r="N33" s="140"/>
@@ -37994,12 +40661,7 @@
       <c r="S33" s="140"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>638</v>
-      </c>
-      <c r="D34" s="136">
-        <v>-0.2</v>
-      </c>
+      <c r="D34" s="136"/>
       <c r="L34" s="140"/>
       <c r="M34" s="140"/>
       <c r="N34" s="140"/>
@@ -38040,6 +40702,18 @@
       <c r="S37" s="140"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>782</v>
+      </c>
+      <c r="G38" t="s">
+        <v>786</v>
+      </c>
       <c r="L38" s="140"/>
       <c r="M38" s="140"/>
       <c r="N38" s="140"/>
@@ -38050,6 +40724,12 @@
       <c r="S38" s="140"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>783</v>
+      </c>
       <c r="L39" s="140"/>
       <c r="M39" s="140"/>
       <c r="N39" s="140"/>
@@ -38060,6 +40740,12 @@
       <c r="S39" s="140"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>784</v>
+      </c>
       <c r="L40" s="140"/>
       <c r="M40" s="140"/>
       <c r="N40" s="140"/>
@@ -38070,6 +40756,12 @@
       <c r="S40" s="140"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>785</v>
+      </c>
       <c r="L41" s="140"/>
       <c r="M41" s="140"/>
       <c r="N41" s="140"/>
@@ -38160,7 +40852,7 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -38492,7 +41184,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D19" s="141">
         <v>500</v>
@@ -38501,7 +41193,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D20" s="141">
         <v>300</v>

--- a/gd/数值规划/成长数值相关/产出整合.xlsx
+++ b/gd/数值规划/成长数值相关/产出整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="15" windowWidth="27600" windowHeight="11115" tabRatio="972" activeTab="17"/>
+    <workbookView xWindow="31890" yWindow="30" windowWidth="28665" windowHeight="12345" tabRatio="972" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -24,18 +24,17 @@
     <sheet name="宠物进阶石通用价格对应" sheetId="21" r:id="rId15"/>
     <sheet name="大冒险reward  reseach" sheetId="22" r:id="rId16"/>
     <sheet name="签到系数" sheetId="23" r:id="rId17"/>
-    <sheet name="抽蛋投放" sheetId="24" r:id="rId18"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="858">
   <si>
     <t>签到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1895,14 +1894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽奖替代券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级强化石*5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备进阶卷轴(紫)24任一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2007,22 +1998,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备进阶卷轴(橙)腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶卷轴(橙)衣甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶卷轴(橙)头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶卷轴(橙)武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备进阶卷轴(橙)护手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3412,7 +3387,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币假库</t>
+    <t>汇率和美元人民币兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward 生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡券40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_10003_40_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级强化石*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_10018_1_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_50004_4_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_20006_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,6_baoshisuiji2_1_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_10019_1_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶卷轴(紫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶卷轴(紫)*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶卷轴(橙)*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,1_2_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_11003_15_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_10017_100_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_10016_20_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_10018_3_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,6_baoshisuiji3_1_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_10020_1_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,3_50003_2_1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级增加输出0.08%输出左右的固定伤害,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3420,493 +3519,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰雪女王碎片*80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石假库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯瑞斯4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女妖5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪女王3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙女3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必出A宠库（钻石首抽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常库</t>
+    <t>1次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红牛1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温迪戈3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温迪戈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落新妇5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙女3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦魇5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮影5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小丑2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>小丑3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>小丑4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙宫童子3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇怪4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇怪3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曼陀罗2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜥蜴人3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜥蜴人4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼人3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>火刺壳4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈皮1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药小X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药中X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木制钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验卷1档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜碎片1 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜材料2 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物升阶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物升阶石*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十连金币必出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药中X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药大X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银之钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金之钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验卷2档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">照妖镜进阶材料 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物升阶石*4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物升阶石*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z小丑2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z小丑3</t>
-  </si>
-  <si>
-    <t>z小丑4</t>
-  </si>
-  <si>
-    <t>狼人3（整）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z蘑菇怪4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z蘑菇怪3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z蜥蜴人4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>十连钻石库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温蒂戈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈皮1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花魄2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舞狮4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z曼陀罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z花魄2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z凯瑞斯4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z舞狮4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z女妖5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z冰雪女王3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z阿姆特3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z水鬼3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z得莫非1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z伊芙利特4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z道成寺钟4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z赛布勒斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射手1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使长4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大天狗3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使长5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶材料2，紫*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶材料2，橙*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶材料2，红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料A（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料B（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料C（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料D（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料E（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料F（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料A（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料B（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料C（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料D（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料E（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化材料F（版本迭代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明，正是配置为道具库+N档库，权重值对比出现率为，当前权重/总权重，稀有库则独自随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嫦娥5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嫦娥5*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰岩3*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射手3*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z天使长1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z安普沙5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嫦娥5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰岩3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射手3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次十连抽（假库）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z花魄2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z女妖5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z龙女3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z红牛1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z射手3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z赛布勒斯5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛布勒斯5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射手3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红牛1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得莫非1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水鬼3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿姆特3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪女王3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女妖5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯瑞斯4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3914,7 +3531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4074,15 +3691,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4122,18 +3732,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4522,7 +4120,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5006,43 +4604,46 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5075,70 +4676,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5324,11 +4905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105165184"/>
-        <c:axId val="105166720"/>
+        <c:axId val="134295936"/>
+        <c:axId val="134297472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105165184"/>
+        <c:axId val="134295936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5337,7 +4918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105166720"/>
+        <c:crossAx val="134297472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5345,7 +4926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105166720"/>
+        <c:axId val="134297472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5356,7 +4937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105165184"/>
+        <c:crossAx val="134295936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24019,15 +23600,15 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E3" s="136">
         <v>0.4</v>
@@ -24035,7 +23616,7 @@
     </row>
     <row r="4" spans="2:8">
       <c r="C4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E4" s="136">
         <v>0.1</v>
@@ -24043,7 +23624,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="C5" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E5" s="136">
         <v>0.5</v>
@@ -24051,7 +23632,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="C6" s="144" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E6" s="136"/>
     </row>
@@ -24060,15 +23641,15 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="C9" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -24076,16 +23657,16 @@
     </row>
     <row r="11" spans="2:8">
       <c r="C11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F11" t="s">
         <v>565</v>
-      </c>
-      <c r="D11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F11" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -24093,7 +23674,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F12">
         <v>500</v>
@@ -24104,7 +23685,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -24115,7 +23696,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F14">
         <v>500</v>
@@ -24126,7 +23707,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -24137,7 +23718,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F16">
         <v>300</v>
@@ -24148,7 +23729,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -24159,7 +23740,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F18">
         <v>250</v>
@@ -24170,7 +23751,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F19">
         <v>1300</v>
@@ -24181,7 +23762,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F20">
         <v>1900</v>
@@ -24192,7 +23773,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F21">
         <v>500</v>
@@ -24203,7 +23784,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F22">
         <v>2600</v>
@@ -24214,7 +23795,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F23">
         <v>300</v>
@@ -24225,7 +23806,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F24">
         <v>500</v>
@@ -24236,7 +23817,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F25">
         <v>150</v>
@@ -24247,7 +23828,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -24258,7 +23839,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F27">
         <v>200</v>
@@ -24275,37 +23856,40 @@
   <dimension ref="E1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="5:19">
       <c r="E1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="P1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="Q1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="R1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="5:19">
       <c r="E2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -24318,18 +23902,18 @@
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="5:19">
       <c r="E3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -24342,18 +23926,18 @@
         <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="5:19">
       <c r="E4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -24367,18 +23951,18 @@
         <v>300</v>
       </c>
       <c r="S4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="5:19">
       <c r="E5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -24392,19 +23976,23 @@
         <v>600</v>
       </c>
       <c r="S5" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="5:19">
-      <c r="E6" t="s">
-        <v>533</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="158" t="s">
+        <v>527</v>
+      </c>
+      <c r="F6" s="158">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>550</v>
-      </c>
+      <c r="G6" s="158" t="s">
+        <v>544</v>
+      </c>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
       <c r="P6">
         <v>5</v>
       </c>
@@ -24417,19 +24005,23 @@
         <v>1200</v>
       </c>
       <c r="S6" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="5:19">
-      <c r="E7" t="s">
-        <v>534</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="158" t="s">
+        <v>528</v>
+      </c>
+      <c r="F7" s="158">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>549</v>
-      </c>
+      <c r="G7" s="158" t="s">
+        <v>543</v>
+      </c>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
       <c r="P7">
         <v>6</v>
       </c>
@@ -24442,19 +24034,23 @@
         <v>3600</v>
       </c>
       <c r="S7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="5:19">
-      <c r="E8" t="s">
-        <v>535</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="158" t="s">
+        <v>529</v>
+      </c>
+      <c r="F8" s="158">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>551</v>
-      </c>
+      <c r="G8" s="158" t="s">
+        <v>545</v>
+      </c>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
       <c r="P8">
         <v>7</v>
       </c>
@@ -24467,19 +24063,23 @@
         <v>5400</v>
       </c>
       <c r="S8" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="5:19">
-      <c r="E9" t="s">
-        <v>536</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="158" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="158">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
-        <v>552</v>
-      </c>
+      <c r="G9" s="158" t="s">
+        <v>546</v>
+      </c>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
       <c r="P9">
         <v>8</v>
       </c>
@@ -24492,19 +24092,23 @@
         <v>9000</v>
       </c>
       <c r="S9" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="5:19">
-      <c r="E10" t="s">
-        <v>537</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="158" t="s">
+        <v>531</v>
+      </c>
+      <c r="F10" s="158">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>553</v>
-      </c>
+      <c r="G10" s="158" t="s">
+        <v>547</v>
+      </c>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
       <c r="P10">
         <v>9</v>
       </c>
@@ -24517,19 +24121,23 @@
         <v>16200</v>
       </c>
       <c r="S10" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="5:19">
-      <c r="E11" t="s">
-        <v>538</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="158" t="s">
+        <v>532</v>
+      </c>
+      <c r="F11" s="158">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>554</v>
-      </c>
+      <c r="G11" s="158" t="s">
+        <v>548</v>
+      </c>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
       <c r="P11">
         <v>10</v>
       </c>
@@ -24542,87 +24150,91 @@
         <v>21600</v>
       </c>
       <c r="S11" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="5:19">
-      <c r="E12" t="s">
-        <v>539</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="158" t="s">
+        <v>533</v>
+      </c>
+      <c r="F12" s="158">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
-        <v>555</v>
-      </c>
+      <c r="G12" s="158" t="s">
+        <v>852</v>
+      </c>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
     </row>
     <row r="13" spans="5:19">
       <c r="E13" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="5:19">
       <c r="E14" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" s="142" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="5:19">
       <c r="E15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15" s="143" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="5:19">
       <c r="E16" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J17" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -24643,7 +24255,7 @@
   <sheetData>
     <row r="13" spans="9:9">
       <c r="I13" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -24656,8 +24268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -24667,16 +24279,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="L1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="N1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="P1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -24694,6 +24306,18 @@
       </c>
     </row>
     <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>855</v>
+      </c>
       <c r="O3">
         <v>30</v>
       </c>
@@ -24702,6 +24326,18 @@
       </c>
     </row>
     <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>854</v>
+      </c>
       <c r="O4">
         <v>40</v>
       </c>
@@ -24710,6 +24346,18 @@
       </c>
     </row>
     <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>853</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>320</v>
+      </c>
+      <c r="F5" t="s">
+        <v>856</v>
+      </c>
       <c r="O5">
         <v>50</v>
       </c>
@@ -24719,10 +24367,10 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D13" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H13">
         <v>20</v>
@@ -24733,7 +24381,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -24742,33 +24390,33 @@
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="N14" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="O14" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="P14" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D15" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E15" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F15" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H15">
         <v>40</v>
@@ -24777,7 +24425,7 @@
         <v>0.8</v>
       </c>
       <c r="L15" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="M15">
         <f>C16*$M$2*$P$2</f>
@@ -24798,10 +24446,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B16" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C16">
         <f>C17+C20</f>
@@ -24823,7 +24471,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="M16">
         <f>C17*$M$2*$P$2</f>
@@ -24844,10 +24492,10 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B17" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -24863,7 +24511,7 @@
         <v>0.8</v>
       </c>
       <c r="L17" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M17">
         <f>C18*$M$2*$P$2</f>
@@ -24884,10 +24532,10 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B18" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -24903,7 +24551,7 @@
         <v>0.8</v>
       </c>
       <c r="L18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="M18">
         <f>C19*$M$2*$P$2</f>
@@ -24924,10 +24572,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B19" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -24943,7 +24591,7 @@
         <v>1.55</v>
       </c>
       <c r="L19" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="M19">
         <f>C16*$M$2*$P$3</f>
@@ -24964,7 +24612,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="B20" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C20" s="141">
         <v>1.5</v>
@@ -24979,7 +24627,7 @@
         <v>0.75</v>
       </c>
       <c r="L20" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="M20">
         <f>C17*$M$2*$P$3</f>
@@ -25000,7 +24648,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="L21" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="M21">
         <f>C18*$M$2*$P$3</f>
@@ -25021,7 +24669,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="L22" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="M22">
         <f>C19*$M$2*$P$3</f>
@@ -25042,7 +24690,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="L23" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="M23">
         <f>C16*$M$2*$P$4</f>
@@ -25063,7 +24711,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="L24" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="M24">
         <f>C17*$M$2*$P$4</f>
@@ -25084,7 +24732,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="L25" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="M25">
         <f>C18*$M$2*$P$4</f>
@@ -25105,7 +24753,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="L26" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="M26">
         <f>C19*$M$2*$P$4</f>
@@ -25126,7 +24774,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="L27" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="M27">
         <f>C16*$M$2*$P$5</f>
@@ -25147,7 +24795,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="L28" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="M28">
         <f>C17*$M$2*$P$5</f>
@@ -25168,13 +24816,13 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B29" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="L29" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M29">
         <f>C18*$M$2*$P$5</f>
@@ -25195,7 +24843,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="L30" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="M30">
         <f>C19*$M$2*$P$5</f>
@@ -25216,36 +24864,36 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
+        <v>731</v>
+      </c>
+      <c r="C37" t="s">
+        <v>736</v>
+      </c>
+      <c r="D37" t="s">
         <v>737</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
+        <v>738</v>
+      </c>
+      <c r="F37" t="s">
+        <v>739</v>
+      </c>
+      <c r="G37" t="s">
+        <v>740</v>
+      </c>
+      <c r="H37" t="s">
+        <v>741</v>
+      </c>
+      <c r="I37" t="s">
         <v>742</v>
       </c>
-      <c r="D37" t="s">
+      <c r="J37" t="s">
         <v>743</v>
-      </c>
-      <c r="E37" t="s">
-        <v>744</v>
-      </c>
-      <c r="F37" t="s">
-        <v>745</v>
-      </c>
-      <c r="G37" t="s">
-        <v>746</v>
-      </c>
-      <c r="H37" t="s">
-        <v>747</v>
-      </c>
-      <c r="I37" t="s">
-        <v>748</v>
-      </c>
-      <c r="J37" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="B38" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -25272,7 +24920,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="B39" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -25293,7 +24941,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="B40" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -25320,7 +24968,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="B41" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -25364,28 +25012,28 @@
   <sheetData>
     <row r="2" spans="1:22">
       <c r="B2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="K2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="M2">
         <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="T2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="U2">
         <v>20</v>
@@ -25393,13 +25041,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="D3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E3" s="159">
         <v>0.20833333333333334</v>
       </c>
       <c r="K3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="M3" s="159">
         <v>0.20833333333333334</v>
@@ -25407,49 +25055,49 @@
     </row>
     <row r="4" spans="1:22">
       <c r="B4" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E4" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G4" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="I4" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="K4" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="M4" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="N4" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="O4" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="R4" t="s">
+        <v>559</v>
+      </c>
+      <c r="S4" t="s">
+        <v>566</v>
+      </c>
+      <c r="T4" t="s">
+        <v>564</v>
+      </c>
+      <c r="U4" t="s">
         <v>565</v>
-      </c>
-      <c r="S4" t="s">
-        <v>572</v>
-      </c>
-      <c r="T4" t="s">
-        <v>570</v>
-      </c>
-      <c r="U4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -25457,7 +25105,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -25469,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -25478,10 +25126,10 @@
         <v>750</v>
       </c>
       <c r="N5" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="O5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="P5">
         <v>300</v>
@@ -25490,7 +25138,7 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="U5">
         <v>500</v>
@@ -25504,7 +25152,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -25516,7 +25164,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -25525,10 +25173,10 @@
         <v>750</v>
       </c>
       <c r="N6" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="O6" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="P6">
         <v>300</v>
@@ -25537,7 +25185,7 @@
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="U6">
         <v>500</v>
@@ -25548,16 +25196,16 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B7" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -25569,7 +25217,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="158" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -25578,10 +25226,10 @@
         <v>1250</v>
       </c>
       <c r="N7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="O7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="P7">
         <v>70</v>
@@ -25590,27 +25238,27 @@
         <v>3</v>
       </c>
       <c r="T7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="U7">
         <v>500</v>
       </c>
       <c r="V7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B8" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -25622,7 +25270,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="158" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -25631,10 +25279,10 @@
         <v>750</v>
       </c>
       <c r="N8" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="O8" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P8">
         <v>300</v>
@@ -25643,7 +25291,7 @@
         <v>3</v>
       </c>
       <c r="T8" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="U8">
         <v>100</v>
@@ -25654,16 +25302,16 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B9" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -25675,7 +25323,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -25684,10 +25332,10 @@
         <v>1000</v>
       </c>
       <c r="N9" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="O9" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P9">
         <v>500</v>
@@ -25696,7 +25344,7 @@
         <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="U9">
         <v>300</v>
@@ -25710,13 +25358,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E10">
         <v>20000</v>
       </c>
       <c r="F10" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G10">
         <v>800</v>
@@ -25725,7 +25373,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -25734,10 +25382,10 @@
         <v>1250</v>
       </c>
       <c r="N10" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="O10" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P10">
         <v>250</v>
@@ -25746,7 +25394,7 @@
         <v>4</v>
       </c>
       <c r="T10" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="U10">
         <v>50</v>
@@ -25760,13 +25408,13 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E11">
         <v>23000</v>
       </c>
       <c r="F11" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G11">
         <v>200</v>
@@ -25775,7 +25423,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -25784,10 +25432,10 @@
         <v>750</v>
       </c>
       <c r="N11" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="O11" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="P11">
         <v>300</v>
@@ -25796,7 +25444,7 @@
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="U11">
         <v>250</v>
@@ -25810,13 +25458,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E12">
         <v>20000</v>
       </c>
       <c r="F12" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G12">
         <v>800</v>
@@ -25825,7 +25473,7 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -25834,10 +25482,10 @@
         <v>750</v>
       </c>
       <c r="N12" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="O12" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="P12">
         <v>300</v>
@@ -25846,13 +25494,13 @@
         <v>5</v>
       </c>
       <c r="T12" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="U12">
         <v>500</v>
       </c>
       <c r="V12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -25860,13 +25508,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E13">
         <v>23000</v>
       </c>
       <c r="F13" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G13">
         <v>200</v>
@@ -25875,7 +25523,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="158" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -25884,10 +25532,10 @@
         <v>1250</v>
       </c>
       <c r="N13" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="O13" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="P13">
         <v>70</v>
@@ -25896,13 +25544,13 @@
         <v>5</v>
       </c>
       <c r="T13" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="U13">
         <v>2600</v>
       </c>
       <c r="V13" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -25910,13 +25558,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E14">
         <v>20000</v>
       </c>
       <c r="F14" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G14">
         <v>800</v>
@@ -25925,7 +25573,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -25934,10 +25582,10 @@
         <v>750</v>
       </c>
       <c r="N14" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="O14" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="P14">
         <v>300</v>
@@ -25946,13 +25594,13 @@
         <v>6</v>
       </c>
       <c r="T14" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="U14">
         <v>500</v>
       </c>
       <c r="V14" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -25960,13 +25608,13 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E15">
         <v>23000</v>
       </c>
       <c r="F15" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G15">
         <v>200</v>
@@ -25984,10 +25632,10 @@
         <v>750</v>
       </c>
       <c r="N15" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="O15" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="P15">
         <v>300</v>
@@ -25996,13 +25644,13 @@
         <v>6</v>
       </c>
       <c r="T15" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="U15">
         <v>2600</v>
       </c>
       <c r="V15" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -26010,13 +25658,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E16">
         <v>20000</v>
       </c>
       <c r="F16" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G16">
         <v>800</v>
@@ -26031,10 +25679,10 @@
         <v>1250</v>
       </c>
       <c r="N16" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="O16" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="P16">
         <v>70</v>
@@ -26043,7 +25691,7 @@
         <v>7</v>
       </c>
       <c r="T16" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="U16">
         <v>300</v>
@@ -26057,13 +25705,13 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E17">
         <v>23000</v>
       </c>
       <c r="F17" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G17">
         <v>200</v>
@@ -26081,10 +25729,10 @@
         <v>750</v>
       </c>
       <c r="N17" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="O17" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="P17">
         <v>300</v>
@@ -26093,7 +25741,7 @@
         <v>7</v>
       </c>
       <c r="T17" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="U17">
         <v>500</v>
@@ -26104,22 +25752,22 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B18" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="E18">
         <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G18">
         <v>300</v>
@@ -26137,10 +25785,10 @@
         <v>750</v>
       </c>
       <c r="N18" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="O18" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="P18">
         <v>300</v>
@@ -26149,7 +25797,7 @@
         <v>8</v>
       </c>
       <c r="T18" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="U18">
         <v>150</v>
@@ -26160,22 +25808,22 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B19" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E19">
         <v>85000</v>
       </c>
       <c r="F19" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G19">
         <v>1500</v>
@@ -26190,10 +25838,10 @@
         <v>1250</v>
       </c>
       <c r="N19" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="O19" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="P19">
         <v>70</v>
@@ -26202,7 +25850,7 @@
         <v>8</v>
       </c>
       <c r="T19" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="U19">
         <v>100</v>
@@ -26213,22 +25861,22 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B20" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E20">
         <v>130000</v>
       </c>
       <c r="F20" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G20">
         <v>1500</v>
@@ -26243,7 +25891,7 @@
         <v>700</v>
       </c>
       <c r="N20" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="P20">
         <v>300</v>
@@ -26252,7 +25900,7 @@
         <v>8</v>
       </c>
       <c r="T20" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="U20">
         <v>200</v>
@@ -26272,7 +25920,7 @@
         <v>1400</v>
       </c>
       <c r="N21" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="P21">
         <v>300</v>
@@ -26289,7 +25937,7 @@
         <v>2800</v>
       </c>
       <c r="N22" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="P22">
         <v>300</v>
@@ -26303,20 +25951,20 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O37"/>
+  <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="C2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="K2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="M2">
         <v>21500</v>
@@ -26325,27 +25973,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C3" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E3" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G3" t="s">
+        <v>708</v>
+      </c>
+      <c r="K3" t="s">
         <v>714</v>
-      </c>
-      <c r="K3" t="s">
-        <v>720</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -26354,9 +26002,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -26374,7 +26022,7 @@
         <v>300</v>
       </c>
       <c r="K4" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -26383,9 +26031,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" outlineLevel="1">
+    <row r="5" spans="1:15" outlineLevel="1">
       <c r="B5" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -26403,7 +26051,7 @@
         <v>0.08</v>
       </c>
       <c r="K5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="M5">
         <v>30</v>
@@ -26412,9 +26060,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" outlineLevel="1">
+    <row r="6" spans="1:15" outlineLevel="1">
       <c r="B6" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C6">
         <f>C4/C5</f>
@@ -26437,7 +26085,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="7" spans="1:14" outlineLevel="1">
+    <row r="7" spans="1:15" outlineLevel="1">
       <c r="C7">
         <v>1</v>
       </c>
@@ -26455,14 +26103,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" outlineLevel="1">
+    <row r="8" spans="1:15" outlineLevel="1">
       <c r="H8" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C9">
         <f>500*H9</f>
@@ -26488,9 +26136,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" outlineLevel="1">
+    <row r="10" spans="1:15" outlineLevel="1">
       <c r="B10" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C10">
         <f>M4/M2*C9*H10</f>
@@ -26515,10 +26163,19 @@
       <c r="H10">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" outlineLevel="1">
+      <c r="M10">
+        <v>10000</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" outlineLevel="1">
       <c r="B11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D11">
         <f>D10*5</f>
@@ -26537,15 +26194,15 @@
         <v>511.62790697674433</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D12" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -26557,9 +26214,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -26568,23 +26225,23 @@
         <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F13" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G13" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" outlineLevel="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" outlineLevel="1">
       <c r="B16" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C16">
         <f>M5/M4*C10*H16</f>
@@ -26612,7 +26269,7 @@
     </row>
     <row r="17" spans="2:15" outlineLevel="1">
       <c r="B17" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C17">
         <f>C16</f>
@@ -26635,12 +26292,12 @@
         <v>1841.8604651162796</v>
       </c>
       <c r="N17" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="K18">
         <f>INT(困难本!C$21*N18)</f>
@@ -26654,18 +26311,18 @@
         <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D19" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E19">
         <v>150</v>
@@ -26690,7 +26347,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -26699,13 +26356,13 @@
         <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F20" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G20" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="K20">
         <f>INT(困难本!K$21*N20)</f>
@@ -26719,7 +26376,7 @@
         <v>68</v>
       </c>
       <c r="O20" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -26761,7 +26418,7 @@
         <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -26816,40 +26473,40 @@
         <v>875</v>
       </c>
       <c r="O27" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C29" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C31" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D31" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E31" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F31" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G31" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="2:15">
@@ -26872,10 +26529,10 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="141">
         <v>7</v>
       </c>
@@ -26895,7 +26552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:9">
       <c r="B34">
         <v>13</v>
       </c>
@@ -26915,7 +26572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:9">
       <c r="B35">
         <v>19</v>
       </c>
@@ -26935,7 +26592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:9">
       <c r="B36">
         <v>25</v>
       </c>
@@ -26955,9 +26612,158 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:9">
       <c r="B37">
         <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>824</v>
+      </c>
+      <c r="D43" t="s">
+        <v>825</v>
+      </c>
+      <c r="E43" t="s">
+        <v>826</v>
+      </c>
+      <c r="G43" t="s">
+        <v>827</v>
+      </c>
+      <c r="H43" t="s">
+        <v>828</v>
+      </c>
+      <c r="I43" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44">
+        <v>99.99</v>
+      </c>
+      <c r="D44">
+        <v>648</v>
+      </c>
+      <c r="E44">
+        <v>98.949600000000004</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:G47" si="0">D44*$G$49/$D$49*(1+I44)</f>
+        <v>11232</v>
+      </c>
+      <c r="H44">
+        <f>ROUNDUP(G44,-3)</f>
+        <v>12000</v>
+      </c>
+      <c r="I44" s="136">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45">
+        <v>49.99</v>
+      </c>
+      <c r="D45">
+        <v>328</v>
+      </c>
+      <c r="E45">
+        <v>50.085599999999999</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>5247.9999999999991</v>
+      </c>
+      <c r="H45">
+        <f>ROUNDUP(G45,-2)</f>
+        <v>5300</v>
+      </c>
+      <c r="I45" s="136">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46">
+        <v>24.99</v>
+      </c>
+      <c r="D46">
+        <v>128</v>
+      </c>
+      <c r="E46">
+        <v>19.5456</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1877.3333333333335</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46" si="1">ROUNDUP(G46,-2)</f>
+        <v>1900</v>
+      </c>
+      <c r="I46" s="136">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47">
+        <v>12.99</v>
+      </c>
+      <c r="D47">
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <v>10.383599999999999</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>961.06666666666672</v>
+      </c>
+      <c r="H47">
+        <f>ROUNDUP(G47,-1)</f>
+        <v>970</v>
+      </c>
+      <c r="I47" s="136">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48">
+        <v>5.99</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>4.5810000000000004</v>
+      </c>
+      <c r="G48">
+        <f>D48*$G$49/$D$49*(1+I48)</f>
+        <v>409.99999999999994</v>
+      </c>
+      <c r="H48">
+        <f>ROUNDUP(G48,-1)</f>
+        <v>410</v>
+      </c>
+      <c r="I48" s="136">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49">
+        <v>0.99</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="G49">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -26994,20 +26800,20 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C3" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -27028,27 +26834,27 @@
         <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C11" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D11" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E11" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F11" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G11" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -27173,7 +26979,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -27204,7 +27010,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C25">
         <f t="shared" ref="C25:G26" si="1">C$10*$H13</f>
@@ -27229,7 +27035,7 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -27254,7 +27060,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C27">
         <f>C$10*$H15</f>
@@ -27273,12 +27079,12 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C28">
         <f>C$10*$H16</f>
@@ -27293,1216 +27099,10 @@
         <v>45000</v>
       </c>
       <c r="F28" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G28" t="s">
-        <v>804</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:20">
-      <c r="S3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="D4" t="s">
-        <v>829</v>
-      </c>
-      <c r="S4" t="s">
-        <v>895</v>
-      </c>
-      <c r="T4">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="B5" t="s">
-        <v>830</v>
-      </c>
-      <c r="D5" t="s">
-        <v>831</v>
-      </c>
-      <c r="M5" t="s">
-        <v>832</v>
-      </c>
-      <c r="S5" t="s">
-        <v>953</v>
-      </c>
-      <c r="T5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="M6" t="s">
-        <v>837</v>
-      </c>
-      <c r="S6" t="s">
-        <v>952</v>
-      </c>
-      <c r="T6">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="M7" t="s">
-        <v>893</v>
-      </c>
-      <c r="S7" t="s">
-        <v>951</v>
-      </c>
-      <c r="T7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="M8" t="s">
-        <v>833</v>
-      </c>
-      <c r="S8" t="s">
-        <v>836</v>
-      </c>
-      <c r="T8">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="16.5">
-      <c r="M9" t="s">
-        <v>834</v>
-      </c>
-      <c r="S9" s="43" t="s">
-        <v>950</v>
-      </c>
-      <c r="T9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="16.5">
-      <c r="M10" t="s">
-        <v>894</v>
-      </c>
-      <c r="S10" s="201" t="s">
-        <v>949</v>
-      </c>
-      <c r="T10">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="16.5">
-      <c r="M11" t="s">
-        <v>836</v>
-      </c>
-      <c r="S11" s="56" t="s">
-        <v>948</v>
-      </c>
-      <c r="T11">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="16.5">
-      <c r="S12" s="202" t="s">
-        <v>947</v>
-      </c>
-      <c r="T12">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="16.5">
-      <c r="S13" s="202" t="s">
-        <v>946</v>
-      </c>
-      <c r="T13">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="16.5">
-      <c r="S14" s="56" t="s">
-        <v>945</v>
-      </c>
-      <c r="T14">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="S15" t="s">
-        <v>939</v>
-      </c>
-      <c r="T15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="S16" t="s">
-        <v>899</v>
-      </c>
-      <c r="T16">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="D17" t="s">
-        <v>838</v>
-      </c>
-      <c r="S17" t="s">
-        <v>940</v>
-      </c>
-      <c r="T17">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="B18" s="158" t="s">
-        <v>839</v>
-      </c>
-      <c r="C18" s="158" t="s">
-        <v>872</v>
-      </c>
-      <c r="E18" t="s">
-        <v>872</v>
-      </c>
-      <c r="F18" s="200" t="s">
-        <v>840</v>
-      </c>
-      <c r="G18" s="200" t="s">
-        <v>872</v>
-      </c>
-      <c r="H18" s="200"/>
-      <c r="J18" t="s">
-        <v>872</v>
-      </c>
-      <c r="L18" t="s">
-        <v>872</v>
-      </c>
-      <c r="N18" t="s">
-        <v>842</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>892</v>
-      </c>
-      <c r="S18" t="s">
-        <v>902</v>
-      </c>
-      <c r="T18">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19">
-        <v>320</v>
-      </c>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="S19" t="s">
-        <v>941</v>
-      </c>
-      <c r="T19">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="16.5">
-      <c r="D20">
-        <v>860</v>
-      </c>
-      <c r="Q20" s="203" t="s">
-        <v>885</v>
-      </c>
-      <c r="R20">
-        <v>500</v>
-      </c>
-      <c r="S20" s="43" t="s">
-        <v>903</v>
-      </c>
-      <c r="T20">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="16.5">
-      <c r="B21" t="s">
-        <v>846</v>
-      </c>
-      <c r="D21" t="s">
-        <v>845</v>
-      </c>
-      <c r="F21" t="s">
-        <v>843</v>
-      </c>
-      <c r="I21" t="s">
-        <v>844</v>
-      </c>
-      <c r="K21" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q21" s="203" t="s">
-        <v>886</v>
-      </c>
-      <c r="R21">
-        <v>500</v>
-      </c>
-      <c r="S21" s="201" t="s">
-        <v>904</v>
-      </c>
-      <c r="T21">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="16.5">
-      <c r="A22" t="s">
-        <v>875</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>847</v>
-      </c>
-      <c r="C22" s="45">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>865</v>
-      </c>
-      <c r="E22">
-        <v>200</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>847</v>
-      </c>
-      <c r="G22">
-        <v>300</v>
-      </c>
-      <c r="I22" t="s">
-        <v>895</v>
-      </c>
-      <c r="J22">
-        <v>300</v>
-      </c>
-      <c r="K22" t="s">
-        <v>876</v>
-      </c>
-      <c r="L22">
-        <v>400</v>
-      </c>
-      <c r="N22" s="205" t="s">
-        <v>930</v>
-      </c>
-      <c r="O22">
-        <v>800</v>
-      </c>
-      <c r="Q22" s="203" t="s">
-        <v>887</v>
-      </c>
-      <c r="R22">
-        <v>500</v>
-      </c>
-      <c r="S22" s="56" t="s">
-        <v>905</v>
-      </c>
-      <c r="T22">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="16.5">
-      <c r="A23" t="s">
-        <v>875</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>848</v>
-      </c>
-      <c r="C23" s="45">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>866</v>
-      </c>
-      <c r="E23">
-        <v>300</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>848</v>
-      </c>
-      <c r="G23">
-        <v>600</v>
-      </c>
-      <c r="I23" t="s">
-        <v>833</v>
-      </c>
-      <c r="J23">
-        <v>500</v>
-      </c>
-      <c r="K23" t="s">
-        <v>877</v>
-      </c>
-      <c r="L23">
-        <v>600</v>
-      </c>
-      <c r="N23" s="206" t="s">
-        <v>931</v>
-      </c>
-      <c r="O23">
-        <v>800</v>
-      </c>
-      <c r="Q23" s="204" t="s">
-        <v>889</v>
-      </c>
-      <c r="R23">
-        <v>500</v>
-      </c>
-      <c r="S23" s="202" t="s">
-        <v>942</v>
-      </c>
-      <c r="T23">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="16.5">
-      <c r="A24" t="s">
-        <v>875</v>
-      </c>
-      <c r="B24" s="202" t="s">
-        <v>849</v>
-      </c>
-      <c r="C24" s="202">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>867</v>
-      </c>
-      <c r="E24">
-        <v>200</v>
-      </c>
-      <c r="F24" s="202" t="s">
-        <v>849</v>
-      </c>
-      <c r="G24">
-        <v>400</v>
-      </c>
-      <c r="I24" t="s">
-        <v>896</v>
-      </c>
-      <c r="J24">
-        <v>400</v>
-      </c>
-      <c r="K24" t="s">
-        <v>878</v>
-      </c>
-      <c r="L24">
-        <v>400</v>
-      </c>
-      <c r="N24" s="202" t="s">
-        <v>932</v>
-      </c>
-      <c r="O24">
-        <v>800</v>
-      </c>
-      <c r="Q24" s="204" t="s">
-        <v>890</v>
-      </c>
-      <c r="R24">
-        <v>500</v>
-      </c>
-      <c r="S24" s="202" t="s">
-        <v>943</v>
-      </c>
-      <c r="T24">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="16.5">
-      <c r="A25" t="s">
-        <v>875</v>
-      </c>
-      <c r="B25" s="202" t="s">
-        <v>850</v>
-      </c>
-      <c r="C25" s="202">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>868</v>
-      </c>
-      <c r="E25">
-        <v>200</v>
-      </c>
-      <c r="F25" s="202" t="s">
-        <v>850</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
-        <v>834</v>
-      </c>
-      <c r="J25">
-        <v>500</v>
-      </c>
-      <c r="K25" t="s">
-        <v>868</v>
-      </c>
-      <c r="L25">
-        <v>400</v>
-      </c>
-      <c r="N25" s="205" t="s">
-        <v>935</v>
-      </c>
-      <c r="O25">
-        <v>60</v>
-      </c>
-      <c r="Q25" s="203" t="s">
-        <v>891</v>
-      </c>
-      <c r="R25">
-        <v>500</v>
-      </c>
-      <c r="S25" s="56" t="s">
-        <v>944</v>
-      </c>
-      <c r="T25">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="16.5">
-      <c r="A26" t="s">
-        <v>875</v>
-      </c>
-      <c r="B26" s="202" t="s">
-        <v>851</v>
-      </c>
-      <c r="C26" s="202">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>869</v>
-      </c>
-      <c r="E26">
-        <v>200</v>
-      </c>
-      <c r="F26" s="202" t="s">
-        <v>851</v>
-      </c>
-      <c r="G26">
-        <v>80</v>
-      </c>
-      <c r="I26" t="s">
-        <v>835</v>
-      </c>
-      <c r="J26">
-        <v>500</v>
-      </c>
-      <c r="K26" t="s">
-        <v>879</v>
-      </c>
-      <c r="L26">
-        <v>300</v>
-      </c>
-      <c r="N26" s="206" t="s">
-        <v>936</v>
-      </c>
-      <c r="O26">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="203" t="s">
-        <v>897</v>
-      </c>
-      <c r="R26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="16.5">
-      <c r="A27" t="s">
-        <v>875</v>
-      </c>
-      <c r="B27" s="202" t="s">
-        <v>852</v>
-      </c>
-      <c r="C27" s="202">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>870</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27" s="202" t="s">
-        <v>852</v>
-      </c>
-      <c r="G27">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s">
-        <v>836</v>
-      </c>
-      <c r="J27">
-        <v>400</v>
-      </c>
-      <c r="K27" t="s">
-        <v>880</v>
-      </c>
-      <c r="L27">
-        <v>120</v>
-      </c>
-      <c r="N27" s="202" t="s">
-        <v>937</v>
-      </c>
-      <c r="O27">
-        <v>80</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>898</v>
-      </c>
-      <c r="R27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="16.5">
-      <c r="A28" t="s">
-        <v>875</v>
-      </c>
-      <c r="B28" s="202" t="s">
-        <v>859</v>
-      </c>
-      <c r="C28" s="202">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>871</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28" s="202" t="s">
-        <v>856</v>
-      </c>
-      <c r="G28">
-        <v>200</v>
-      </c>
-      <c r="I28" s="202" t="s">
-        <v>856</v>
-      </c>
-      <c r="J28">
-        <v>500</v>
-      </c>
-      <c r="K28" t="s">
-        <v>881</v>
-      </c>
-      <c r="L28">
-        <v>600</v>
-      </c>
-      <c r="N28" s="202" t="s">
-        <v>909</v>
-      </c>
-      <c r="O28">
-        <v>60</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>899</v>
-      </c>
-      <c r="R28">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="16.5">
-      <c r="A29" t="s">
-        <v>875</v>
-      </c>
-      <c r="B29" s="202" t="s">
-        <v>860</v>
-      </c>
-      <c r="C29" s="202">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>873</v>
-      </c>
-      <c r="E29">
-        <v>300</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>857</v>
-      </c>
-      <c r="G29">
-        <v>300</v>
-      </c>
-      <c r="I29" s="56" t="s">
-        <v>857</v>
-      </c>
-      <c r="J29">
-        <v>400</v>
-      </c>
-      <c r="K29" t="s">
-        <v>882</v>
-      </c>
-      <c r="L29">
-        <v>200</v>
-      </c>
-      <c r="N29" s="202" t="s">
-        <v>910</v>
-      </c>
-      <c r="O29">
-        <v>12</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>900</v>
-      </c>
-      <c r="R29">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="16.5">
-      <c r="A30" t="s">
-        <v>875</v>
-      </c>
-      <c r="B30" s="202" t="s">
-        <v>853</v>
-      </c>
-      <c r="C30" s="202">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>874</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>858</v>
-      </c>
-      <c r="G30">
-        <v>300</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>858</v>
-      </c>
-      <c r="J30">
-        <v>500</v>
-      </c>
-      <c r="K30" t="s">
-        <v>870</v>
-      </c>
-      <c r="L30">
-        <v>200</v>
-      </c>
-      <c r="N30" s="202" t="s">
-        <v>911</v>
-      </c>
-      <c r="O30">
-        <v>6</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>901</v>
-      </c>
-      <c r="R30">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="16.5">
-      <c r="A31" t="s">
-        <v>875</v>
-      </c>
-      <c r="B31" s="202" t="s">
-        <v>854</v>
-      </c>
-      <c r="C31" s="202">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>922</v>
-      </c>
-      <c r="E31">
-        <v>60</v>
-      </c>
-      <c r="F31" s="202" t="s">
-        <v>861</v>
-      </c>
-      <c r="G31">
-        <v>300</v>
-      </c>
-      <c r="I31" s="202" t="s">
-        <v>861</v>
-      </c>
-      <c r="J31">
-        <v>400</v>
-      </c>
-      <c r="K31" t="s">
-        <v>871</v>
-      </c>
-      <c r="L31">
-        <v>200</v>
-      </c>
-      <c r="N31" s="202" t="s">
-        <v>841</v>
-      </c>
-      <c r="O31">
-        <v>600</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>902</v>
-      </c>
-      <c r="R31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="16.5">
-      <c r="A32" t="s">
-        <v>875</v>
-      </c>
-      <c r="B32" s="202" t="s">
-        <v>855</v>
-      </c>
-      <c r="C32" s="202">
-        <v>60</v>
-      </c>
-      <c r="D32" t="s">
-        <v>923</v>
-      </c>
-      <c r="E32">
-        <v>60</v>
-      </c>
-      <c r="F32" s="202" t="s">
-        <v>862</v>
-      </c>
-      <c r="G32">
-        <v>300</v>
-      </c>
-      <c r="I32" s="202" t="s">
-        <v>862</v>
-      </c>
-      <c r="J32">
-        <v>600</v>
-      </c>
-      <c r="K32" t="s">
-        <v>883</v>
-      </c>
-      <c r="L32">
-        <v>600</v>
-      </c>
-      <c r="N32" s="202" t="s">
-        <v>934</v>
-      </c>
-      <c r="O32">
-        <v>300</v>
-      </c>
-      <c r="Q32" s="43" t="s">
-        <v>903</v>
-      </c>
-      <c r="R32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="16.5">
-      <c r="A33" t="s">
-        <v>875</v>
-      </c>
-      <c r="B33" s="202" t="s">
-        <v>856</v>
-      </c>
-      <c r="C33" s="202">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>924</v>
-      </c>
-      <c r="E33">
-        <v>60</v>
-      </c>
-      <c r="F33" s="201" t="s">
-        <v>863</v>
-      </c>
-      <c r="G33">
-        <v>400</v>
-      </c>
-      <c r="I33" s="201" t="s">
-        <v>863</v>
-      </c>
-      <c r="J33">
-        <v>400</v>
-      </c>
-      <c r="K33" t="s">
-        <v>884</v>
-      </c>
-      <c r="L33">
-        <v>60</v>
-      </c>
-      <c r="N33" s="202" t="s">
-        <v>933</v>
-      </c>
-      <c r="O33">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="201" t="s">
-        <v>904</v>
-      </c>
-      <c r="R33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="16.5">
-      <c r="A34" t="s">
-        <v>875</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>857</v>
-      </c>
-      <c r="C34" s="56">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>925</v>
-      </c>
-      <c r="E34">
-        <v>60</v>
-      </c>
-      <c r="F34" s="202" t="s">
-        <v>864</v>
-      </c>
-      <c r="G34">
-        <v>80</v>
-      </c>
-      <c r="I34" s="202" t="s">
-        <v>864</v>
-      </c>
-      <c r="J34">
-        <v>500</v>
-      </c>
-      <c r="K34" t="s">
-        <v>916</v>
-      </c>
-      <c r="L34">
-        <v>320</v>
-      </c>
-      <c r="N34" s="202" t="s">
-        <v>913</v>
-      </c>
-      <c r="O34">
-        <v>180</v>
-      </c>
-      <c r="Q34" s="56" t="s">
-        <v>905</v>
-      </c>
-      <c r="R34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="16.5">
-      <c r="A35" t="s">
-        <v>875</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>858</v>
-      </c>
-      <c r="C35" s="56">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>926</v>
-      </c>
-      <c r="E35">
-        <v>60</v>
-      </c>
-      <c r="F35" s="202" t="s">
-        <v>888</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="I35" s="205" t="s">
-        <v>929</v>
-      </c>
-      <c r="J35">
-        <v>60</v>
-      </c>
-      <c r="K35" t="s">
-        <v>917</v>
-      </c>
-      <c r="L35">
-        <v>320</v>
-      </c>
-      <c r="N35" s="202" t="s">
-        <v>914</v>
-      </c>
-      <c r="O35">
-        <v>120</v>
-      </c>
-      <c r="Q35" s="56" t="s">
-        <v>906</v>
-      </c>
-      <c r="R35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="16.5">
-      <c r="A36" t="s">
-        <v>875</v>
-      </c>
-      <c r="B36" s="202" t="s">
-        <v>861</v>
-      </c>
-      <c r="C36" s="202">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>927</v>
-      </c>
-      <c r="E36">
-        <v>60</v>
-      </c>
-      <c r="F36" s="203" t="s">
-        <v>885</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-      <c r="I36" s="202" t="s">
-        <v>910</v>
-      </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
-      <c r="K36" t="s">
-        <v>918</v>
-      </c>
-      <c r="L36">
-        <v>320</v>
-      </c>
-      <c r="N36" s="202" t="s">
-        <v>915</v>
-      </c>
-      <c r="O36">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="56" t="s">
-        <v>907</v>
-      </c>
-      <c r="R36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="16.5">
-      <c r="A37" t="s">
-        <v>875</v>
-      </c>
-      <c r="B37" s="202" t="s">
-        <v>862</v>
-      </c>
-      <c r="C37" s="202">
-        <v>60</v>
-      </c>
-      <c r="F37" s="203" t="s">
-        <v>886</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="I37" s="202" t="s">
-        <v>911</v>
-      </c>
-      <c r="J37">
-        <v>150</v>
-      </c>
-      <c r="K37" t="s">
-        <v>919</v>
-      </c>
-      <c r="L37">
-        <v>320</v>
-      </c>
-      <c r="Q37" s="56" t="s">
-        <v>908</v>
-      </c>
-      <c r="R37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="16.5">
-      <c r="A38" t="s">
-        <v>875</v>
-      </c>
-      <c r="B38" s="201" t="s">
-        <v>863</v>
-      </c>
-      <c r="C38" s="201">
-        <v>8</v>
-      </c>
-      <c r="F38" s="203" t="s">
-        <v>887</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="I38" s="202" t="s">
-        <v>912</v>
-      </c>
-      <c r="J38">
-        <v>50</v>
-      </c>
-      <c r="K38" t="s">
-        <v>920</v>
-      </c>
-      <c r="L38">
-        <v>320</v>
-      </c>
-      <c r="Q38" s="56" t="s">
-        <v>908</v>
-      </c>
-      <c r="R38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="16.5">
-      <c r="A39" t="s">
-        <v>875</v>
-      </c>
-      <c r="B39" s="202" t="s">
-        <v>864</v>
-      </c>
-      <c r="C39" s="202">
-        <v>8</v>
-      </c>
-      <c r="F39" s="204" t="s">
-        <v>889</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="I39" t="s">
-        <v>898</v>
-      </c>
-      <c r="J39">
-        <v>50</v>
-      </c>
-      <c r="K39" t="s">
-        <v>921</v>
-      </c>
-      <c r="L39">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="16.5">
-      <c r="F40" s="204" t="s">
-        <v>890</v>
-      </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-      <c r="I40" t="s">
-        <v>899</v>
-      </c>
-      <c r="J40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="16.5">
-      <c r="F41" s="203" t="s">
-        <v>891</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>900</v>
-      </c>
-      <c r="J41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="16.5">
-      <c r="F42" s="203" t="s">
-        <v>897</v>
-      </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>901</v>
-      </c>
-      <c r="J42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="I43" t="s">
-        <v>902</v>
-      </c>
-      <c r="J43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="16.5">
-      <c r="I44" s="43" t="s">
-        <v>903</v>
-      </c>
-      <c r="J44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="16.5">
-      <c r="A45" t="s">
-        <v>928</v>
-      </c>
-      <c r="I45" s="201" t="s">
-        <v>904</v>
-      </c>
-      <c r="J45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="16.5">
-      <c r="I46" s="56" t="s">
-        <v>905</v>
-      </c>
-      <c r="J46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="16.5">
-      <c r="I47" s="56" t="s">
-        <v>906</v>
-      </c>
-      <c r="J47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="16.5">
-      <c r="I48" s="56" t="s">
-        <v>907</v>
-      </c>
-      <c r="J48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" ht="16.5">
-      <c r="I49" s="56" t="s">
-        <v>908</v>
-      </c>
-      <c r="J49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" ht="16.5">
-      <c r="I50" s="56" t="s">
-        <v>908</v>
-      </c>
-      <c r="J50">
-        <v>30</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -28664,92 +27264,92 @@
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="163"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="186"/>
+      <c r="AD2" s="187"/>
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="G3" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="170" t="s">
+      <c r="H3" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="177" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="176" t="s">
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="177"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="165" t="s">
+      <c r="N3" s="178"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="167" t="s">
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="173" t="s">
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="193"/>
+      <c r="AC3" s="195" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="163"/>
+      <c r="AD3" s="187"/>
     </row>
     <row r="4" spans="1:32" s="125" customFormat="1" ht="36" customHeight="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="179" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="171"/>
+      <c r="H4" s="194"/>
       <c r="I4" s="6" t="s">
         <v>140</v>
       </c>
@@ -28774,22 +27374,22 @@
       <c r="R4" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="185" t="s">
+      <c r="S4" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="185"/>
+      <c r="T4" s="163"/>
       <c r="U4" s="124"/>
-      <c r="V4" s="191" t="s">
+      <c r="V4" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="185"/>
+      <c r="W4" s="163"/>
       <c r="X4" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="185" t="s">
+      <c r="Y4" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="185"/>
+      <c r="Z4" s="163"/>
       <c r="AA4" s="120" t="s">
         <v>15</v>
       </c>
@@ -28801,9 +27401,9 @@
       <c r="AE4" s="119"/>
     </row>
     <row r="5" spans="1:32" s="109" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="187"/>
-      <c r="B5" s="190"/>
-      <c r="C5" s="172"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="109" t="s">
         <v>43</v>
       </c>
@@ -28813,8 +27413,8 @@
       <c r="F5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="172"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="110" t="s">
         <v>57</v>
       </c>
@@ -28890,22 +27490,22 @@
       <c r="B6" s="35">
         <v>0</v>
       </c>
-      <c r="C6" s="194" t="s">
+      <c r="C6" s="173" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="184" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="192" t="s">
+      <c r="H6" s="171" t="s">
         <v>117</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -28944,14 +27544,14 @@
       <c r="B7" s="43">
         <v>0</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="184"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="193"/>
+      <c r="H7" s="172"/>
       <c r="I7" s="34" t="s">
         <v>23</v>
       </c>
@@ -28981,14 +27581,14 @@
       <c r="B8" s="43">
         <v>0</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="184"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="167"/>
       <c r="G8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="193"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="34" t="s">
         <v>23</v>
       </c>
@@ -29023,14 +27623,14 @@
       <c r="B9" s="43">
         <v>0</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="184"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="167"/>
       <c r="G9" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="193"/>
+      <c r="H9" s="172"/>
       <c r="I9" s="34" t="s">
         <v>23</v>
       </c>
@@ -29266,19 +27866,19 @@
       <c r="C15" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="188" t="s">
+      <c r="E15" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="184" t="s">
+      <c r="F15" s="167" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="189" t="s">
+      <c r="H15" s="168" t="s">
         <v>254</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -29311,13 +27911,13 @@
       <c r="C16" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="184"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
       <c r="G16" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="189"/>
+      <c r="H16" s="168"/>
       <c r="I16" s="34" t="s">
         <v>23</v>
       </c>
@@ -29358,13 +27958,13 @@
       <c r="C17" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="184"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
       <c r="G17" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="189"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="34" t="s">
         <v>23</v>
       </c>
@@ -29455,13 +28055,13 @@
       <c r="C19" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="174" t="s">
+      <c r="D19" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="174" t="s">
+      <c r="E19" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="175" t="s">
+      <c r="F19" s="176" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -29506,9 +28106,9 @@
       <c r="C20" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="176"/>
       <c r="G20" s="36" t="s">
         <v>132</v>
       </c>
@@ -33699,6 +32299,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:AB3"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="Y4:Z4"/>
@@ -33711,21 +32326,6 @@
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:AB3"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33753,107 +32353,107 @@
       <c r="A1" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197" t="s">
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197" t="s">
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197" t="s">
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197" t="s">
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197" t="s">
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="135" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="196" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196" t="s">
         <v>384</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199" t="s">
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199" t="s">
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="131" t="s">
@@ -35886,58 +34486,58 @@
       <c r="A35" t="s">
         <v>346</v>
       </c>
-      <c r="B35" s="198" t="s">
+      <c r="B35" s="197" t="s">
         <v>365</v>
       </c>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198" t="s">
+      <c r="C35" s="197"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198" t="s">
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="197" t="s">
         <v>367</v>
       </c>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="198"/>
-      <c r="N35" s="198" t="s">
+      <c r="K35" s="197"/>
+      <c r="L35" s="197"/>
+      <c r="M35" s="197"/>
+      <c r="N35" s="197" t="s">
         <v>368</v>
       </c>
-      <c r="O35" s="198"/>
-      <c r="P35" s="198"/>
-      <c r="Q35" s="198"/>
-      <c r="R35" s="198" t="s">
+      <c r="O35" s="197"/>
+      <c r="P35" s="197"/>
+      <c r="Q35" s="197"/>
+      <c r="R35" s="197" t="s">
         <v>369</v>
       </c>
-      <c r="S35" s="198"/>
-      <c r="T35" s="198"/>
-      <c r="U35" s="198"/>
-      <c r="V35" s="198" t="s">
+      <c r="S35" s="197"/>
+      <c r="T35" s="197"/>
+      <c r="U35" s="197"/>
+      <c r="V35" s="197" t="s">
         <v>370</v>
       </c>
-      <c r="W35" s="198"/>
-      <c r="X35" s="198"/>
-      <c r="Y35" s="198"/>
-      <c r="Z35" s="198" t="s">
+      <c r="W35" s="197"/>
+      <c r="X35" s="197"/>
+      <c r="Y35" s="197"/>
+      <c r="Z35" s="197" t="s">
         <v>371</v>
       </c>
-      <c r="AA35" s="198"/>
-      <c r="AB35" s="198"/>
-      <c r="AC35" s="198"/>
-      <c r="AD35" s="198" t="s">
+      <c r="AA35" s="197"/>
+      <c r="AB35" s="197"/>
+      <c r="AC35" s="197"/>
+      <c r="AD35" s="197" t="s">
         <v>372</v>
       </c>
-      <c r="AE35" s="198"/>
-      <c r="AF35" s="198"/>
-      <c r="AG35" s="198"/>
+      <c r="AE35" s="197"/>
+      <c r="AF35" s="197"/>
+      <c r="AG35" s="197"/>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -35980,7 +34580,7 @@
         <f>E41*C41</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="H41" s="196">
+      <c r="H41" s="199">
         <v>1</v>
       </c>
       <c r="I41">
@@ -36005,7 +34605,7 @@
         <f t="shared" ref="F42:F100" si="6">E42*C42</f>
         <v>33</v>
       </c>
-      <c r="H42" s="196"/>
+      <c r="H42" s="199"/>
       <c r="I42">
         <v>2</v>
       </c>
@@ -36028,7 +34628,7 @@
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="H43" s="196"/>
+      <c r="H43" s="199"/>
       <c r="I43">
         <v>3</v>
       </c>
@@ -36051,7 +34651,7 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="H44" s="196"/>
+      <c r="H44" s="199"/>
       <c r="I44">
         <v>4</v>
       </c>
@@ -36074,7 +34674,7 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="H45" s="196"/>
+      <c r="H45" s="199"/>
       <c r="I45">
         <v>5</v>
       </c>
@@ -36097,7 +34697,7 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="H46" s="196"/>
+      <c r="H46" s="199"/>
       <c r="I46">
         <v>6</v>
       </c>
@@ -36120,7 +34720,7 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="H47" s="196"/>
+      <c r="H47" s="199"/>
       <c r="I47">
         <v>7</v>
       </c>
@@ -36143,7 +34743,7 @@
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H48" s="196"/>
+      <c r="H48" s="199"/>
       <c r="I48">
         <v>8</v>
       </c>
@@ -36166,7 +34766,7 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="H49" s="196">
+      <c r="H49" s="199">
         <v>2</v>
       </c>
       <c r="I49">
@@ -36191,7 +34791,7 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="H50" s="196"/>
+      <c r="H50" s="199"/>
       <c r="I50">
         <v>2</v>
       </c>
@@ -36214,7 +34814,7 @@
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="H51" s="196"/>
+      <c r="H51" s="199"/>
       <c r="I51">
         <v>3</v>
       </c>
@@ -36237,7 +34837,7 @@
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="H52" s="196"/>
+      <c r="H52" s="199"/>
       <c r="I52">
         <v>4</v>
       </c>
@@ -36260,7 +34860,7 @@
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="H53" s="196"/>
+      <c r="H53" s="199"/>
       <c r="I53">
         <v>5</v>
       </c>
@@ -36283,7 +34883,7 @@
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="H54" s="196"/>
+      <c r="H54" s="199"/>
       <c r="I54">
         <v>6</v>
       </c>
@@ -36306,7 +34906,7 @@
         <f t="shared" si="6"/>
         <v>123.5</v>
       </c>
-      <c r="H55" s="196"/>
+      <c r="H55" s="199"/>
       <c r="I55">
         <v>7</v>
       </c>
@@ -36329,7 +34929,7 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="H56" s="196"/>
+      <c r="H56" s="199"/>
       <c r="I56">
         <v>8</v>
       </c>
@@ -36352,7 +34952,7 @@
         <f t="shared" si="6"/>
         <v>147</v>
       </c>
-      <c r="H57" s="196">
+      <c r="H57" s="199">
         <v>3</v>
       </c>
       <c r="I57">
@@ -36377,7 +34977,7 @@
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="H58" s="196"/>
+      <c r="H58" s="199"/>
       <c r="I58">
         <v>2</v>
       </c>
@@ -36400,7 +35000,7 @@
         <f t="shared" si="6"/>
         <v>161</v>
       </c>
-      <c r="H59" s="196"/>
+      <c r="H59" s="199"/>
       <c r="I59">
         <v>3</v>
       </c>
@@ -36423,7 +35023,7 @@
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="H60" s="196"/>
+      <c r="H60" s="199"/>
       <c r="I60">
         <v>4</v>
       </c>
@@ -36446,7 +35046,7 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="H61" s="196"/>
+      <c r="H61" s="199"/>
       <c r="I61">
         <v>5</v>
       </c>
@@ -36469,7 +35069,7 @@
         <f t="shared" si="6"/>
         <v>208</v>
       </c>
-      <c r="H62" s="196"/>
+      <c r="H62" s="199"/>
       <c r="I62">
         <v>6</v>
       </c>
@@ -36492,7 +35092,7 @@
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="H63" s="196"/>
+      <c r="H63" s="199"/>
       <c r="I63">
         <v>7</v>
       </c>
@@ -36515,7 +35115,7 @@
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
-      <c r="H64" s="196"/>
+      <c r="H64" s="199"/>
       <c r="I64">
         <v>8</v>
       </c>
@@ -36538,7 +35138,7 @@
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
-      <c r="H65" s="196">
+      <c r="H65" s="199">
         <v>4</v>
       </c>
       <c r="I65">
@@ -36563,7 +35163,7 @@
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="H66" s="196"/>
+      <c r="H66" s="199"/>
       <c r="I66">
         <v>2</v>
       </c>
@@ -36586,7 +35186,7 @@
         <f t="shared" si="6"/>
         <v>248</v>
       </c>
-      <c r="H67" s="196"/>
+      <c r="H67" s="199"/>
       <c r="I67">
         <v>3</v>
       </c>
@@ -36609,7 +35209,7 @@
         <f t="shared" si="6"/>
         <v>256</v>
       </c>
-      <c r="H68" s="196"/>
+      <c r="H68" s="199"/>
       <c r="I68">
         <v>4</v>
       </c>
@@ -36632,7 +35232,7 @@
         <f t="shared" si="6"/>
         <v>264</v>
       </c>
-      <c r="H69" s="196"/>
+      <c r="H69" s="199"/>
       <c r="I69">
         <v>5</v>
       </c>
@@ -36655,7 +35255,7 @@
         <f t="shared" si="6"/>
         <v>272</v>
       </c>
-      <c r="H70" s="196"/>
+      <c r="H70" s="199"/>
       <c r="I70">
         <v>6</v>
       </c>
@@ -36678,7 +35278,7 @@
         <f t="shared" si="6"/>
         <v>315</v>
       </c>
-      <c r="H71" s="196"/>
+      <c r="H71" s="199"/>
       <c r="I71">
         <v>7</v>
       </c>
@@ -36701,7 +35301,7 @@
         <f t="shared" si="6"/>
         <v>324</v>
       </c>
-      <c r="H72" s="196"/>
+      <c r="H72" s="199"/>
       <c r="I72">
         <v>8</v>
       </c>
@@ -36724,7 +35324,7 @@
         <f t="shared" si="6"/>
         <v>333</v>
       </c>
-      <c r="H73" s="196">
+      <c r="H73" s="199">
         <v>5</v>
       </c>
       <c r="I73">
@@ -36749,7 +35349,7 @@
         <f t="shared" si="6"/>
         <v>342</v>
       </c>
-      <c r="H74" s="196"/>
+      <c r="H74" s="199"/>
       <c r="I74">
         <v>2</v>
       </c>
@@ -36772,7 +35372,7 @@
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
-      <c r="H75" s="196"/>
+      <c r="H75" s="199"/>
       <c r="I75">
         <v>3</v>
       </c>
@@ -36795,7 +35395,7 @@
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="H76" s="196"/>
+      <c r="H76" s="199"/>
       <c r="I76">
         <v>4</v>
       </c>
@@ -36818,7 +35418,7 @@
         <f t="shared" si="6"/>
         <v>369</v>
       </c>
-      <c r="H77" s="196"/>
+      <c r="H77" s="199"/>
       <c r="I77">
         <v>5</v>
       </c>
@@ -36841,7 +35441,7 @@
         <f t="shared" si="6"/>
         <v>378</v>
       </c>
-      <c r="H78" s="196"/>
+      <c r="H78" s="199"/>
       <c r="I78">
         <v>6</v>
       </c>
@@ -36864,7 +35464,7 @@
         <f t="shared" si="6"/>
         <v>387</v>
       </c>
-      <c r="H79" s="196"/>
+      <c r="H79" s="199"/>
       <c r="I79">
         <v>7</v>
       </c>
@@ -36887,7 +35487,7 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="H80" s="196"/>
+      <c r="H80" s="199"/>
       <c r="I80">
         <v>8</v>
       </c>
@@ -36910,7 +35510,7 @@
         <f t="shared" si="6"/>
         <v>472.5</v>
       </c>
-      <c r="H81" s="196">
+      <c r="H81" s="199">
         <v>6</v>
       </c>
       <c r="I81">
@@ -36935,7 +35535,7 @@
         <f t="shared" si="6"/>
         <v>483</v>
       </c>
-      <c r="H82" s="196"/>
+      <c r="H82" s="199"/>
       <c r="I82">
         <v>2</v>
       </c>
@@ -36958,7 +35558,7 @@
         <f t="shared" si="6"/>
         <v>493.5</v>
       </c>
-      <c r="H83" s="196"/>
+      <c r="H83" s="199"/>
       <c r="I83">
         <v>3</v>
       </c>
@@ -36981,7 +35581,7 @@
         <f t="shared" si="6"/>
         <v>504</v>
       </c>
-      <c r="H84" s="196"/>
+      <c r="H84" s="199"/>
       <c r="I84">
         <v>4</v>
       </c>
@@ -37004,7 +35604,7 @@
         <f t="shared" si="6"/>
         <v>514.5</v>
       </c>
-      <c r="H85" s="196"/>
+      <c r="H85" s="199"/>
       <c r="I85">
         <v>5</v>
       </c>
@@ -37027,7 +35627,7 @@
         <f t="shared" si="6"/>
         <v>525</v>
       </c>
-      <c r="H86" s="196"/>
+      <c r="H86" s="199"/>
       <c r="I86">
         <v>6</v>
       </c>
@@ -37050,7 +35650,7 @@
         <f t="shared" si="6"/>
         <v>535.5</v>
       </c>
-      <c r="H87" s="196"/>
+      <c r="H87" s="199"/>
       <c r="I87">
         <v>7</v>
       </c>
@@ -37073,7 +35673,7 @@
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
-      <c r="H88" s="196"/>
+      <c r="H88" s="199"/>
       <c r="I88">
         <v>8</v>
       </c>
@@ -37096,7 +35696,7 @@
         <f t="shared" si="6"/>
         <v>556.5</v>
       </c>
-      <c r="H89" s="196">
+      <c r="H89" s="199">
         <v>7</v>
       </c>
       <c r="I89">
@@ -37121,7 +35721,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H90" s="196"/>
+      <c r="H90" s="199"/>
       <c r="I90">
         <v>2</v>
       </c>
@@ -37144,7 +35744,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H91" s="196"/>
+      <c r="H91" s="199"/>
       <c r="I91">
         <v>3</v>
       </c>
@@ -37167,7 +35767,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H92" s="196"/>
+      <c r="H92" s="199"/>
       <c r="I92">
         <v>4</v>
       </c>
@@ -37190,7 +35790,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H93" s="196"/>
+      <c r="H93" s="199"/>
       <c r="I93">
         <v>5</v>
       </c>
@@ -37213,7 +35813,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H94" s="196"/>
+      <c r="H94" s="199"/>
       <c r="I94">
         <v>6</v>
       </c>
@@ -37236,7 +35836,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H95" s="196"/>
+      <c r="H95" s="199"/>
       <c r="I95">
         <v>7</v>
       </c>
@@ -37259,7 +35859,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H96" s="196"/>
+      <c r="H96" s="199"/>
       <c r="I96">
         <v>8</v>
       </c>
@@ -37282,7 +35882,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H97" s="196">
+      <c r="H97" s="199">
         <v>8</v>
       </c>
       <c r="I97">
@@ -37307,7 +35907,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H98" s="196"/>
+      <c r="H98" s="199"/>
       <c r="I98">
         <v>2</v>
       </c>
@@ -37330,7 +35930,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H99" s="196"/>
+      <c r="H99" s="199"/>
       <c r="I99">
         <v>3</v>
       </c>
@@ -37353,7 +35953,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H100" s="196"/>
+      <c r="H100" s="199"/>
       <c r="I100">
         <v>4</v>
       </c>
@@ -37362,7 +35962,7 @@
       </c>
     </row>
     <row r="101" spans="2:10">
-      <c r="H101" s="196"/>
+      <c r="H101" s="199"/>
       <c r="I101">
         <v>5</v>
       </c>
@@ -37371,7 +35971,7 @@
       </c>
     </row>
     <row r="102" spans="2:10">
-      <c r="H102" s="196"/>
+      <c r="H102" s="199"/>
       <c r="I102">
         <v>6</v>
       </c>
@@ -37380,7 +35980,7 @@
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="H103" s="196"/>
+      <c r="H103" s="199"/>
       <c r="I103">
         <v>7</v>
       </c>
@@ -37389,7 +35989,7 @@
       </c>
     </row>
     <row r="104" spans="2:10">
-      <c r="H104" s="196"/>
+      <c r="H104" s="199"/>
       <c r="I104">
         <v>8</v>
       </c>
@@ -37399,14 +35999,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="R35:U35"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="Z35:AC35"/>
-    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="H81:H88"/>
+    <mergeCell ref="H89:H96"/>
+    <mergeCell ref="H97:H104"/>
+    <mergeCell ref="H41:H48"/>
+    <mergeCell ref="H49:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H72"/>
+    <mergeCell ref="H73:H80"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B35:E35"/>
@@ -37423,14 +36023,14 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="H81:H88"/>
-    <mergeCell ref="H89:H96"/>
-    <mergeCell ref="H97:H104"/>
-    <mergeCell ref="H41:H48"/>
-    <mergeCell ref="H49:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H72"/>
-    <mergeCell ref="H73:H80"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="Z35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37439,10 +36039,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P109"/>
+  <dimension ref="A3:W114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -37450,29 +36050,29 @@
     <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:23">
       <c r="I3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:23">
       <c r="C4" t="s">
         <v>437</v>
       </c>
       <c r="I4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="P4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:23">
       <c r="B5" t="s">
         <v>443</v>
       </c>
@@ -37480,26 +36080,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:23">
       <c r="C6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="T6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
       <c r="F7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:16" outlineLevel="1">
+    <row r="8" spans="2:23" outlineLevel="1">
       <c r="B8">
         <v>1</v>
       </c>
@@ -37518,16 +36121,20 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" outlineLevel="1">
+        <v>482</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" ref="T8:T27" si="0">CONCATENATE("1_2_",F8,"_1.0",",","1_11_",H8,"_1.0")</f>
+        <v>1_2_1670_1.0,1_11_5_1.0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" outlineLevel="1">
       <c r="B9">
         <v>2</v>
       </c>
@@ -37560,8 +36167,12 @@
       <c r="P9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" outlineLevel="1">
+      <c r="T9" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_1800_1.0,1_11_7_1.0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" outlineLevel="1">
       <c r="B10">
         <v>3</v>
       </c>
@@ -37579,8 +36190,12 @@
       <c r="H10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" outlineLevel="1">
+      <c r="T10" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_1930_1.0,1_11_9_1.0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" outlineLevel="1">
       <c r="B11">
         <v>4</v>
       </c>
@@ -37598,8 +36213,12 @@
       <c r="H11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" outlineLevel="1">
+      <c r="T11" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_2060_1.0,1_11_11_1.0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" outlineLevel="1">
       <c r="B12" s="139">
         <v>5</v>
       </c>
@@ -37607,7 +36226,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="139" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F12">
         <f>B12*$K$3*100+剧情副本产出分析!$F$58*10</f>
@@ -37620,8 +36239,15 @@
       <c r="H12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" outlineLevel="1">
+      <c r="T12" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_2190_1.0,1_11_18_1.0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" outlineLevel="1">
       <c r="B13">
         <v>6</v>
       </c>
@@ -37639,8 +36265,12 @@
       <c r="H13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" outlineLevel="1">
+      <c r="T13" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_2320_1.0,1_11_10_1.0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" outlineLevel="1">
       <c r="B14">
         <v>7</v>
       </c>
@@ -37658,8 +36288,12 @@
       <c r="H14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" outlineLevel="1">
+      <c r="T14" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_2450_1.0,1_11_12_1.0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" outlineLevel="1">
       <c r="B15">
         <v>8</v>
       </c>
@@ -37677,8 +36311,12 @@
       <c r="H15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" outlineLevel="1">
+      <c r="T15" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_2580_1.0,1_11_14_1.0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" outlineLevel="1">
       <c r="B16">
         <v>9</v>
       </c>
@@ -37696,8 +36334,12 @@
       <c r="H16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" outlineLevel="1">
+      <c r="T16" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_2710_1.0,1_11_16_1.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" outlineLevel="1">
       <c r="B17" s="139">
         <v>10</v>
       </c>
@@ -37705,7 +36347,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="139" t="s">
-        <v>447</v>
+        <v>831</v>
       </c>
       <c r="F17">
         <f>B17*$K$3*100+剧情副本产出分析!$F$58*10</f>
@@ -37718,8 +36360,15 @@
       <c r="H17">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" outlineLevel="1">
+      <c r="T17" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_2840_1.0,1_11_23_1.0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" outlineLevel="1">
       <c r="B18">
         <v>11</v>
       </c>
@@ -37737,8 +36386,12 @@
       <c r="H18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" outlineLevel="1">
+      <c r="T18" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_2970_1.0,1_11_15_1.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" outlineLevel="1">
       <c r="B19">
         <v>12</v>
       </c>
@@ -37756,8 +36409,12 @@
       <c r="H19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" outlineLevel="1">
+      <c r="T19" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_3100_1.0,1_11_17_1.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" outlineLevel="1">
       <c r="B20">
         <v>13</v>
       </c>
@@ -37775,8 +36432,12 @@
       <c r="H20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" outlineLevel="1">
+      <c r="T20" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_3230_1.0,1_11_19_1.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" outlineLevel="1">
       <c r="B21">
         <v>14</v>
       </c>
@@ -37794,8 +36455,12 @@
       <c r="H21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" outlineLevel="1">
+      <c r="T21" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_3360_1.0,1_11_21_1.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" outlineLevel="1">
       <c r="B22" s="139">
         <v>15</v>
       </c>
@@ -37803,7 +36468,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="139" t="s">
-        <v>448</v>
+        <v>833</v>
       </c>
       <c r="F22">
         <f>B22*$K$3*100+剧情副本产出分析!$F$58*10</f>
@@ -37816,8 +36481,15 @@
       <c r="H22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" outlineLevel="1">
+      <c r="T22" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_3490_1.0,1_11_28_1.0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" outlineLevel="1">
       <c r="B23">
         <v>16</v>
       </c>
@@ -37835,8 +36507,12 @@
       <c r="H23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" outlineLevel="1">
+      <c r="T23" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_3620_1.0,1_11_20_1.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" outlineLevel="1">
       <c r="B24">
         <v>17</v>
       </c>
@@ -37854,8 +36530,12 @@
       <c r="H24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" outlineLevel="1">
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_3750_1.0,1_11_22_1.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" outlineLevel="1">
       <c r="B25">
         <v>18</v>
       </c>
@@ -37873,8 +36553,12 @@
       <c r="H25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" outlineLevel="1">
+      <c r="T25" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_3880_1.0,1_11_24_1.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" outlineLevel="1">
       <c r="A26" t="s">
         <v>440</v>
       </c>
@@ -37895,8 +36579,12 @@
       <c r="H26">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" outlineLevel="1">
+      <c r="T26" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_4010_1.0,1_11_26_1.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" outlineLevel="1">
       <c r="B27" s="139">
         <v>20</v>
       </c>
@@ -37904,7 +36592,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="139" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F27">
         <f>B27*$K$3*100+剧情副本产出分析!$F$58*10</f>
@@ -37917,13 +36605,20 @@
       <c r="H27">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="T27" t="str">
+        <f t="shared" si="0"/>
+        <v>1_2_4140_1.0,1_11_33_1.0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="C31" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:23">
       <c r="B32" t="s">
         <v>444</v>
       </c>
@@ -37934,12 +36629,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:23">
       <c r="C33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="2:8" outlineLevel="1">
+    <row r="35" spans="2:23" outlineLevel="1">
       <c r="B35">
         <v>1</v>
       </c>
@@ -37957,8 +36652,12 @@
       <c r="H35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" outlineLevel="1">
+      <c r="T35" t="str">
+        <f>CONCATENATE("1_2_",F35,"_1.0",",","1_11_",H35,"_1.0")</f>
+        <v>1_2_2690_1.0,1_11_10_1.0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" outlineLevel="1">
       <c r="B36">
         <v>2</v>
       </c>
@@ -37976,8 +36675,12 @@
       <c r="H36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" outlineLevel="1">
+      <c r="T36" t="str">
+        <f t="shared" ref="T36:T64" si="1">CONCATENATE("1_2_",F36,"_1.0",",","1_11_",H36,"_1.0")</f>
+        <v>1_2_2820_1.0,1_11_12_1.0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" outlineLevel="1">
       <c r="B37">
         <v>3</v>
       </c>
@@ -37995,8 +36698,12 @@
       <c r="H37">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" outlineLevel="1">
+      <c r="T37" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_2950_1.0,1_11_14_1.0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" outlineLevel="1">
       <c r="B38">
         <v>4</v>
       </c>
@@ -38014,16 +36721,20 @@
       <c r="H38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" outlineLevel="1">
+      <c r="T38" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_3080_1.0,1_11_16_1.0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" outlineLevel="1">
       <c r="B39" s="139">
         <v>5</v>
       </c>
       <c r="C39" s="139">
         <v>24</v>
       </c>
-      <c r="D39" s="139" t="s">
-        <v>452</v>
+      <c r="D39" s="158" t="s">
+        <v>450</v>
       </c>
       <c r="F39">
         <f>B39*$K$3*100+剧情副本产出分析!$F$68*10</f>
@@ -38036,8 +36747,15 @@
       <c r="H39">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" outlineLevel="1">
+      <c r="T39" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_3210_1.0,1_11_23_1.0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" outlineLevel="1">
       <c r="B40">
         <v>6</v>
       </c>
@@ -38055,8 +36773,12 @@
       <c r="H40">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" outlineLevel="1">
+      <c r="T40" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_3340_1.0,1_11_15_1.0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" outlineLevel="1">
       <c r="B41">
         <v>7</v>
       </c>
@@ -38074,8 +36796,12 @@
       <c r="H41">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" outlineLevel="1">
+      <c r="T41" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_3470_1.0,1_11_17_1.0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" outlineLevel="1">
       <c r="B42">
         <v>8</v>
       </c>
@@ -38093,8 +36819,12 @@
       <c r="H42">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" outlineLevel="1">
+      <c r="T42" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_3600_1.0,1_11_19_1.0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" outlineLevel="1">
       <c r="B43">
         <v>9</v>
       </c>
@@ -38112,16 +36842,20 @@
       <c r="H43">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" outlineLevel="1">
+      <c r="T43" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_3730_1.0,1_11_21_1.0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" outlineLevel="1">
       <c r="B44" s="139">
         <v>10</v>
       </c>
       <c r="C44" s="139">
         <v>29</v>
       </c>
-      <c r="D44" s="139" t="s">
-        <v>453</v>
+      <c r="D44" s="158" t="s">
+        <v>451</v>
       </c>
       <c r="F44">
         <f>B44*$K$3*100+剧情副本产出分析!$F$68*10</f>
@@ -38134,8 +36868,12 @@
       <c r="H44">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" outlineLevel="1">
+      <c r="T44" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_3860_1.0,1_11_28_1.0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" outlineLevel="1">
       <c r="B45">
         <v>11</v>
       </c>
@@ -38153,8 +36891,12 @@
       <c r="H45">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" outlineLevel="1">
+      <c r="T45" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_3990_1.0,1_11_20_1.0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" outlineLevel="1">
       <c r="B46">
         <v>12</v>
       </c>
@@ -38172,8 +36914,12 @@
       <c r="H46">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" outlineLevel="1">
+      <c r="T46" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_4120_1.0,1_11_22_1.0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" outlineLevel="1">
       <c r="B47">
         <v>13</v>
       </c>
@@ -38191,8 +36937,12 @@
       <c r="H47">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" outlineLevel="1">
+      <c r="T47" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_4250_1.0,1_11_24_1.0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" outlineLevel="1">
       <c r="B48">
         <v>14</v>
       </c>
@@ -38210,16 +36960,20 @@
       <c r="H48">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" outlineLevel="1">
+      <c r="T48" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_4380_1.0,1_11_26_1.0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" outlineLevel="1">
       <c r="B49" s="139">
         <v>15</v>
       </c>
       <c r="C49" s="139">
         <v>32</v>
       </c>
-      <c r="D49" s="139" t="s">
-        <v>454</v>
+      <c r="D49" s="158" t="s">
+        <v>452</v>
       </c>
       <c r="F49">
         <f>B49*$K$3*100+剧情副本产出分析!$F$68*10</f>
@@ -38232,8 +36986,12 @@
       <c r="H49">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" outlineLevel="1">
+      <c r="T49" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_4510_1.0,1_11_33_1.0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" outlineLevel="1">
       <c r="B50">
         <v>16</v>
       </c>
@@ -38251,8 +37009,12 @@
       <c r="H50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" outlineLevel="1">
+      <c r="T50" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_4640_1.0,1_11_25_1.0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" outlineLevel="1">
       <c r="B51">
         <v>17</v>
       </c>
@@ -38270,8 +37032,12 @@
       <c r="H51">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" outlineLevel="1">
+      <c r="T51" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_4770_1.0,1_11_27_1.0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" outlineLevel="1">
       <c r="B52">
         <v>18</v>
       </c>
@@ -38289,8 +37055,12 @@
       <c r="H52">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" outlineLevel="1">
+      <c r="T52" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_4900_1.0,1_11_29_1.0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" outlineLevel="1">
       <c r="B53">
         <v>19</v>
       </c>
@@ -38308,8 +37078,12 @@
       <c r="H53">
         <v>31</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" outlineLevel="1">
+      <c r="T53" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_5030_1.0,1_11_31_1.0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" outlineLevel="1">
       <c r="B54" s="139">
         <v>20</v>
       </c>
@@ -38317,7 +37091,7 @@
         <v>35</v>
       </c>
       <c r="D54" s="139" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F54">
         <f>B54*$K$3*100+剧情副本产出分析!$F$68*10</f>
@@ -38330,8 +37104,15 @@
       <c r="H54">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" outlineLevel="1">
+      <c r="T54" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_5160_1.0,1_11_38_1.0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" outlineLevel="1">
       <c r="B55">
         <v>21</v>
       </c>
@@ -38349,8 +37130,12 @@
       <c r="H55">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" outlineLevel="1">
+      <c r="T55" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_5290_1.0,1_11_30_1.0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" outlineLevel="1">
       <c r="B56">
         <v>22</v>
       </c>
@@ -38368,8 +37153,12 @@
       <c r="H56">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" outlineLevel="1">
+      <c r="T56" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_5420_1.0,1_11_32_1.0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" outlineLevel="1">
       <c r="B57">
         <v>23</v>
       </c>
@@ -38387,8 +37176,12 @@
       <c r="H57">
         <v>34</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" outlineLevel="1">
+      <c r="T57" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_5550_1.0,1_11_34_1.0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" outlineLevel="1">
       <c r="B58">
         <v>24</v>
       </c>
@@ -38406,8 +37199,12 @@
       <c r="H58">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" outlineLevel="1">
+      <c r="T58" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_5680_1.0,1_11_36_1.0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" outlineLevel="1">
       <c r="B59" s="139">
         <v>25</v>
       </c>
@@ -38415,7 +37212,7 @@
         <v>37</v>
       </c>
       <c r="D59" s="139" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F59">
         <f>B59*$K$3*100+剧情副本产出分析!$F$68*10</f>
@@ -38428,8 +37225,15 @@
       <c r="H59">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" outlineLevel="1">
+      <c r="T59" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_5810_1.0,1_11_43_1.0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" outlineLevel="1">
       <c r="B60">
         <v>26</v>
       </c>
@@ -38447,8 +37251,12 @@
       <c r="H60">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" outlineLevel="1">
+      <c r="T60" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_5940_1.0,1_11_35_1.0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" outlineLevel="1">
       <c r="B61">
         <v>27</v>
       </c>
@@ -38466,8 +37274,12 @@
       <c r="H61">
         <v>37</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" outlineLevel="1">
+      <c r="T61" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_6070_1.0,1_11_37_1.0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" outlineLevel="1">
       <c r="B62">
         <v>28</v>
       </c>
@@ -38485,8 +37297,12 @@
       <c r="H62">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" outlineLevel="1">
+      <c r="T62" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_6200_1.0,1_11_39_1.0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" outlineLevel="1">
       <c r="B63">
         <v>29</v>
       </c>
@@ -38504,8 +37320,12 @@
       <c r="H63">
         <v>41</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" outlineLevel="1">
+      <c r="T63" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_6330_1.0,1_11_41_1.0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" outlineLevel="1">
       <c r="B64" s="139">
         <v>30</v>
       </c>
@@ -38513,7 +37333,7 @@
         <v>42</v>
       </c>
       <c r="D64" s="139" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F64">
         <f>B64*$K$3*100+剧情副本产出分析!$F$68*10</f>
@@ -38526,13 +37346,20 @@
       <c r="H64">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="T64" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2_6460_1.0,1_11_48_1.0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23">
       <c r="C66" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:23">
       <c r="B67" t="s">
         <v>443</v>
       </c>
@@ -38540,12 +37367,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:23">
       <c r="C68" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="70" spans="2:8" outlineLevel="1">
+    <row r="70" spans="2:23" outlineLevel="1">
       <c r="B70">
         <v>1</v>
       </c>
@@ -38563,8 +37390,12 @@
       <c r="H70">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" outlineLevel="1">
+      <c r="T70" t="str">
+        <f t="shared" ref="T70:T109" si="2">CONCATENATE("1_2_",F70,"_1.0",",","1_11_",H70,"_1.0")</f>
+        <v>1_2_3910_1.0,1_11_25_1.0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" outlineLevel="1">
       <c r="B71">
         <v>2</v>
       </c>
@@ -38582,8 +37413,12 @@
       <c r="H71">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" outlineLevel="1">
+      <c r="T71" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_4040_1.0,1_11_27_1.0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" outlineLevel="1">
       <c r="B72">
         <v>3</v>
       </c>
@@ -38601,8 +37436,12 @@
       <c r="H72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" outlineLevel="1">
+      <c r="T72" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_4170_1.0,1_11_29_1.0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" outlineLevel="1">
       <c r="B73">
         <v>4</v>
       </c>
@@ -38620,16 +37459,20 @@
       <c r="H73">
         <v>31</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" outlineLevel="1">
+      <c r="T73" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_4300_1.0,1_11_31_1.0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" outlineLevel="1">
       <c r="B74" s="139">
         <v>5</v>
       </c>
       <c r="C74" s="139">
         <v>39</v>
       </c>
-      <c r="D74" s="139" t="s">
-        <v>458</v>
+      <c r="D74" s="158" t="s">
+        <v>847</v>
       </c>
       <c r="F74">
         <f>B74*$K$3*100+剧情副本产出分析!$F$78*10</f>
@@ -38642,8 +37485,15 @@
       <c r="H74">
         <v>38</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" outlineLevel="1">
+      <c r="T74" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_4430_1.0,1_11_38_1.0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" outlineLevel="1">
       <c r="B75">
         <v>6</v>
       </c>
@@ -38661,8 +37511,12 @@
       <c r="H75">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" outlineLevel="1">
+      <c r="T75" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_4560_1.0,1_11_30_1.0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" outlineLevel="1">
       <c r="B76">
         <v>7</v>
       </c>
@@ -38680,8 +37534,12 @@
       <c r="H76">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" outlineLevel="1">
+      <c r="T76" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_4690_1.0,1_11_32_1.0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" outlineLevel="1">
       <c r="B77">
         <v>8</v>
       </c>
@@ -38699,8 +37557,12 @@
       <c r="H77">
         <v>34</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" outlineLevel="1">
+      <c r="T77" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_4820_1.0,1_11_34_1.0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" outlineLevel="1">
       <c r="B78">
         <v>9</v>
       </c>
@@ -38718,8 +37580,12 @@
       <c r="H78">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" outlineLevel="1">
+      <c r="T78" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_4950_1.0,1_11_36_1.0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" outlineLevel="1">
       <c r="B79" s="139">
         <v>10</v>
       </c>
@@ -38727,7 +37593,7 @@
         <v>44</v>
       </c>
       <c r="D79" s="139" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="F79">
         <f>B79*$K$3*100+剧情副本产出分析!$F$78*10</f>
@@ -38740,8 +37606,15 @@
       <c r="H79">
         <v>43</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" outlineLevel="1">
+      <c r="T79" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_5080_1.0,1_11_43_1.0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" outlineLevel="1">
       <c r="B80">
         <v>11</v>
       </c>
@@ -38759,8 +37632,12 @@
       <c r="H80">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" outlineLevel="1">
+      <c r="T80" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_5210_1.0,1_11_35_1.0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" outlineLevel="1">
       <c r="B81">
         <v>12</v>
       </c>
@@ -38778,8 +37655,12 @@
       <c r="H81">
         <v>37</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" outlineLevel="1">
+      <c r="T81" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_5340_1.0,1_11_37_1.0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" outlineLevel="1">
       <c r="B82">
         <v>13</v>
       </c>
@@ -38797,8 +37678,12 @@
       <c r="H82">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" outlineLevel="1">
+      <c r="T82" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_5470_1.0,1_11_39_1.0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" outlineLevel="1">
       <c r="B83">
         <v>14</v>
       </c>
@@ -38816,8 +37701,12 @@
       <c r="H83">
         <v>41</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" outlineLevel="1">
+      <c r="T83" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_5600_1.0,1_11_41_1.0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" outlineLevel="1">
       <c r="B84" s="139">
         <v>15</v>
       </c>
@@ -38825,7 +37714,7 @@
         <v>48</v>
       </c>
       <c r="D84" s="139" t="s">
-        <v>477</v>
+        <v>839</v>
       </c>
       <c r="F84">
         <f>B84*$K$3*100+剧情副本产出分析!$F$78*10</f>
@@ -38838,8 +37727,15 @@
       <c r="H84">
         <v>48</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" outlineLevel="1">
+      <c r="T84" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_5730_1.0,1_11_48_1.0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" outlineLevel="1">
       <c r="B85">
         <v>16</v>
       </c>
@@ -38857,8 +37753,12 @@
       <c r="H85">
         <v>40</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" outlineLevel="1">
+      <c r="T85" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_5860_1.0,1_11_40_1.0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" outlineLevel="1">
       <c r="B86">
         <v>17</v>
       </c>
@@ -38876,8 +37776,12 @@
       <c r="H86">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" outlineLevel="1">
+      <c r="T86" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_5990_1.0,1_11_42_1.0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" outlineLevel="1">
       <c r="B87">
         <v>18</v>
       </c>
@@ -38895,8 +37799,12 @@
       <c r="H87">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" outlineLevel="1">
+      <c r="T87" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_6120_1.0,1_11_44_1.0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" outlineLevel="1">
       <c r="B88">
         <v>19</v>
       </c>
@@ -38914,8 +37822,12 @@
       <c r="H88">
         <v>46</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" outlineLevel="1">
+      <c r="T88" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_6250_1.0,1_11_46_1.0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" outlineLevel="1">
       <c r="B89" s="139">
         <v>20</v>
       </c>
@@ -38923,7 +37835,7 @@
         <v>50</v>
       </c>
       <c r="D89" s="139" t="s">
-        <v>478</v>
+        <v>840</v>
       </c>
       <c r="F89">
         <f>B89*$K$3*100+剧情副本产出分析!$F$78*10</f>
@@ -38936,8 +37848,15 @@
       <c r="H89">
         <v>53</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" outlineLevel="1">
+      <c r="T89" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_6380_1.0,1_11_53_1.0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" outlineLevel="1">
       <c r="B90">
         <v>21</v>
       </c>
@@ -38955,8 +37874,12 @@
       <c r="H90">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" outlineLevel="1">
+      <c r="T90" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_6510_1.0,1_11_45_1.0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" outlineLevel="1">
       <c r="B91">
         <v>22</v>
       </c>
@@ -38974,8 +37897,12 @@
       <c r="H91">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" outlineLevel="1">
+      <c r="T91" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_6640_1.0,1_11_47_1.0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" outlineLevel="1">
       <c r="B92">
         <v>23</v>
       </c>
@@ -38993,8 +37920,12 @@
       <c r="H92">
         <v>49</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" outlineLevel="1">
+      <c r="T92" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_6770_1.0,1_11_49_1.0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" outlineLevel="1">
       <c r="B93">
         <v>24</v>
       </c>
@@ -39012,8 +37943,12 @@
       <c r="H93">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" outlineLevel="1">
+      <c r="T93" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_6900_1.0,1_11_51_1.0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" outlineLevel="1">
       <c r="B94" s="139">
         <v>25</v>
       </c>
@@ -39021,7 +37956,7 @@
         <v>53</v>
       </c>
       <c r="D94" s="139" t="s">
-        <v>479</v>
+        <v>841</v>
       </c>
       <c r="F94">
         <f>B94*$K$3*100+剧情副本产出分析!$F$78*10</f>
@@ -39034,8 +37969,15 @@
       <c r="H94">
         <v>58</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" outlineLevel="1">
+      <c r="T94" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_7030_1.0,1_11_58_1.0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" outlineLevel="1">
       <c r="B95">
         <v>26</v>
       </c>
@@ -39053,8 +37995,12 @@
       <c r="H95">
         <v>50</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" outlineLevel="1">
+      <c r="T95" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_7160_1.0,1_11_50_1.0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" outlineLevel="1">
       <c r="B96">
         <v>27</v>
       </c>
@@ -39072,8 +38018,12 @@
       <c r="H96">
         <v>52</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" outlineLevel="1">
+      <c r="T96" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_7290_1.0,1_11_52_1.0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" outlineLevel="1">
       <c r="B97">
         <v>28</v>
       </c>
@@ -39091,8 +38041,12 @@
       <c r="H97">
         <v>54</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" outlineLevel="1">
+      <c r="T97" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_7420_1.0,1_11_54_1.0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" outlineLevel="1">
       <c r="B98">
         <v>29</v>
       </c>
@@ -39110,8 +38064,12 @@
       <c r="H98">
         <v>56</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" outlineLevel="1">
+      <c r="T98" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_7550_1.0,1_11_56_1.0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" outlineLevel="1">
       <c r="B99" s="139">
         <v>30</v>
       </c>
@@ -39119,7 +38077,7 @@
         <v>56</v>
       </c>
       <c r="D99" s="139" t="s">
-        <v>480</v>
+        <v>842</v>
       </c>
       <c r="F99">
         <f>B99*$K$3*100+剧情副本产出分析!$F$78*10</f>
@@ -39132,8 +38090,15 @@
       <c r="H99">
         <v>63</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" outlineLevel="1">
+      <c r="T99" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_7680_1.0,1_11_63_1.0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" outlineLevel="1">
       <c r="B100">
         <v>31</v>
       </c>
@@ -39151,8 +38116,12 @@
       <c r="H100">
         <v>55</v>
       </c>
-    </row>
-    <row r="101" spans="2:8" outlineLevel="1">
+      <c r="T100" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_7810_1.0,1_11_55_1.0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" outlineLevel="1">
       <c r="B101">
         <v>32</v>
       </c>
@@ -39170,8 +38139,12 @@
       <c r="H101">
         <v>57</v>
       </c>
-    </row>
-    <row r="102" spans="2:8" outlineLevel="1">
+      <c r="T101" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_7940_1.0,1_11_57_1.0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" outlineLevel="1">
       <c r="B102">
         <v>33</v>
       </c>
@@ -39189,8 +38162,12 @@
       <c r="H102">
         <v>59</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" outlineLevel="1">
+      <c r="T102" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_8070_1.0,1_11_59_1.0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" outlineLevel="1">
       <c r="B103">
         <v>34</v>
       </c>
@@ -39208,8 +38185,12 @@
       <c r="H103">
         <v>61</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" outlineLevel="1">
+      <c r="T103" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_8200_1.0,1_11_61_1.0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" outlineLevel="1">
       <c r="B104" s="139">
         <v>35</v>
       </c>
@@ -39217,7 +38198,7 @@
         <v>59</v>
       </c>
       <c r="D104" s="139" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F104">
         <f>B104*$K$3*100+剧情副本产出分析!$F$78*10</f>
@@ -39230,8 +38211,15 @@
       <c r="H104">
         <v>68</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" outlineLevel="1">
+      <c r="T104" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_8330_1.0,1_11_68_1.0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" outlineLevel="1">
       <c r="B105">
         <v>36</v>
       </c>
@@ -39249,8 +38237,12 @@
       <c r="H105">
         <v>60</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" outlineLevel="1">
+      <c r="T105" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_8460_1.0,1_11_60_1.0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" outlineLevel="1">
       <c r="B106">
         <v>37</v>
       </c>
@@ -39268,8 +38260,12 @@
       <c r="H106">
         <v>62</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" outlineLevel="1">
+      <c r="T106" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_8590_1.0,1_11_62_1.0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" outlineLevel="1">
       <c r="B107">
         <v>38</v>
       </c>
@@ -39287,8 +38283,12 @@
       <c r="H107">
         <v>64</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" outlineLevel="1">
+      <c r="T107" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_8720_1.0,1_11_64_1.0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" outlineLevel="1">
       <c r="B108">
         <v>39</v>
       </c>
@@ -39306,8 +38306,12 @@
       <c r="H108">
         <v>66</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" outlineLevel="1">
+      <c r="T108" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_8850_1.0,1_11_66_1.0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" outlineLevel="1">
       <c r="B109" s="139">
         <v>40</v>
       </c>
@@ -39315,7 +38319,7 @@
         <v>65</v>
       </c>
       <c r="D109" s="139" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F109">
         <f>B109*$K$3*100+剧情副本产出分析!$F$78*10</f>
@@ -39327,6 +38331,18 @@
       </c>
       <c r="H109">
         <v>73</v>
+      </c>
+      <c r="T109" t="str">
+        <f t="shared" si="2"/>
+        <v>1_2_8980_1.0,1_11_73_1.0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="139" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -39386,15 +38402,15 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="Q1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="D2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="W2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="X2" s="141">
         <v>60</v>
@@ -39408,12 +38424,12 @@
     </row>
     <row r="3" spans="1:26">
       <c r="B3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="R4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="T4" t="s">
         <v>401</v>
@@ -39421,13 +38437,13 @@
     </row>
     <row r="5" spans="1:26">
       <c r="B5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
         <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="R5" t="s">
         <v>399</v>
@@ -39675,7 +38691,7 @@
         <v>66</v>
       </c>
       <c r="Q13" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="S13">
         <f>VLOOKUP(S10,'[1]宠物经验(副本关联表)'!$A$18:$J$66,9,0)</f>
@@ -39718,7 +38734,7 @@
         <v>411</v>
       </c>
       <c r="K14" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M14">
         <v>8</v>
@@ -39728,7 +38744,7 @@
         <v>72</v>
       </c>
       <c r="Q14" s="138" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S14">
         <v>2</v>
@@ -39807,7 +38823,7 @@
         <v>4680</v>
       </c>
       <c r="Q16" s="138" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="S16">
         <f>(S15+S14)*X2</f>
@@ -39904,7 +38920,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="138" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C20">
         <f>C19*(1+$G$6%)</f>
@@ -39958,7 +38974,7 @@
         <v>110.5</v>
       </c>
       <c r="Q21" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="S21">
         <f>S19*Y2+S16</f>
@@ -40339,107 +39355,107 @@
       <c r="A1" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197" t="s">
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197" t="s">
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197" t="s">
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197" t="s">
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197" t="s">
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="135" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="196" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196" t="s">
         <v>427</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199" t="s">
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199" t="s">
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="131" t="s">
@@ -41925,9 +40941,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V48"/>
+  <dimension ref="B2:W48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -41935,12 +40951,13 @@
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="19" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="22" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="10.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
@@ -41957,57 +40974,57 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="140" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="140" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F5" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="140"/>
       <c r="F6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="2:22">
       <c r="C7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="2:22">
       <c r="J8" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="K8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="L8" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M8" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="N8" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F9">
         <v>360</v>
@@ -42030,7 +41047,7 @@
     </row>
     <row r="10" spans="2:22">
       <c r="D10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E10">
         <v>0.1</v>
@@ -42053,7 +41070,7 @@
     </row>
     <row r="11" spans="2:22">
       <c r="D11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E11">
         <v>0.4</v>
@@ -42076,7 +41093,7 @@
     </row>
     <row r="12" spans="2:22" ht="14.25" thickBot="1">
       <c r="D12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -42134,10 +41151,10 @@
     </row>
     <row r="15" spans="2:22">
       <c r="B15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E15">
         <v>0.37</v>
@@ -42159,7 +41176,7 @@
     </row>
     <row r="16" spans="2:22">
       <c r="D16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E16">
         <v>0.21</v>
@@ -42167,46 +41184,46 @@
       <c r="I16" s="149"/>
       <c r="J16" s="132"/>
       <c r="K16" s="132" t="s">
+        <v>645</v>
+      </c>
+      <c r="L16" s="132" t="s">
+        <v>646</v>
+      </c>
+      <c r="M16" s="132" t="s">
+        <v>648</v>
+      </c>
+      <c r="N16" s="132" t="s">
+        <v>649</v>
+      </c>
+      <c r="O16" s="132" t="s">
+        <v>650</v>
+      </c>
+      <c r="P16" s="132" t="s">
         <v>651</v>
       </c>
-      <c r="L16" s="132" t="s">
-        <v>652</v>
-      </c>
-      <c r="M16" s="132" t="s">
-        <v>654</v>
-      </c>
-      <c r="N16" s="132" t="s">
-        <v>655</v>
-      </c>
-      <c r="O16" s="132" t="s">
-        <v>656</v>
-      </c>
-      <c r="P16" s="132" t="s">
-        <v>657</v>
-      </c>
       <c r="Q16" s="132" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="R16" s="132"/>
       <c r="S16" s="132"/>
       <c r="T16" s="132" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="U16" s="132" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="V16" s="150"/>
     </row>
     <row r="17" spans="2:22">
       <c r="D17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="I17" s="149"/>
       <c r="J17" s="132" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K17" s="132">
         <f>E11*$K$9</f>
@@ -42239,7 +41256,7 @@
     <row r="18" spans="2:22">
       <c r="I18" s="149"/>
       <c r="J18" s="132" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="K18" s="132"/>
       <c r="L18" s="132"/>
@@ -42272,7 +41289,7 @@
     <row r="19" spans="2:22">
       <c r="I19" s="149"/>
       <c r="J19" s="132" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="K19" s="132"/>
       <c r="L19" s="132"/>
@@ -42308,7 +41325,7 @@
       </c>
       <c r="I20" s="149"/>
       <c r="J20" s="132" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="K20" s="132">
         <f>E11*K10</f>
@@ -42340,17 +41357,17 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D21" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E21">
         <v>0.03</v>
       </c>
       <c r="I21" s="149"/>
       <c r="J21" s="132" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K21" s="132"/>
       <c r="L21" s="132"/>
@@ -42382,14 +41399,14 @@
     </row>
     <row r="22" spans="2:22">
       <c r="D22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E22">
         <v>0.05</v>
       </c>
       <c r="I22" s="149"/>
       <c r="J22" s="132" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="K22" s="132"/>
       <c r="L22" s="132"/>
@@ -42421,14 +41438,14 @@
     </row>
     <row r="23" spans="2:22">
       <c r="D23" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E23">
         <v>0.5</v>
       </c>
       <c r="I23" s="149"/>
       <c r="J23" s="132" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K23" s="132">
         <f>E11*K11</f>
@@ -42460,14 +41477,14 @@
     </row>
     <row r="24" spans="2:22">
       <c r="D24" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E24">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I24" s="149"/>
       <c r="J24" s="132" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="K24" s="132"/>
       <c r="L24" s="132"/>
@@ -42499,14 +41516,14 @@
     </row>
     <row r="25" spans="2:22">
       <c r="D25" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E25">
         <v>0.5</v>
       </c>
       <c r="I25" s="149"/>
       <c r="J25" s="132" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="K25" s="132"/>
       <c r="L25" s="132"/>
@@ -42539,7 +41556,7 @@
     <row r="26" spans="2:22">
       <c r="I26" s="149"/>
       <c r="J26" s="132" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="K26" s="132">
         <f>E11*K12</f>
@@ -42572,7 +41589,7 @@
     <row r="27" spans="2:22">
       <c r="I27" s="149"/>
       <c r="J27" s="132" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="K27" s="132"/>
       <c r="L27" s="132"/>
@@ -42605,7 +41622,7 @@
     <row r="28" spans="2:22">
       <c r="I28" s="149"/>
       <c r="J28" s="132" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="K28" s="132"/>
       <c r="L28" s="132"/>
@@ -42637,7 +41654,7 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="I29" s="149"/>
       <c r="J29" s="132"/>
@@ -42672,10 +41689,10 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D31" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="I31" s="149"/>
       <c r="J31" s="132"/>
@@ -42765,16 +41782,16 @@
     </row>
     <row r="38" spans="2:19">
       <c r="B38" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C38">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="G38" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="L38" s="140"/>
       <c r="M38" s="140"/>
@@ -42790,7 +41807,7 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="L39" s="140"/>
       <c r="M39" s="140"/>
@@ -42806,7 +41823,7 @@
         <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="L40" s="140"/>
       <c r="M40" s="140"/>
@@ -42822,7 +41839,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="L41" s="140"/>
       <c r="M41" s="140"/>
@@ -42914,7 +41931,7 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -42931,24 +41948,24 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="L1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="T2" s="157">
         <v>1</v>
@@ -42959,13 +41976,13 @@
     </row>
     <row r="3" spans="1:21">
       <c r="L3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="T3" s="157">
         <v>2</v>
@@ -42976,19 +41993,19 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="T4" s="157">
         <v>3</v>
@@ -42999,19 +42016,19 @@
     </row>
     <row r="5" spans="1:21">
       <c r="D5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G5" s="136">
         <v>0.15</v>
       </c>
       <c r="L5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="T5" s="157">
         <v>4</v>
@@ -43022,19 +42039,19 @@
     </row>
     <row r="6" spans="1:21">
       <c r="D6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G6" s="136">
         <v>0.5</v>
       </c>
       <c r="L6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="T6" s="157">
         <v>5</v>
@@ -43045,19 +42062,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="D7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G7" s="136">
         <v>0.35</v>
       </c>
       <c r="L7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="T7" s="157">
         <v>6</v>
@@ -43068,13 +42085,13 @@
     </row>
     <row r="8" spans="1:21">
       <c r="L8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="T8" s="157">
         <v>7</v>
@@ -43085,13 +42102,13 @@
     </row>
     <row r="9" spans="1:21">
       <c r="L9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M9">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="T9" s="157">
         <v>8</v>
@@ -43102,13 +42119,13 @@
     </row>
     <row r="10" spans="1:21">
       <c r="L10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="T10" s="157">
         <v>9</v>
@@ -43119,13 +42136,13 @@
     </row>
     <row r="11" spans="1:21">
       <c r="L11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="T11" s="157">
         <v>10</v>
@@ -43136,117 +42153,117 @@
     </row>
     <row r="12" spans="1:21">
       <c r="B12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H12" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J12" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L12" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="C13" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L13" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="C14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D14" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" t="s">
+        <v>498</v>
+      </c>
+      <c r="I14" t="s">
         <v>500</v>
       </c>
-      <c r="D14" t="s">
-        <v>509</v>
-      </c>
-      <c r="G14" t="s">
-        <v>504</v>
-      </c>
-      <c r="I14" t="s">
-        <v>506</v>
-      </c>
       <c r="L14" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
       <c r="N14" s="142" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="L15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M15">
         <v>5</v>
       </c>
       <c r="N15" s="143" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="L16" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="L17" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q17" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="L18" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="C19" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D19" s="141">
         <v>500</v>
@@ -43255,7 +42272,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="C20" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D20" s="141">
         <v>300</v>
@@ -43264,25 +42281,25 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B21" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F21" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G21" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -43561,7 +42578,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -43569,12 +42586,12 @@
     </row>
     <row r="34" spans="1:6">
       <c r="C34" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:6" outlineLevel="1">
       <c r="E37" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F37" s="141">
         <v>400</v>
@@ -43582,7 +42599,7 @@
     </row>
     <row r="38" spans="1:6" outlineLevel="1">
       <c r="E38" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F38" s="141">
         <v>50</v>
@@ -43590,19 +42607,19 @@
     </row>
     <row r="39" spans="1:6" outlineLevel="1">
       <c r="A39" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B39" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D39" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E39" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F39" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:6" outlineLevel="1">
@@ -43838,16 +42855,16 @@
     <row r="50" spans="1:6" outlineLevel="1"/>
     <row r="53" spans="1:6" outlineLevel="1">
       <c r="A53" t="s">
+        <v>559</v>
+      </c>
+      <c r="B53" t="s">
+        <v>566</v>
+      </c>
+      <c r="C53" t="s">
+        <v>564</v>
+      </c>
+      <c r="D53" t="s">
         <v>565</v>
-      </c>
-      <c r="B53" t="s">
-        <v>572</v>
-      </c>
-      <c r="C53" t="s">
-        <v>570</v>
-      </c>
-      <c r="D53" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:6" outlineLevel="1">
@@ -43855,7 +42872,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D54">
         <v>500</v>
@@ -43866,7 +42883,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -43877,7 +42894,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D56">
         <v>500</v>
@@ -43888,7 +42905,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D57">
         <v>100</v>
@@ -43899,7 +42916,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D58">
         <v>300</v>
@@ -43910,7 +42927,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D59">
         <v>50</v>
@@ -43921,7 +42938,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -43932,7 +42949,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D61">
         <v>1300</v>
@@ -43943,7 +42960,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D62">
         <v>1900</v>
@@ -43954,7 +42971,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D63">
         <v>500</v>
@@ -43965,7 +42982,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D64">
         <v>2600</v>
@@ -43976,7 +42993,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D65">
         <v>300</v>
@@ -43987,7 +43004,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D66">
         <v>500</v>
@@ -43998,7 +43015,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D67">
         <v>150</v>
@@ -44009,7 +43026,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D68">
         <v>100</v>
@@ -44020,7 +43037,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D69">
         <v>200</v>

--- a/gd/数值规划/成长数值相关/产出整合.xlsx
+++ b/gd/数值规划/成长数值相关/产出整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="30" windowWidth="28665" windowHeight="12345" tabRatio="972" activeTab="12"/>
+    <workbookView xWindow="22890" yWindow="825" windowWidth="28665" windowHeight="12345" tabRatio="972" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -33,8 +33,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>The Second Lock</author>
+  </authors>
+  <commentList>
+    <comment ref="P14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The Second Lock:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+40001</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="881">
   <si>
     <t>签到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3526,12 +3562,101 @@
     <t>金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>四种贡品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡品2</t>
+  </si>
+  <si>
+    <t>贡品3</t>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任一贡品=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡品3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50002*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50002*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返还40%钻石</t>
+  </si>
+  <si>
+    <t>返还40%钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3690,6 +3815,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4604,46 +4744,43 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4676,49 +4813,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4905,11 +5045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134295936"/>
-        <c:axId val="134297472"/>
+        <c:axId val="51736576"/>
+        <c:axId val="51738112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134295936"/>
+        <c:axId val="51736576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4918,7 +5058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134297472"/>
+        <c:crossAx val="51738112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4926,7 +5066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134297472"/>
+        <c:axId val="51738112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4937,13 +5077,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134295936"/>
+        <c:crossAx val="51736576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -24265,11 +24406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -24277,7 +24418,7 @@
     <col min="1" max="9" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:31">
       <c r="L1" t="s">
         <v>603</v>
       </c>
@@ -24291,7 +24432,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:31">
       <c r="M2" s="141">
         <v>3000</v>
       </c>
@@ -24305,7 +24446,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>857</v>
       </c>
@@ -24325,7 +24466,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>853</v>
       </c>
@@ -24344,8 +24485,11 @@
       <c r="P4" s="141">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="S4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>853</v>
       </c>
@@ -24364,8 +24508,26 @@
       <c r="P5" s="141">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="S5">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="S6">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="S7">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="R12" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="C13" t="s">
         <v>589</v>
       </c>
@@ -24378,8 +24540,14 @@
       <c r="I13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="R13" t="s">
+        <v>859</v>
+      </c>
+      <c r="W13" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>586</v>
       </c>
@@ -24401,8 +24569,32 @@
       <c r="P14" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="R14" t="s">
+        <v>860</v>
+      </c>
+      <c r="S14" t="s">
+        <v>861</v>
+      </c>
+      <c r="T14" t="s">
+        <v>862</v>
+      </c>
+      <c r="U14" t="s">
+        <v>864</v>
+      </c>
+      <c r="V14" t="s">
+        <v>864</v>
+      </c>
+      <c r="W14" t="s">
+        <v>866</v>
+      </c>
+      <c r="Z14">
+        <v>40001</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>505</v>
       </c>
@@ -24443,8 +24635,47 @@
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>2000</v>
+      </c>
+      <c r="V15">
+        <v>4000</v>
+      </c>
+      <c r="W15">
+        <f>ROUNDDOWN(M15*75%,-2)</f>
+        <v>15100</v>
+      </c>
+      <c r="X15">
+        <f>ROUNDDOWN(N15*75%,-1)</f>
+        <v>160</v>
+      </c>
+      <c r="Y15">
+        <f>ROUNDDOWN(O15*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>ROUNDDOWN(P15,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD15">
+        <f>ROUNDDOWN(M15*25%,-2)</f>
+        <v>5000</v>
+      </c>
+      <c r="AE15">
+        <f>ROUNDDOWN(N15*25%,-1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>678</v>
       </c>
@@ -24489,8 +24720,47 @@
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>2000</v>
+      </c>
+      <c r="V16">
+        <v>4000</v>
+      </c>
+      <c r="W16">
+        <f>ROUNDDOWN(M16*75%,-2)</f>
+        <v>6000</v>
+      </c>
+      <c r="X16">
+        <f>ROUNDDOWN(N16*75%,-1)</f>
+        <v>320</v>
+      </c>
+      <c r="Y16">
+        <f>ROUNDDOWN(O16*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f>ROUNDDOWN(P16,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" ref="AD16:AE30" si="1">ROUNDDOWN(M16*25%,-2)</f>
+        <v>2000</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" ref="AE16:AE30" si="2">ROUNDDOWN(N16*25%,-1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>679</v>
       </c>
@@ -24529,8 +24799,47 @@
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>2000</v>
+      </c>
+      <c r="V17">
+        <v>4000</v>
+      </c>
+      <c r="W17">
+        <f>ROUNDDOWN(M17*75%,-2)</f>
+        <v>6000</v>
+      </c>
+      <c r="X17">
+        <f>ROUNDDOWN(N17*75%,-1)</f>
+        <v>160</v>
+      </c>
+      <c r="Y17">
+        <f>ROUNDDOWN(O17*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>ROUNDDOWN(P17,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>680</v>
       </c>
@@ -24569,8 +24878,50 @@
         <f t="shared" si="0"/>
         <v>4.1850000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>2000</v>
+      </c>
+      <c r="V18">
+        <v>4000</v>
+      </c>
+      <c r="W18">
+        <f>ROUNDDOWN(M18*75%,-2)</f>
+        <v>6000</v>
+      </c>
+      <c r="X18">
+        <f>ROUNDDOWN(N18*75%,-1)</f>
+        <v>160</v>
+      </c>
+      <c r="Y18">
+        <f>ROUNDDOWN(O18*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f>ROUNDDOWN(P18,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>681</v>
       </c>
@@ -24602,15 +24953,57 @@
         <v>272</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:P22" si="1">E16*$P$3</f>
+        <f t="shared" ref="O19:P22" si="3">E16*$P$3</f>
         <v>0.34</v>
       </c>
       <c r="P19">
+        <f t="shared" si="3"/>
+        <v>2.72</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2500</v>
+      </c>
+      <c r="V19">
+        <v>5000</v>
+      </c>
+      <c r="W19">
+        <f>ROUNDDOWN(M19*75%,-2)</f>
+        <v>19100</v>
+      </c>
+      <c r="X19">
+        <f>ROUNDDOWN(N19*75%,-1)</f>
+        <v>200</v>
+      </c>
+      <c r="Y19">
+        <f>ROUNDDOWN(O19*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>ROUNDDOWN(P19,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="1"/>
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>6300</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="B20" t="s">
         <v>601</v>
       </c>
@@ -24638,15 +25031,57 @@
         <v>544</v>
       </c>
       <c r="O20">
+        <f t="shared" si="3"/>
+        <v>0.34</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>2.72</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>2500</v>
+      </c>
+      <c r="V20">
+        <v>5000</v>
+      </c>
+      <c r="W20">
+        <f>ROUNDDOWN(M20*75%,-2)</f>
+        <v>7600</v>
+      </c>
+      <c r="X20">
+        <f>ROUNDDOWN(N20*75%,-1)</f>
+        <v>400</v>
+      </c>
+      <c r="Y20">
+        <f>ROUNDDOWN(O20*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>ROUNDDOWN(P20,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="1"/>
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>2500</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="L21" t="s">
         <v>666</v>
       </c>
@@ -24659,15 +25094,57 @@
         <v>272</v>
       </c>
       <c r="O21">
+        <f t="shared" si="3"/>
+        <v>1.02</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>2.72</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2500</v>
+      </c>
+      <c r="V21">
+        <v>5000</v>
+      </c>
+      <c r="W21">
+        <f>ROUNDDOWN(M21*75%,-2)</f>
+        <v>7600</v>
+      </c>
+      <c r="X21">
+        <f>ROUNDDOWN(N21*75%,-1)</f>
+        <v>200</v>
+      </c>
+      <c r="Y21">
+        <f>ROUNDDOWN(O21*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f>ROUNDDOWN(P21,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="1"/>
-        <v>1.02</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>2500</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="L22" t="s">
         <v>667</v>
       </c>
@@ -24680,15 +25157,57 @@
         <v>272</v>
       </c>
       <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0.34</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>5.27</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2500</v>
+      </c>
+      <c r="V22">
+        <v>5000</v>
+      </c>
+      <c r="W22">
+        <f>ROUNDDOWN(M22*75%,-2)</f>
+        <v>7600</v>
+      </c>
+      <c r="X22">
+        <f>ROUNDDOWN(N22*75%,-1)</f>
+        <v>200</v>
+      </c>
+      <c r="Y22">
+        <f>ROUNDDOWN(O22*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f>ROUNDDOWN(P22,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>2500</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="L23" t="s">
         <v>668</v>
       </c>
@@ -24701,15 +25220,57 @@
         <v>376</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:P26" si="2">E16*$P$4</f>
+        <f t="shared" ref="O23:P26" si="4">E16*$P$4</f>
         <v>0.47000000000000003</v>
       </c>
       <c r="P23">
+        <f t="shared" si="4"/>
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>3500</v>
+      </c>
+      <c r="V23">
+        <v>7000</v>
+      </c>
+      <c r="W23">
+        <f>ROUNDDOWN(M23*75%,-2)</f>
+        <v>26400</v>
+      </c>
+      <c r="X23">
+        <f>ROUNDDOWN(N23*75%,-1)</f>
+        <v>280</v>
+      </c>
+      <c r="Y23">
+        <f>ROUNDDOWN(O23*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>ROUNDDOWN(P23,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="1"/>
+        <v>8800</v>
+      </c>
+      <c r="AE23">
         <f t="shared" si="2"/>
-        <v>3.7600000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="L24" t="s">
         <v>669</v>
       </c>
@@ -24722,15 +25283,57 @@
         <v>752</v>
       </c>
       <c r="O24">
+        <f t="shared" si="4"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>3500</v>
+      </c>
+      <c r="V24">
+        <v>7000</v>
+      </c>
+      <c r="W24">
+        <f>ROUNDDOWN(M24*75%,-2)</f>
+        <v>10500</v>
+      </c>
+      <c r="X24">
+        <f>ROUNDDOWN(N24*75%,-1)</f>
+        <v>560</v>
+      </c>
+      <c r="Y24">
+        <f>ROUNDDOWN(O24*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f>ROUNDDOWN(P24,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="AE24">
         <f t="shared" si="2"/>
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
-        <v>3.7600000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="L25" t="s">
         <v>670</v>
       </c>
@@ -24743,15 +25346,57 @@
         <v>376</v>
       </c>
       <c r="O25">
+        <f t="shared" si="4"/>
+        <v>1.4100000000000004</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>3500</v>
+      </c>
+      <c r="V25">
+        <v>7000</v>
+      </c>
+      <c r="W25">
+        <f>ROUNDDOWN(M25*75%,-2)</f>
+        <v>10500</v>
+      </c>
+      <c r="X25">
+        <f>ROUNDDOWN(N25*75%,-1)</f>
+        <v>280</v>
+      </c>
+      <c r="Y25">
+        <f>ROUNDDOWN(O25*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f>ROUNDDOWN(P25,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="AE25">
         <f t="shared" si="2"/>
-        <v>1.4100000000000004</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
-        <v>3.7600000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="L26" t="s">
         <v>671</v>
       </c>
@@ -24764,15 +25409,57 @@
         <v>376</v>
       </c>
       <c r="O26">
+        <f t="shared" si="4"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>7.2850000000000001</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>3500</v>
+      </c>
+      <c r="V26">
+        <v>7000</v>
+      </c>
+      <c r="W26">
+        <f>ROUNDDOWN(M26*75%,-2)</f>
+        <v>10500</v>
+      </c>
+      <c r="X26">
+        <f>ROUNDDOWN(N26*75%,-1)</f>
+        <v>280</v>
+      </c>
+      <c r="Y26">
+        <f>ROUNDDOWN(O26*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f>ROUNDDOWN(P26,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="AE26">
         <f t="shared" si="2"/>
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
-        <v>7.2850000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="L27" t="s">
         <v>682</v>
       </c>
@@ -24785,15 +25472,57 @@
         <v>488</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:P30" si="3">E16*$P$5</f>
+        <f t="shared" ref="O27:P30" si="5">E16*$P$5</f>
         <v>0.61</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.88</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>8</v>
+      </c>
+      <c r="U27">
+        <v>4500</v>
+      </c>
+      <c r="V27">
+        <v>9000</v>
+      </c>
+      <c r="W27">
+        <f>ROUNDDOWN(M27*75%,-2)</f>
+        <v>34300</v>
+      </c>
+      <c r="X27">
+        <f>ROUNDDOWN(N27*75%,-1)</f>
+        <v>360</v>
+      </c>
+      <c r="Y27">
+        <f>ROUNDDOWN(O27*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f>ROUNDDOWN(P27,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="1"/>
+        <v>11400</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="L28" t="s">
         <v>683</v>
       </c>
@@ -24806,15 +25535,57 @@
         <v>976</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.61</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.88</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>8</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>4500</v>
+      </c>
+      <c r="V28">
+        <v>9000</v>
+      </c>
+      <c r="W28">
+        <f>ROUNDDOWN(M28*75%,-2)</f>
+        <v>13700</v>
+      </c>
+      <c r="X28">
+        <f>ROUNDDOWN(N28*75%,-1)</f>
+        <v>730</v>
+      </c>
+      <c r="Y28">
+        <f>ROUNDDOWN(O28*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f>ROUNDDOWN(P28,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>604</v>
       </c>
@@ -24833,15 +25604,57 @@
         <v>488</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.83</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.88</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>4500</v>
+      </c>
+      <c r="V29">
+        <v>9000</v>
+      </c>
+      <c r="W29">
+        <f>ROUNDDOWN(M29*75%,-2)</f>
+        <v>13700</v>
+      </c>
+      <c r="X29">
+        <f>ROUNDDOWN(N29*75%,-1)</f>
+        <v>360</v>
+      </c>
+      <c r="Y29">
+        <f>ROUNDDOWN(O29*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f>ROUNDDOWN(P29,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="L30" t="s">
         <v>685</v>
       </c>
@@ -24854,15 +25667,123 @@
         <v>488</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.61</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.4550000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>4500</v>
+      </c>
+      <c r="V30">
+        <v>9000</v>
+      </c>
+      <c r="W30">
+        <f>ROUNDDOWN(M30*75%,-2)</f>
+        <v>13700</v>
+      </c>
+      <c r="X30">
+        <f>ROUNDDOWN(N30*75%,-1)</f>
+        <v>360</v>
+      </c>
+      <c r="Y30">
+        <f>ROUNDDOWN(O30*75%,-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f>ROUNDDOWN(P30,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="S32" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="Q33" t="s">
+        <v>865</v>
+      </c>
+      <c r="R33" t="s">
+        <v>860</v>
+      </c>
+      <c r="S33" t="s">
+        <v>869</v>
+      </c>
+      <c r="T33" t="s">
+        <v>870</v>
+      </c>
+      <c r="U33" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="R34">
+        <v>10005</v>
+      </c>
+      <c r="S34">
+        <v>11002</v>
+      </c>
+      <c r="T34" t="s">
+        <v>877</v>
+      </c>
+      <c r="U34" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f>T15*3000</f>
+        <v>6000</v>
+      </c>
+      <c r="U35">
+        <v>50002</v>
+      </c>
+      <c r="V35">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" ref="T36:T50" si="6">T16*3000</f>
+        <v>3000</v>
+      </c>
+      <c r="U36">
+        <v>50002</v>
+      </c>
+      <c r="V36">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>731</v>
       </c>
@@ -24890,8 +25811,24 @@
       <c r="J37" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>50002</v>
+      </c>
+      <c r="V37">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="B38" t="s">
         <v>732</v>
       </c>
@@ -24917,8 +25854,24 @@
         <f>D38/1000*C38+E38*F38/1000+G38*J38/1000</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="U38">
+        <v>50002</v>
+      </c>
+      <c r="V38">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="B39" t="s">
         <v>733</v>
       </c>
@@ -24938,8 +25891,24 @@
         <f>D39/1000*C39+E39*F39/1000+G39*J39/1000</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="U39" t="s">
+        <v>872</v>
+      </c>
+      <c r="V39" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="B40" t="s">
         <v>734</v>
       </c>
@@ -24965,8 +25934,24 @@
         <f>D40/1000*C40+E40*F40/1000+G40*J40/1000</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="U40" t="s">
+        <v>872</v>
+      </c>
+      <c r="V40" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="B41" t="s">
         <v>735</v>
       </c>
@@ -24986,10 +25971,183 @@
         <f>D41/1000*C41+E41*F41/1000+G41*J41/1000</f>
         <v>1.6</v>
       </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="U41" t="s">
+        <v>872</v>
+      </c>
+      <c r="V41" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="U42" t="s">
+        <v>872</v>
+      </c>
+      <c r="V42" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="6"/>
+        <v>21000</v>
+      </c>
+      <c r="U43">
+        <v>50003</v>
+      </c>
+      <c r="V43">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>7</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="U44">
+        <v>50003</v>
+      </c>
+      <c r="V44">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="R45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="U45">
+        <v>50003</v>
+      </c>
+      <c r="V45">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="U46">
+        <v>50003</v>
+      </c>
+      <c r="V46">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="6"/>
+        <v>24000</v>
+      </c>
+      <c r="U47" t="s">
+        <v>874</v>
+      </c>
+      <c r="V47" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>8</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="U48" t="s">
+        <v>874</v>
+      </c>
+      <c r="V48" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="49" spans="18:22">
+      <c r="R49">
+        <v>8</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="U49" t="s">
+        <v>874</v>
+      </c>
+      <c r="V49" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="50" spans="18:22">
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26793,7 +27951,7 @@
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27264,92 +28422,92 @@
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="185" t="s">
+      <c r="G2" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="187"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="163"/>
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="G3" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="177" t="s">
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="189" t="s">
+      <c r="N3" s="177"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="191" t="s">
+      <c r="Q3" s="166"/>
+      <c r="R3" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="195" t="s">
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="187"/>
+      <c r="AD3" s="163"/>
     </row>
     <row r="4" spans="1:32" s="125" customFormat="1" ht="36" customHeight="1">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="186" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="190" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="D4" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="180" t="s">
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="194"/>
+      <c r="H4" s="171"/>
       <c r="I4" s="6" t="s">
         <v>140</v>
       </c>
@@ -27374,22 +28532,22 @@
       <c r="R4" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="163" t="s">
+      <c r="S4" s="185" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="163"/>
+      <c r="T4" s="185"/>
       <c r="U4" s="124"/>
-      <c r="V4" s="170" t="s">
+      <c r="V4" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="163"/>
+      <c r="W4" s="185"/>
       <c r="X4" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="163" t="s">
+      <c r="Y4" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="163"/>
+      <c r="Z4" s="185"/>
       <c r="AA4" s="120" t="s">
         <v>15</v>
       </c>
@@ -27401,9 +28559,9 @@
       <c r="AE4" s="119"/>
     </row>
     <row r="5" spans="1:32" s="109" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="162"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="172"/>
       <c r="D5" s="109" t="s">
         <v>43</v>
       </c>
@@ -27413,8 +28571,8 @@
       <c r="F5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="181"/>
-      <c r="H5" s="162"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="172"/>
       <c r="I5" s="110" t="s">
         <v>57</v>
       </c>
@@ -27490,22 +28648,22 @@
       <c r="B6" s="35">
         <v>0</v>
       </c>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="194" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="182" t="s">
+      <c r="D6" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="182" t="s">
+      <c r="E6" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="183" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="171" t="s">
+      <c r="H6" s="192" t="s">
         <v>117</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -27544,14 +28702,14 @@
       <c r="B7" s="43">
         <v>0</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="167"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="172"/>
+      <c r="H7" s="193"/>
       <c r="I7" s="34" t="s">
         <v>23</v>
       </c>
@@ -27581,14 +28739,14 @@
       <c r="B8" s="43">
         <v>0</v>
       </c>
-      <c r="C8" s="174"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="167"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="184"/>
       <c r="G8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="172"/>
+      <c r="H8" s="193"/>
       <c r="I8" s="34" t="s">
         <v>23</v>
       </c>
@@ -27623,14 +28781,14 @@
       <c r="B9" s="43">
         <v>0</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="167"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="184"/>
       <c r="G9" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="172"/>
+      <c r="H9" s="193"/>
       <c r="I9" s="34" t="s">
         <v>23</v>
       </c>
@@ -27866,19 +29024,19 @@
       <c r="C15" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="166" t="s">
+      <c r="E15" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="167" t="s">
+      <c r="F15" s="184" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="189" t="s">
         <v>254</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -27911,13 +29069,13 @@
       <c r="C16" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="168"/>
+      <c r="H16" s="189"/>
       <c r="I16" s="34" t="s">
         <v>23</v>
       </c>
@@ -27958,13 +29116,13 @@
       <c r="C17" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="167"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="184"/>
       <c r="G17" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="168"/>
+      <c r="H17" s="189"/>
       <c r="I17" s="34" t="s">
         <v>23</v>
       </c>
@@ -28055,13 +29213,13 @@
       <c r="C19" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="175" t="s">
+      <c r="D19" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="175" t="s">
+      <c r="E19" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="176" t="s">
+      <c r="F19" s="175" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -28106,9 +29264,9 @@
       <c r="C20" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="175"/>
       <c r="G20" s="36" t="s">
         <v>132</v>
       </c>
@@ -32299,21 +33457,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:AB3"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="Y4:Z4"/>
@@ -32326,6 +33469,21 @@
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:AB3"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32338,10 +33496,10 @@
   <dimension ref="A1:AG104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32353,107 +33511,107 @@
       <c r="A1" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="197" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198" t="s">
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198" t="s">
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198" t="s">
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198" t="s">
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197" t="s">
         <v>393</v>
       </c>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198" t="s">
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198" t="s">
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="198"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="135" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="199" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199" t="s">
         <v>384</v>
       </c>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="131" t="s">
@@ -34486,54 +35644,54 @@
       <c r="A35" t="s">
         <v>346</v>
       </c>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="198" t="s">
         <v>365</v>
       </c>
-      <c r="C35" s="197"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197" t="s">
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198" t="s">
         <v>366</v>
       </c>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="197" t="s">
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198" t="s">
         <v>367</v>
       </c>
-      <c r="K35" s="197"/>
-      <c r="L35" s="197"/>
-      <c r="M35" s="197"/>
-      <c r="N35" s="197" t="s">
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="198" t="s">
         <v>368</v>
       </c>
-      <c r="O35" s="197"/>
-      <c r="P35" s="197"/>
-      <c r="Q35" s="197"/>
-      <c r="R35" s="197" t="s">
+      <c r="O35" s="198"/>
+      <c r="P35" s="198"/>
+      <c r="Q35" s="198"/>
+      <c r="R35" s="198" t="s">
         <v>369</v>
       </c>
-      <c r="S35" s="197"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="197"/>
-      <c r="V35" s="197" t="s">
+      <c r="S35" s="198"/>
+      <c r="T35" s="198"/>
+      <c r="U35" s="198"/>
+      <c r="V35" s="198" t="s">
         <v>370</v>
       </c>
-      <c r="W35" s="197"/>
-      <c r="X35" s="197"/>
-      <c r="Y35" s="197"/>
-      <c r="Z35" s="197" t="s">
+      <c r="W35" s="198"/>
+      <c r="X35" s="198"/>
+      <c r="Y35" s="198"/>
+      <c r="Z35" s="198" t="s">
         <v>371</v>
       </c>
-      <c r="AA35" s="197"/>
-      <c r="AB35" s="197"/>
-      <c r="AC35" s="197"/>
-      <c r="AD35" s="197" t="s">
+      <c r="AA35" s="198"/>
+      <c r="AB35" s="198"/>
+      <c r="AC35" s="198"/>
+      <c r="AD35" s="198" t="s">
         <v>372</v>
       </c>
-      <c r="AE35" s="197"/>
-      <c r="AF35" s="197"/>
-      <c r="AG35" s="197"/>
+      <c r="AE35" s="198"/>
+      <c r="AF35" s="198"/>
+      <c r="AG35" s="198"/>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
@@ -34580,7 +35738,7 @@
         <f>E41*C41</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="H41" s="199">
+      <c r="H41" s="196">
         <v>1</v>
       </c>
       <c r="I41">
@@ -34605,7 +35763,7 @@
         <f t="shared" ref="F42:F100" si="6">E42*C42</f>
         <v>33</v>
       </c>
-      <c r="H42" s="199"/>
+      <c r="H42" s="196"/>
       <c r="I42">
         <v>2</v>
       </c>
@@ -34628,7 +35786,7 @@
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="H43" s="199"/>
+      <c r="H43" s="196"/>
       <c r="I43">
         <v>3</v>
       </c>
@@ -34651,7 +35809,7 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="H44" s="199"/>
+      <c r="H44" s="196"/>
       <c r="I44">
         <v>4</v>
       </c>
@@ -34674,7 +35832,7 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="H45" s="199"/>
+      <c r="H45" s="196"/>
       <c r="I45">
         <v>5</v>
       </c>
@@ -34697,7 +35855,7 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="H46" s="199"/>
+      <c r="H46" s="196"/>
       <c r="I46">
         <v>6</v>
       </c>
@@ -34720,7 +35878,7 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="H47" s="199"/>
+      <c r="H47" s="196"/>
       <c r="I47">
         <v>7</v>
       </c>
@@ -34743,7 +35901,7 @@
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H48" s="199"/>
+      <c r="H48" s="196"/>
       <c r="I48">
         <v>8</v>
       </c>
@@ -34766,7 +35924,7 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="H49" s="199">
+      <c r="H49" s="196">
         <v>2</v>
       </c>
       <c r="I49">
@@ -34791,7 +35949,7 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="H50" s="199"/>
+      <c r="H50" s="196"/>
       <c r="I50">
         <v>2</v>
       </c>
@@ -34814,7 +35972,7 @@
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="H51" s="199"/>
+      <c r="H51" s="196"/>
       <c r="I51">
         <v>3</v>
       </c>
@@ -34837,7 +35995,7 @@
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="H52" s="199"/>
+      <c r="H52" s="196"/>
       <c r="I52">
         <v>4</v>
       </c>
@@ -34860,7 +36018,7 @@
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="H53" s="199"/>
+      <c r="H53" s="196"/>
       <c r="I53">
         <v>5</v>
       </c>
@@ -34883,7 +36041,7 @@
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="H54" s="199"/>
+      <c r="H54" s="196"/>
       <c r="I54">
         <v>6</v>
       </c>
@@ -34906,7 +36064,7 @@
         <f t="shared" si="6"/>
         <v>123.5</v>
       </c>
-      <c r="H55" s="199"/>
+      <c r="H55" s="196"/>
       <c r="I55">
         <v>7</v>
       </c>
@@ -34929,7 +36087,7 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="H56" s="199"/>
+      <c r="H56" s="196"/>
       <c r="I56">
         <v>8</v>
       </c>
@@ -34952,7 +36110,7 @@
         <f t="shared" si="6"/>
         <v>147</v>
       </c>
-      <c r="H57" s="199">
+      <c r="H57" s="196">
         <v>3</v>
       </c>
       <c r="I57">
@@ -34977,7 +36135,7 @@
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="H58" s="199"/>
+      <c r="H58" s="196"/>
       <c r="I58">
         <v>2</v>
       </c>
@@ -35000,7 +36158,7 @@
         <f t="shared" si="6"/>
         <v>161</v>
       </c>
-      <c r="H59" s="199"/>
+      <c r="H59" s="196"/>
       <c r="I59">
         <v>3</v>
       </c>
@@ -35023,7 +36181,7 @@
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="H60" s="199"/>
+      <c r="H60" s="196"/>
       <c r="I60">
         <v>4</v>
       </c>
@@ -35046,7 +36204,7 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="H61" s="199"/>
+      <c r="H61" s="196"/>
       <c r="I61">
         <v>5</v>
       </c>
@@ -35069,7 +36227,7 @@
         <f t="shared" si="6"/>
         <v>208</v>
       </c>
-      <c r="H62" s="199"/>
+      <c r="H62" s="196"/>
       <c r="I62">
         <v>6</v>
       </c>
@@ -35092,7 +36250,7 @@
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="H63" s="199"/>
+      <c r="H63" s="196"/>
       <c r="I63">
         <v>7</v>
       </c>
@@ -35115,7 +36273,7 @@
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
-      <c r="H64" s="199"/>
+      <c r="H64" s="196"/>
       <c r="I64">
         <v>8</v>
       </c>
@@ -35138,7 +36296,7 @@
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
-      <c r="H65" s="199">
+      <c r="H65" s="196">
         <v>4</v>
       </c>
       <c r="I65">
@@ -35163,7 +36321,7 @@
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="H66" s="199"/>
+      <c r="H66" s="196"/>
       <c r="I66">
         <v>2</v>
       </c>
@@ -35186,7 +36344,7 @@
         <f t="shared" si="6"/>
         <v>248</v>
       </c>
-      <c r="H67" s="199"/>
+      <c r="H67" s="196"/>
       <c r="I67">
         <v>3</v>
       </c>
@@ -35209,7 +36367,7 @@
         <f t="shared" si="6"/>
         <v>256</v>
       </c>
-      <c r="H68" s="199"/>
+      <c r="H68" s="196"/>
       <c r="I68">
         <v>4</v>
       </c>
@@ -35232,7 +36390,7 @@
         <f t="shared" si="6"/>
         <v>264</v>
       </c>
-      <c r="H69" s="199"/>
+      <c r="H69" s="196"/>
       <c r="I69">
         <v>5</v>
       </c>
@@ -35255,7 +36413,7 @@
         <f t="shared" si="6"/>
         <v>272</v>
       </c>
-      <c r="H70" s="199"/>
+      <c r="H70" s="196"/>
       <c r="I70">
         <v>6</v>
       </c>
@@ -35278,7 +36436,7 @@
         <f t="shared" si="6"/>
         <v>315</v>
       </c>
-      <c r="H71" s="199"/>
+      <c r="H71" s="196"/>
       <c r="I71">
         <v>7</v>
       </c>
@@ -35301,7 +36459,7 @@
         <f t="shared" si="6"/>
         <v>324</v>
       </c>
-      <c r="H72" s="199"/>
+      <c r="H72" s="196"/>
       <c r="I72">
         <v>8</v>
       </c>
@@ -35324,7 +36482,7 @@
         <f t="shared" si="6"/>
         <v>333</v>
       </c>
-      <c r="H73" s="199">
+      <c r="H73" s="196">
         <v>5</v>
       </c>
       <c r="I73">
@@ -35349,7 +36507,7 @@
         <f t="shared" si="6"/>
         <v>342</v>
       </c>
-      <c r="H74" s="199"/>
+      <c r="H74" s="196"/>
       <c r="I74">
         <v>2</v>
       </c>
@@ -35372,7 +36530,7 @@
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
-      <c r="H75" s="199"/>
+      <c r="H75" s="196"/>
       <c r="I75">
         <v>3</v>
       </c>
@@ -35395,7 +36553,7 @@
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="H76" s="199"/>
+      <c r="H76" s="196"/>
       <c r="I76">
         <v>4</v>
       </c>
@@ -35418,7 +36576,7 @@
         <f t="shared" si="6"/>
         <v>369</v>
       </c>
-      <c r="H77" s="199"/>
+      <c r="H77" s="196"/>
       <c r="I77">
         <v>5</v>
       </c>
@@ -35441,7 +36599,7 @@
         <f t="shared" si="6"/>
         <v>378</v>
       </c>
-      <c r="H78" s="199"/>
+      <c r="H78" s="196"/>
       <c r="I78">
         <v>6</v>
       </c>
@@ -35464,7 +36622,7 @@
         <f t="shared" si="6"/>
         <v>387</v>
       </c>
-      <c r="H79" s="199"/>
+      <c r="H79" s="196"/>
       <c r="I79">
         <v>7</v>
       </c>
@@ -35487,7 +36645,7 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="H80" s="199"/>
+      <c r="H80" s="196"/>
       <c r="I80">
         <v>8</v>
       </c>
@@ -35510,7 +36668,7 @@
         <f t="shared" si="6"/>
         <v>472.5</v>
       </c>
-      <c r="H81" s="199">
+      <c r="H81" s="196">
         <v>6</v>
       </c>
       <c r="I81">
@@ -35535,7 +36693,7 @@
         <f t="shared" si="6"/>
         <v>483</v>
       </c>
-      <c r="H82" s="199"/>
+      <c r="H82" s="196"/>
       <c r="I82">
         <v>2</v>
       </c>
@@ -35558,7 +36716,7 @@
         <f t="shared" si="6"/>
         <v>493.5</v>
       </c>
-      <c r="H83" s="199"/>
+      <c r="H83" s="196"/>
       <c r="I83">
         <v>3</v>
       </c>
@@ -35581,7 +36739,7 @@
         <f t="shared" si="6"/>
         <v>504</v>
       </c>
-      <c r="H84" s="199"/>
+      <c r="H84" s="196"/>
       <c r="I84">
         <v>4</v>
       </c>
@@ -35604,7 +36762,7 @@
         <f t="shared" si="6"/>
         <v>514.5</v>
       </c>
-      <c r="H85" s="199"/>
+      <c r="H85" s="196"/>
       <c r="I85">
         <v>5</v>
       </c>
@@ -35627,7 +36785,7 @@
         <f t="shared" si="6"/>
         <v>525</v>
       </c>
-      <c r="H86" s="199"/>
+      <c r="H86" s="196"/>
       <c r="I86">
         <v>6</v>
       </c>
@@ -35650,7 +36808,7 @@
         <f t="shared" si="6"/>
         <v>535.5</v>
       </c>
-      <c r="H87" s="199"/>
+      <c r="H87" s="196"/>
       <c r="I87">
         <v>7</v>
       </c>
@@ -35673,7 +36831,7 @@
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
-      <c r="H88" s="199"/>
+      <c r="H88" s="196"/>
       <c r="I88">
         <v>8</v>
       </c>
@@ -35696,7 +36854,7 @@
         <f t="shared" si="6"/>
         <v>556.5</v>
       </c>
-      <c r="H89" s="199">
+      <c r="H89" s="196">
         <v>7</v>
       </c>
       <c r="I89">
@@ -35721,7 +36879,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H90" s="199"/>
+      <c r="H90" s="196"/>
       <c r="I90">
         <v>2</v>
       </c>
@@ -35744,7 +36902,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H91" s="199"/>
+      <c r="H91" s="196"/>
       <c r="I91">
         <v>3</v>
       </c>
@@ -35767,7 +36925,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H92" s="199"/>
+      <c r="H92" s="196"/>
       <c r="I92">
         <v>4</v>
       </c>
@@ -35790,7 +36948,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H93" s="199"/>
+      <c r="H93" s="196"/>
       <c r="I93">
         <v>5</v>
       </c>
@@ -35813,7 +36971,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H94" s="199"/>
+      <c r="H94" s="196"/>
       <c r="I94">
         <v>6</v>
       </c>
@@ -35836,7 +36994,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H95" s="199"/>
+      <c r="H95" s="196"/>
       <c r="I95">
         <v>7</v>
       </c>
@@ -35859,7 +37017,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H96" s="199"/>
+      <c r="H96" s="196"/>
       <c r="I96">
         <v>8</v>
       </c>
@@ -35882,7 +37040,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H97" s="199">
+      <c r="H97" s="196">
         <v>8</v>
       </c>
       <c r="I97">
@@ -35907,7 +37065,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H98" s="199"/>
+      <c r="H98" s="196"/>
       <c r="I98">
         <v>2</v>
       </c>
@@ -35930,7 +37088,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H99" s="199"/>
+      <c r="H99" s="196"/>
       <c r="I99">
         <v>3</v>
       </c>
@@ -35953,7 +37111,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H100" s="199"/>
+      <c r="H100" s="196"/>
       <c r="I100">
         <v>4</v>
       </c>
@@ -35962,7 +37120,7 @@
       </c>
     </row>
     <row r="101" spans="2:10">
-      <c r="H101" s="199"/>
+      <c r="H101" s="196"/>
       <c r="I101">
         <v>5</v>
       </c>
@@ -35971,7 +37129,7 @@
       </c>
     </row>
     <row r="102" spans="2:10">
-      <c r="H102" s="199"/>
+      <c r="H102" s="196"/>
       <c r="I102">
         <v>6</v>
       </c>
@@ -35980,7 +37138,7 @@
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="H103" s="199"/>
+      <c r="H103" s="196"/>
       <c r="I103">
         <v>7</v>
       </c>
@@ -35989,7 +37147,7 @@
       </c>
     </row>
     <row r="104" spans="2:10">
-      <c r="H104" s="199"/>
+      <c r="H104" s="196"/>
       <c r="I104">
         <v>8</v>
       </c>
@@ -35999,14 +37157,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H81:H88"/>
-    <mergeCell ref="H89:H96"/>
-    <mergeCell ref="H97:H104"/>
-    <mergeCell ref="H41:H48"/>
-    <mergeCell ref="H49:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H72"/>
-    <mergeCell ref="H73:H80"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="Z35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B35:E35"/>
@@ -36023,14 +37181,14 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="R35:U35"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="Z35:AC35"/>
-    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="H81:H88"/>
+    <mergeCell ref="H89:H96"/>
+    <mergeCell ref="H97:H104"/>
+    <mergeCell ref="H41:H48"/>
+    <mergeCell ref="H49:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H72"/>
+    <mergeCell ref="H73:H80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36041,8 +37199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W114"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -39355,107 +40513,107 @@
       <c r="A1" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="197" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198" t="s">
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198" t="s">
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198" t="s">
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198" t="s">
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197" t="s">
         <v>393</v>
       </c>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198" t="s">
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198" t="s">
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="198"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="135" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="199" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199" t="s">
         <v>427</v>
       </c>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196" t="s">
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196" t="s">
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="131" t="s">
@@ -40944,7 +42102,7 @@
   <dimension ref="B2:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/gd/数值规划/成长数值相关/产出整合.xlsx
+++ b/gd/数值规划/成长数值相关/产出整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="180" windowWidth="55050" windowHeight="12345" tabRatio="972" activeTab="8"/>
+    <workbookView xWindow="-45" yWindow="180" windowWidth="55050" windowHeight="12345" tabRatio="972" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="949">
   <si>
     <t>签到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3876,6 +3876,49 @@
   <si>
     <t>获得贡献</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙2</t>
+  </si>
+  <si>
+    <t>钥匙3</t>
+  </si>
+  <si>
+    <t>宝箱1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱2</t>
+  </si>
+  <si>
+    <t>宝箱3</t>
+  </si>
+  <si>
+    <t>经验卷轴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验卷轴2</t>
   </si>
 </sst>
 </file>
@@ -4970,43 +5013,46 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5039,52 +5085,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5271,11 +5314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="7426432"/>
-        <c:axId val="212360576"/>
+        <c:axId val="50946432"/>
+        <c:axId val="50947968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7426432"/>
+        <c:axId val="50946432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5284,7 +5327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212360576"/>
+        <c:crossAx val="50947968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5292,7 +5335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212360576"/>
+        <c:axId val="50947968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5303,14 +5346,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7426432"/>
+        <c:crossAx val="50946432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16144,16 +16186,16 @@
             <v>4</v>
           </cell>
           <cell r="E13">
-            <v>95</v>
+            <v>100</v>
           </cell>
           <cell r="F13">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
           <cell r="G13">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="H13">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="I13">
             <v>1</v>
@@ -16167,7 +16209,7 @@
             <v>350</v>
           </cell>
           <cell r="N13">
-            <v>525</v>
+            <v>350</v>
           </cell>
           <cell r="Q13">
             <v>5</v>
@@ -16337,16 +16379,16 @@
             <v>4</v>
           </cell>
           <cell r="E14">
-            <v>90</v>
+            <v>100</v>
           </cell>
           <cell r="F14">
-            <v>2.5</v>
+            <v>1</v>
           </cell>
           <cell r="G14">
-            <v>10</v>
+            <v>4</v>
           </cell>
           <cell r="H14">
-            <v>26</v>
+            <v>18</v>
           </cell>
           <cell r="I14">
             <v>1</v>
@@ -16360,7 +16402,7 @@
             <v>400</v>
           </cell>
           <cell r="N14">
-            <v>1000</v>
+            <v>400</v>
           </cell>
           <cell r="Q14">
             <v>6</v>
@@ -16530,16 +16572,16 @@
             <v>5</v>
           </cell>
           <cell r="E15">
-            <v>85</v>
+            <v>90</v>
           </cell>
           <cell r="F15">
-            <v>3</v>
+            <v>2.5</v>
           </cell>
           <cell r="G15">
-            <v>15</v>
+            <v>12.5</v>
           </cell>
           <cell r="H15">
-            <v>41</v>
+            <v>30.5</v>
           </cell>
           <cell r="I15">
             <v>1</v>
@@ -16553,7 +16595,7 @@
             <v>450</v>
           </cell>
           <cell r="N15">
-            <v>1350</v>
+            <v>1125</v>
           </cell>
           <cell r="Q15">
             <v>7</v>
@@ -16732,7 +16774,7 @@
             <v>24</v>
           </cell>
           <cell r="H16">
-            <v>65</v>
+            <v>54.5</v>
           </cell>
           <cell r="I16">
             <v>1</v>
@@ -16912,30 +16954,14 @@
           <cell r="B17">
             <v>10</v>
           </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-          <cell r="F17">
-            <v>0</v>
-          </cell>
-          <cell r="G17">
-            <v>0</v>
-          </cell>
-          <cell r="H17">
-            <v>0</v>
-          </cell>
-          <cell r="I17">
-            <v>0</v>
-          </cell>
-          <cell r="J17">
-            <v>0</v>
-          </cell>
+          <cell r="C17"/>
+          <cell r="D17"/>
+          <cell r="E17"/>
+          <cell r="F17"/>
+          <cell r="G17"/>
+          <cell r="H17"/>
+          <cell r="I17"/>
+          <cell r="J17"/>
           <cell r="K17"/>
           <cell r="L17"/>
           <cell r="Q17">
@@ -17110,7 +17136,7 @@
             <v>5</v>
           </cell>
           <cell r="H18">
-            <v>70</v>
+            <v>59.5</v>
           </cell>
           <cell r="I18">
             <v>2</v>
@@ -17301,7 +17327,7 @@
             <v>10</v>
           </cell>
           <cell r="H19">
-            <v>80</v>
+            <v>69.5</v>
           </cell>
           <cell r="I19">
             <v>2</v>
@@ -17492,7 +17518,7 @@
             <v>20</v>
           </cell>
           <cell r="H20">
-            <v>100</v>
+            <v>89.5</v>
           </cell>
           <cell r="I20">
             <v>2</v>
@@ -17683,7 +17709,7 @@
             <v>45</v>
           </cell>
           <cell r="H21">
-            <v>145</v>
+            <v>134.5</v>
           </cell>
           <cell r="I21">
             <v>2</v>
@@ -17874,7 +17900,7 @@
             <v>52.5</v>
           </cell>
           <cell r="H22">
-            <v>197.5</v>
+            <v>187</v>
           </cell>
           <cell r="I22">
             <v>2</v>
@@ -18067,7 +18093,7 @@
             <v>67.5</v>
           </cell>
           <cell r="H23">
-            <v>265</v>
+            <v>254.5</v>
           </cell>
           <cell r="I23">
             <v>2</v>
@@ -18258,7 +18284,7 @@
             <v>110</v>
           </cell>
           <cell r="H24">
-            <v>375</v>
+            <v>364.5</v>
           </cell>
           <cell r="I24">
             <v>2</v>
@@ -18449,7 +18475,7 @@
             <v>130</v>
           </cell>
           <cell r="H25">
-            <v>505</v>
+            <v>494.5</v>
           </cell>
           <cell r="I25">
             <v>2</v>
@@ -18640,7 +18666,7 @@
             <v>175</v>
           </cell>
           <cell r="H26">
-            <v>680</v>
+            <v>669.5</v>
           </cell>
           <cell r="I26">
             <v>2</v>
@@ -18820,30 +18846,14 @@
           <cell r="B27">
             <v>20</v>
           </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>0</v>
-          </cell>
-          <cell r="E27">
-            <v>0</v>
-          </cell>
-          <cell r="F27">
-            <v>0</v>
-          </cell>
-          <cell r="G27">
-            <v>0</v>
-          </cell>
-          <cell r="H27">
-            <v>0</v>
-          </cell>
-          <cell r="I27">
-            <v>0</v>
-          </cell>
-          <cell r="J27">
-            <v>0</v>
-          </cell>
+          <cell r="C27"/>
+          <cell r="D27"/>
+          <cell r="E27"/>
+          <cell r="F27"/>
+          <cell r="G27"/>
+          <cell r="H27"/>
+          <cell r="I27"/>
+          <cell r="J27"/>
           <cell r="K27"/>
           <cell r="L27"/>
           <cell r="M27"/>
@@ -19025,7 +19035,7 @@
             <v>20</v>
           </cell>
           <cell r="H28">
-            <v>700</v>
+            <v>689.5</v>
           </cell>
           <cell r="I28">
             <v>3</v>
@@ -19218,7 +19228,7 @@
             <v>50</v>
           </cell>
           <cell r="H29">
-            <v>750</v>
+            <v>739.5</v>
           </cell>
           <cell r="I29">
             <v>3</v>
@@ -19411,7 +19421,7 @@
             <v>75</v>
           </cell>
           <cell r="H30">
-            <v>825</v>
+            <v>814.5</v>
           </cell>
           <cell r="I30">
             <v>3</v>
@@ -19604,7 +19614,7 @@
             <v>105</v>
           </cell>
           <cell r="H31">
-            <v>930</v>
+            <v>919.5</v>
           </cell>
           <cell r="I31">
             <v>3</v>
@@ -19797,7 +19807,7 @@
             <v>135</v>
           </cell>
           <cell r="H32">
-            <v>1065</v>
+            <v>1054.5</v>
           </cell>
           <cell r="I32">
             <v>3</v>
@@ -19988,7 +19998,7 @@
             <v>192.5</v>
           </cell>
           <cell r="H33">
-            <v>1257.5</v>
+            <v>1247</v>
           </cell>
           <cell r="I33">
             <v>3</v>
@@ -20179,7 +20189,7 @@
             <v>325</v>
           </cell>
           <cell r="H34">
-            <v>1582.5</v>
+            <v>1572</v>
           </cell>
           <cell r="I34">
             <v>3</v>
@@ -20370,7 +20380,7 @@
             <v>525</v>
           </cell>
           <cell r="H35">
-            <v>2107.5</v>
+            <v>2097</v>
           </cell>
           <cell r="I35">
             <v>3</v>
@@ -20561,7 +20571,7 @@
             <v>600</v>
           </cell>
           <cell r="H36">
-            <v>2707.5</v>
+            <v>2697</v>
           </cell>
           <cell r="I36">
             <v>3</v>
@@ -20741,24 +20751,12 @@
           <cell r="B37">
             <v>30</v>
           </cell>
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-          <cell r="D37">
-            <v>0</v>
-          </cell>
-          <cell r="E37">
-            <v>0</v>
-          </cell>
-          <cell r="F37">
-            <v>0</v>
-          </cell>
-          <cell r="G37">
-            <v>0</v>
-          </cell>
-          <cell r="H37">
-            <v>0</v>
-          </cell>
+          <cell r="C37"/>
+          <cell r="D37"/>
+          <cell r="E37"/>
+          <cell r="F37"/>
+          <cell r="G37"/>
+          <cell r="H37"/>
           <cell r="I37">
             <v>3</v>
           </cell>
@@ -20932,24 +20930,12 @@
           <cell r="B38">
             <v>31</v>
           </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-          <cell r="D38">
-            <v>0</v>
-          </cell>
-          <cell r="E38">
-            <v>0</v>
-          </cell>
-          <cell r="F38">
-            <v>0</v>
-          </cell>
-          <cell r="G38">
-            <v>0</v>
-          </cell>
-          <cell r="H38">
-            <v>0</v>
-          </cell>
+          <cell r="C38"/>
+          <cell r="D38"/>
+          <cell r="E38"/>
+          <cell r="F38"/>
+          <cell r="G38"/>
+          <cell r="H38"/>
           <cell r="I38">
             <v>3</v>
           </cell>
@@ -21114,24 +21100,12 @@
           <cell r="B39">
             <v>32</v>
           </cell>
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-          <cell r="D39">
-            <v>0</v>
-          </cell>
-          <cell r="E39">
-            <v>0</v>
-          </cell>
-          <cell r="F39">
-            <v>0</v>
-          </cell>
-          <cell r="G39">
-            <v>0</v>
-          </cell>
-          <cell r="H39">
-            <v>0</v>
-          </cell>
+          <cell r="C39"/>
+          <cell r="D39"/>
+          <cell r="E39"/>
+          <cell r="F39"/>
+          <cell r="G39"/>
+          <cell r="H39"/>
           <cell r="I39">
             <v>3</v>
           </cell>
@@ -21310,7 +21284,7 @@
             <v>200</v>
           </cell>
           <cell r="H40">
-            <v>2907.5</v>
+            <v>2897</v>
           </cell>
           <cell r="I40">
             <v>4</v>
@@ -21501,7 +21475,7 @@
             <v>300</v>
           </cell>
           <cell r="H41">
-            <v>3207.5</v>
+            <v>3197</v>
           </cell>
           <cell r="I41">
             <v>4</v>
@@ -21692,7 +21666,7 @@
             <v>525</v>
           </cell>
           <cell r="H42">
-            <v>3732.5</v>
+            <v>3722</v>
           </cell>
           <cell r="I42">
             <v>4</v>
@@ -21885,7 +21859,7 @@
             <v>675</v>
           </cell>
           <cell r="H43">
-            <v>4407.5</v>
+            <v>4397</v>
           </cell>
           <cell r="I43">
             <v>4</v>
@@ -22078,7 +22052,7 @@
             <v>962.5</v>
           </cell>
           <cell r="H44">
-            <v>5370</v>
+            <v>5359.5</v>
           </cell>
           <cell r="I44">
             <v>4</v>
@@ -22271,7 +22245,7 @@
             <v>1137.5</v>
           </cell>
           <cell r="H45">
-            <v>6507.5</v>
+            <v>6497</v>
           </cell>
           <cell r="I45">
             <v>4</v>
@@ -22462,7 +22436,7 @@
             <v>1400</v>
           </cell>
           <cell r="H46">
-            <v>7907.5</v>
+            <v>7897</v>
           </cell>
           <cell r="I46">
             <v>4</v>
@@ -22655,7 +22629,7 @@
             <v>1800</v>
           </cell>
           <cell r="H47">
-            <v>9707.5</v>
+            <v>9697</v>
           </cell>
           <cell r="I47">
             <v>4</v>
@@ -22698,7 +22672,7 @@
             <v>2025</v>
           </cell>
           <cell r="H48">
-            <v>11732.5</v>
+            <v>11722</v>
           </cell>
           <cell r="I48">
             <v>4</v>
@@ -22744,7 +22718,7 @@
             <v>350</v>
           </cell>
           <cell r="H49">
-            <v>12082.5</v>
+            <v>12072</v>
           </cell>
           <cell r="I49">
             <v>5</v>
@@ -22789,7 +22763,7 @@
             <v>562.5</v>
           </cell>
           <cell r="H50">
-            <v>12645</v>
+            <v>12634.5</v>
           </cell>
           <cell r="I50">
             <v>5</v>
@@ -22832,7 +22806,7 @@
             <v>825</v>
           </cell>
           <cell r="H51">
-            <v>13470</v>
+            <v>13459.5</v>
           </cell>
           <cell r="I51">
             <v>5</v>
@@ -22875,7 +22849,7 @@
             <v>1137.5</v>
           </cell>
           <cell r="H52">
-            <v>14607.5</v>
+            <v>14597</v>
           </cell>
           <cell r="I52">
             <v>5</v>
@@ -22918,7 +22892,7 @@
             <v>1400</v>
           </cell>
           <cell r="H53">
-            <v>16007.5</v>
+            <v>15997</v>
           </cell>
           <cell r="I53">
             <v>5</v>
@@ -22961,7 +22935,7 @@
             <v>1800</v>
           </cell>
           <cell r="H54">
-            <v>17807.5</v>
+            <v>17797</v>
           </cell>
           <cell r="I54">
             <v>5</v>
@@ -23002,7 +22976,7 @@
             <v>2250</v>
           </cell>
           <cell r="H55">
-            <v>20057.5</v>
+            <v>20047</v>
           </cell>
           <cell r="I55">
             <v>5</v>
@@ -23043,7 +23017,7 @@
             <v>2612.5</v>
           </cell>
           <cell r="H56">
-            <v>22670</v>
+            <v>22659.5</v>
           </cell>
           <cell r="I56">
             <v>5</v>
@@ -23084,7 +23058,7 @@
             <v>3150</v>
           </cell>
           <cell r="H57">
-            <v>25820</v>
+            <v>25809.5</v>
           </cell>
           <cell r="I57">
             <v>5</v>
@@ -26884,10 +26858,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V22"/>
+  <dimension ref="A2:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:H32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27830,6 +27804,133 @@
       </c>
       <c r="P22">
         <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="B26" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="C27" t="s">
+        <v>938</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>947</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="C28" t="s">
+        <v>939</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>948</v>
+      </c>
+      <c r="G28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="C29" t="s">
+        <v>940</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="F30">
+        <v>10016</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="C31" t="s">
+        <v>941</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>10017</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="C32" t="s">
+        <v>942</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>11001</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
+        <v>943</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>11002</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" t="s">
+        <v>944</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>11003</v>
+      </c>
+      <c r="G34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" t="s">
+        <v>945</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>10003</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" t="s">
+        <v>946</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -29236,92 +29337,92 @@
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="163"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="186"/>
+      <c r="AD2" s="187"/>
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="G3" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="170" t="s">
+      <c r="H3" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="177" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="176" t="s">
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="177"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="165" t="s">
+      <c r="N3" s="178"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="167" t="s">
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="173" t="s">
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="193"/>
+      <c r="AC3" s="195" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="163"/>
+      <c r="AD3" s="187"/>
     </row>
     <row r="4" spans="1:32" s="125" customFormat="1" ht="36" customHeight="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="179" t="s">
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="171"/>
+      <c r="H4" s="194"/>
       <c r="I4" s="6" t="s">
         <v>140</v>
       </c>
@@ -29346,22 +29447,22 @@
       <c r="R4" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="185" t="s">
+      <c r="S4" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="185"/>
+      <c r="T4" s="163"/>
       <c r="U4" s="124"/>
-      <c r="V4" s="191" t="s">
+      <c r="V4" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="185"/>
+      <c r="W4" s="163"/>
       <c r="X4" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="185" t="s">
+      <c r="Y4" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="185"/>
+      <c r="Z4" s="163"/>
       <c r="AA4" s="120" t="s">
         <v>15</v>
       </c>
@@ -29373,9 +29474,9 @@
       <c r="AE4" s="119"/>
     </row>
     <row r="5" spans="1:32" s="109" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="187"/>
-      <c r="B5" s="190"/>
-      <c r="C5" s="172"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="109" t="s">
         <v>43</v>
       </c>
@@ -29385,8 +29486,8 @@
       <c r="F5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="172"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="110" t="s">
         <v>57</v>
       </c>
@@ -29462,22 +29563,22 @@
       <c r="B6" s="35">
         <v>0</v>
       </c>
-      <c r="C6" s="194" t="s">
+      <c r="C6" s="173" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="184" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="192" t="s">
+      <c r="H6" s="171" t="s">
         <v>117</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -29516,14 +29617,14 @@
       <c r="B7" s="43">
         <v>0</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="184"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="193"/>
+      <c r="H7" s="172"/>
       <c r="I7" s="34" t="s">
         <v>23</v>
       </c>
@@ -29553,14 +29654,14 @@
       <c r="B8" s="43">
         <v>0</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="184"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="167"/>
       <c r="G8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="193"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="34" t="s">
         <v>23</v>
       </c>
@@ -29595,14 +29696,14 @@
       <c r="B9" s="43">
         <v>0</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="184"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="167"/>
       <c r="G9" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="193"/>
+      <c r="H9" s="172"/>
       <c r="I9" s="34" t="s">
         <v>23</v>
       </c>
@@ -29838,19 +29939,19 @@
       <c r="C15" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="188" t="s">
+      <c r="E15" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="184" t="s">
+      <c r="F15" s="167" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="189" t="s">
+      <c r="H15" s="168" t="s">
         <v>254</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -29883,13 +29984,13 @@
       <c r="C16" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="184"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
       <c r="G16" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="189"/>
+      <c r="H16" s="168"/>
       <c r="I16" s="34" t="s">
         <v>23</v>
       </c>
@@ -29930,13 +30031,13 @@
       <c r="C17" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="184"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
       <c r="G17" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="189"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="34" t="s">
         <v>23</v>
       </c>
@@ -30027,13 +30128,13 @@
       <c r="C19" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="174" t="s">
+      <c r="D19" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="174" t="s">
+      <c r="E19" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="175" t="s">
+      <c r="F19" s="176" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -30078,9 +30179,9 @@
       <c r="C20" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="176"/>
       <c r="G20" s="36" t="s">
         <v>132</v>
       </c>
@@ -34271,6 +34372,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:AB3"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="Y4:Z4"/>
@@ -34283,21 +34399,6 @@
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:AB3"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34325,107 +34426,107 @@
       <c r="A1" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197" t="s">
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197" t="s">
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197" t="s">
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197" t="s">
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197" t="s">
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="135" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="196" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196" t="s">
         <v>384</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199" t="s">
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199" t="s">
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="131" t="s">
@@ -36458,54 +36559,54 @@
       <c r="A35" t="s">
         <v>346</v>
       </c>
-      <c r="B35" s="198" t="s">
+      <c r="B35" s="197" t="s">
         <v>365</v>
       </c>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198" t="s">
+      <c r="C35" s="197"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198" t="s">
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="197" t="s">
         <v>367</v>
       </c>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="198"/>
-      <c r="N35" s="198" t="s">
+      <c r="K35" s="197"/>
+      <c r="L35" s="197"/>
+      <c r="M35" s="197"/>
+      <c r="N35" s="197" t="s">
         <v>368</v>
       </c>
-      <c r="O35" s="198"/>
-      <c r="P35" s="198"/>
-      <c r="Q35" s="198"/>
-      <c r="R35" s="198" t="s">
+      <c r="O35" s="197"/>
+      <c r="P35" s="197"/>
+      <c r="Q35" s="197"/>
+      <c r="R35" s="197" t="s">
         <v>369</v>
       </c>
-      <c r="S35" s="198"/>
-      <c r="T35" s="198"/>
-      <c r="U35" s="198"/>
-      <c r="V35" s="198" t="s">
+      <c r="S35" s="197"/>
+      <c r="T35" s="197"/>
+      <c r="U35" s="197"/>
+      <c r="V35" s="197" t="s">
         <v>370</v>
       </c>
-      <c r="W35" s="198"/>
-      <c r="X35" s="198"/>
-      <c r="Y35" s="198"/>
-      <c r="Z35" s="198" t="s">
+      <c r="W35" s="197"/>
+      <c r="X35" s="197"/>
+      <c r="Y35" s="197"/>
+      <c r="Z35" s="197" t="s">
         <v>371</v>
       </c>
-      <c r="AA35" s="198"/>
-      <c r="AB35" s="198"/>
-      <c r="AC35" s="198"/>
-      <c r="AD35" s="198" t="s">
+      <c r="AA35" s="197"/>
+      <c r="AB35" s="197"/>
+      <c r="AC35" s="197"/>
+      <c r="AD35" s="197" t="s">
         <v>372</v>
       </c>
-      <c r="AE35" s="198"/>
-      <c r="AF35" s="198"/>
-      <c r="AG35" s="198"/>
+      <c r="AE35" s="197"/>
+      <c r="AF35" s="197"/>
+      <c r="AG35" s="197"/>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
@@ -36552,7 +36653,7 @@
         <f>E41*C41</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="H41" s="196">
+      <c r="H41" s="199">
         <v>1</v>
       </c>
       <c r="I41">
@@ -36577,7 +36678,7 @@
         <f t="shared" ref="F42:F100" si="6">E42*C42</f>
         <v>33</v>
       </c>
-      <c r="H42" s="196"/>
+      <c r="H42" s="199"/>
       <c r="I42">
         <v>2</v>
       </c>
@@ -36600,7 +36701,7 @@
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="H43" s="196"/>
+      <c r="H43" s="199"/>
       <c r="I43">
         <v>3</v>
       </c>
@@ -36623,7 +36724,7 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="H44" s="196"/>
+      <c r="H44" s="199"/>
       <c r="I44">
         <v>4</v>
       </c>
@@ -36646,7 +36747,7 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="H45" s="196"/>
+      <c r="H45" s="199"/>
       <c r="I45">
         <v>5</v>
       </c>
@@ -36669,7 +36770,7 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="H46" s="196"/>
+      <c r="H46" s="199"/>
       <c r="I46">
         <v>6</v>
       </c>
@@ -36692,7 +36793,7 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="H47" s="196"/>
+      <c r="H47" s="199"/>
       <c r="I47">
         <v>7</v>
       </c>
@@ -36715,7 +36816,7 @@
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="H48" s="196"/>
+      <c r="H48" s="199"/>
       <c r="I48">
         <v>8</v>
       </c>
@@ -36738,7 +36839,7 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="H49" s="196">
+      <c r="H49" s="199">
         <v>2</v>
       </c>
       <c r="I49">
@@ -36763,7 +36864,7 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="H50" s="196"/>
+      <c r="H50" s="199"/>
       <c r="I50">
         <v>2</v>
       </c>
@@ -36786,7 +36887,7 @@
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="H51" s="196"/>
+      <c r="H51" s="199"/>
       <c r="I51">
         <v>3</v>
       </c>
@@ -36809,7 +36910,7 @@
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="H52" s="196"/>
+      <c r="H52" s="199"/>
       <c r="I52">
         <v>4</v>
       </c>
@@ -36832,7 +36933,7 @@
         <f t="shared" si="6"/>
         <v>110.5</v>
       </c>
-      <c r="H53" s="196"/>
+      <c r="H53" s="199"/>
       <c r="I53">
         <v>5</v>
       </c>
@@ -36855,7 +36956,7 @@
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="H54" s="196"/>
+      <c r="H54" s="199"/>
       <c r="I54">
         <v>6</v>
       </c>
@@ -36878,7 +36979,7 @@
         <f t="shared" si="6"/>
         <v>123.5</v>
       </c>
-      <c r="H55" s="196"/>
+      <c r="H55" s="199"/>
       <c r="I55">
         <v>7</v>
       </c>
@@ -36901,7 +37002,7 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="H56" s="196"/>
+      <c r="H56" s="199"/>
       <c r="I56">
         <v>8</v>
       </c>
@@ -36924,7 +37025,7 @@
         <f t="shared" si="6"/>
         <v>147</v>
       </c>
-      <c r="H57" s="196">
+      <c r="H57" s="199">
         <v>3</v>
       </c>
       <c r="I57">
@@ -36949,7 +37050,7 @@
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="H58" s="196"/>
+      <c r="H58" s="199"/>
       <c r="I58">
         <v>2</v>
       </c>
@@ -36972,7 +37073,7 @@
         <f t="shared" si="6"/>
         <v>161</v>
       </c>
-      <c r="H59" s="196"/>
+      <c r="H59" s="199"/>
       <c r="I59">
         <v>3</v>
       </c>
@@ -36995,7 +37096,7 @@
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="H60" s="196"/>
+      <c r="H60" s="199"/>
       <c r="I60">
         <v>4</v>
       </c>
@@ -37018,7 +37119,7 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="H61" s="196"/>
+      <c r="H61" s="199"/>
       <c r="I61">
         <v>5</v>
       </c>
@@ -37041,7 +37142,7 @@
         <f t="shared" si="6"/>
         <v>208</v>
       </c>
-      <c r="H62" s="196"/>
+      <c r="H62" s="199"/>
       <c r="I62">
         <v>6</v>
       </c>
@@ -37064,7 +37165,7 @@
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="H63" s="196"/>
+      <c r="H63" s="199"/>
       <c r="I63">
         <v>7</v>
       </c>
@@ -37087,7 +37188,7 @@
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
-      <c r="H64" s="196"/>
+      <c r="H64" s="199"/>
       <c r="I64">
         <v>8</v>
       </c>
@@ -37110,7 +37211,7 @@
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
-      <c r="H65" s="196">
+      <c r="H65" s="199">
         <v>4</v>
       </c>
       <c r="I65">
@@ -37135,7 +37236,7 @@
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="H66" s="196"/>
+      <c r="H66" s="199"/>
       <c r="I66">
         <v>2</v>
       </c>
@@ -37158,7 +37259,7 @@
         <f t="shared" si="6"/>
         <v>248</v>
       </c>
-      <c r="H67" s="196"/>
+      <c r="H67" s="199"/>
       <c r="I67">
         <v>3</v>
       </c>
@@ -37181,7 +37282,7 @@
         <f t="shared" si="6"/>
         <v>256</v>
       </c>
-      <c r="H68" s="196"/>
+      <c r="H68" s="199"/>
       <c r="I68">
         <v>4</v>
       </c>
@@ -37204,7 +37305,7 @@
         <f t="shared" si="6"/>
         <v>264</v>
       </c>
-      <c r="H69" s="196"/>
+      <c r="H69" s="199"/>
       <c r="I69">
         <v>5</v>
       </c>
@@ -37227,7 +37328,7 @@
         <f t="shared" si="6"/>
         <v>272</v>
       </c>
-      <c r="H70" s="196"/>
+      <c r="H70" s="199"/>
       <c r="I70">
         <v>6</v>
       </c>
@@ -37250,7 +37351,7 @@
         <f t="shared" si="6"/>
         <v>315</v>
       </c>
-      <c r="H71" s="196"/>
+      <c r="H71" s="199"/>
       <c r="I71">
         <v>7</v>
       </c>
@@ -37273,7 +37374,7 @@
         <f t="shared" si="6"/>
         <v>324</v>
       </c>
-      <c r="H72" s="196"/>
+      <c r="H72" s="199"/>
       <c r="I72">
         <v>8</v>
       </c>
@@ -37296,7 +37397,7 @@
         <f t="shared" si="6"/>
         <v>333</v>
       </c>
-      <c r="H73" s="196">
+      <c r="H73" s="199">
         <v>5</v>
       </c>
       <c r="I73">
@@ -37321,7 +37422,7 @@
         <f t="shared" si="6"/>
         <v>342</v>
       </c>
-      <c r="H74" s="196"/>
+      <c r="H74" s="199"/>
       <c r="I74">
         <v>2</v>
       </c>
@@ -37344,7 +37445,7 @@
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
-      <c r="H75" s="196"/>
+      <c r="H75" s="199"/>
       <c r="I75">
         <v>3</v>
       </c>
@@ -37367,7 +37468,7 @@
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="H76" s="196"/>
+      <c r="H76" s="199"/>
       <c r="I76">
         <v>4</v>
       </c>
@@ -37390,7 +37491,7 @@
         <f t="shared" si="6"/>
         <v>369</v>
       </c>
-      <c r="H77" s="196"/>
+      <c r="H77" s="199"/>
       <c r="I77">
         <v>5</v>
       </c>
@@ -37413,7 +37514,7 @@
         <f t="shared" si="6"/>
         <v>378</v>
       </c>
-      <c r="H78" s="196"/>
+      <c r="H78" s="199"/>
       <c r="I78">
         <v>6</v>
       </c>
@@ -37436,7 +37537,7 @@
         <f t="shared" si="6"/>
         <v>387</v>
       </c>
-      <c r="H79" s="196"/>
+      <c r="H79" s="199"/>
       <c r="I79">
         <v>7</v>
       </c>
@@ -37459,7 +37560,7 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="H80" s="196"/>
+      <c r="H80" s="199"/>
       <c r="I80">
         <v>8</v>
       </c>
@@ -37482,7 +37583,7 @@
         <f t="shared" si="6"/>
         <v>472.5</v>
       </c>
-      <c r="H81" s="196">
+      <c r="H81" s="199">
         <v>6</v>
       </c>
       <c r="I81">
@@ -37507,7 +37608,7 @@
         <f t="shared" si="6"/>
         <v>483</v>
       </c>
-      <c r="H82" s="196"/>
+      <c r="H82" s="199"/>
       <c r="I82">
         <v>2</v>
       </c>
@@ -37530,7 +37631,7 @@
         <f t="shared" si="6"/>
         <v>493.5</v>
       </c>
-      <c r="H83" s="196"/>
+      <c r="H83" s="199"/>
       <c r="I83">
         <v>3</v>
       </c>
@@ -37553,7 +37654,7 @@
         <f t="shared" si="6"/>
         <v>504</v>
       </c>
-      <c r="H84" s="196"/>
+      <c r="H84" s="199"/>
       <c r="I84">
         <v>4</v>
       </c>
@@ -37576,7 +37677,7 @@
         <f t="shared" si="6"/>
         <v>514.5</v>
       </c>
-      <c r="H85" s="196"/>
+      <c r="H85" s="199"/>
       <c r="I85">
         <v>5</v>
       </c>
@@ -37599,7 +37700,7 @@
         <f t="shared" si="6"/>
         <v>525</v>
       </c>
-      <c r="H86" s="196"/>
+      <c r="H86" s="199"/>
       <c r="I86">
         <v>6</v>
       </c>
@@ -37622,7 +37723,7 @@
         <f t="shared" si="6"/>
         <v>535.5</v>
       </c>
-      <c r="H87" s="196"/>
+      <c r="H87" s="199"/>
       <c r="I87">
         <v>7</v>
       </c>
@@ -37645,7 +37746,7 @@
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
-      <c r="H88" s="196"/>
+      <c r="H88" s="199"/>
       <c r="I88">
         <v>8</v>
       </c>
@@ -37668,7 +37769,7 @@
         <f t="shared" si="6"/>
         <v>556.5</v>
       </c>
-      <c r="H89" s="196">
+      <c r="H89" s="199">
         <v>7</v>
       </c>
       <c r="I89">
@@ -37693,7 +37794,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H90" s="196"/>
+      <c r="H90" s="199"/>
       <c r="I90">
         <v>2</v>
       </c>
@@ -37716,7 +37817,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H91" s="196"/>
+      <c r="H91" s="199"/>
       <c r="I91">
         <v>3</v>
       </c>
@@ -37739,7 +37840,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H92" s="196"/>
+      <c r="H92" s="199"/>
       <c r="I92">
         <v>4</v>
       </c>
@@ -37762,7 +37863,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H93" s="196"/>
+      <c r="H93" s="199"/>
       <c r="I93">
         <v>5</v>
       </c>
@@ -37785,7 +37886,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H94" s="196"/>
+      <c r="H94" s="199"/>
       <c r="I94">
         <v>6</v>
       </c>
@@ -37808,7 +37909,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H95" s="196"/>
+      <c r="H95" s="199"/>
       <c r="I95">
         <v>7</v>
       </c>
@@ -37831,7 +37932,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H96" s="196"/>
+      <c r="H96" s="199"/>
       <c r="I96">
         <v>8</v>
       </c>
@@ -37854,7 +37955,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H97" s="196">
+      <c r="H97" s="199">
         <v>8</v>
       </c>
       <c r="I97">
@@ -37879,7 +37980,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H98" s="196"/>
+      <c r="H98" s="199"/>
       <c r="I98">
         <v>2</v>
       </c>
@@ -37902,7 +38003,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H99" s="196"/>
+      <c r="H99" s="199"/>
       <c r="I99">
         <v>3</v>
       </c>
@@ -37925,7 +38026,7 @@
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
-      <c r="H100" s="196"/>
+      <c r="H100" s="199"/>
       <c r="I100">
         <v>4</v>
       </c>
@@ -37934,7 +38035,7 @@
       </c>
     </row>
     <row r="101" spans="2:10">
-      <c r="H101" s="196"/>
+      <c r="H101" s="199"/>
       <c r="I101">
         <v>5</v>
       </c>
@@ -37943,7 +38044,7 @@
       </c>
     </row>
     <row r="102" spans="2:10">
-      <c r="H102" s="196"/>
+      <c r="H102" s="199"/>
       <c r="I102">
         <v>6</v>
       </c>
@@ -37952,7 +38053,7 @@
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="H103" s="196"/>
+      <c r="H103" s="199"/>
       <c r="I103">
         <v>7</v>
       </c>
@@ -37961,7 +38062,7 @@
       </c>
     </row>
     <row r="104" spans="2:10">
-      <c r="H104" s="196"/>
+      <c r="H104" s="199"/>
       <c r="I104">
         <v>8</v>
       </c>
@@ -37971,14 +38072,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="R35:U35"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="Z35:AC35"/>
-    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="H81:H88"/>
+    <mergeCell ref="H89:H96"/>
+    <mergeCell ref="H97:H104"/>
+    <mergeCell ref="H41:H48"/>
+    <mergeCell ref="H49:H56"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="H65:H72"/>
+    <mergeCell ref="H73:H80"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B35:E35"/>
@@ -37995,14 +38096,14 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="H81:H88"/>
-    <mergeCell ref="H89:H96"/>
-    <mergeCell ref="H97:H104"/>
-    <mergeCell ref="H41:H48"/>
-    <mergeCell ref="H49:H56"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="H65:H72"/>
-    <mergeCell ref="H73:H80"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="Z35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41327,107 +41428,107 @@
       <c r="A1" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197" t="s">
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197" t="s">
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198" t="s">
         <v>392</v>
       </c>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197" t="s">
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197" t="s">
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197" t="s">
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198" t="s">
         <v>350</v>
       </c>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="135" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="196" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199" t="s">
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196" t="s">
         <v>427</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199" t="s">
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199" t="s">
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196" t="s">
         <v>424</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199" t="s">
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199" t="s">
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199" t="s">
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="131" t="s">
@@ -43902,7 +44003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
